--- a/dataset/isi_f1.xlsx
+++ b/dataset/isi_f1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,7 +474,11 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>11 pengertian sejarahpengenalankita kerap mendengar ungkapan bahawa sejarah membawa banyak iktibar kepada kitaapakah yang dimaksudkan dengan sejarah bagaimanakah kita mengukur masa silam dalamsejarah bagaimanakah pula kita dapat mengetahui sejarah lampau sesebuah masyarakatdan negara apabila mengetahui sesuatu peristiwa masa lampau mengapakah masih wujudpelbagai tafsiran mengenainya semua persoalan ini akan terjawab dalam bab inisecara umumnya sejarah ialah peristiwa yang berlaku pada masa lalu peristiwamasa lalu yang berlaku dalam kehidupan sesebuah masyarakat atau negara akan dikajioleh sejarawan sejarawan merupakan ahli sejarah yang menyelidiki rekodrekod lalu danmemuatkan dapatan kajian mereka seperti dalam bentuk buku monograf atau makalahterdapat beberapa pengertian sejarah dari aspek bahasa seperti yang berikutdalam bahasa melayuistilah sejarah berasal daripada perkataan arab syajaratun yangbererti pokok sejarah juga dikaitkan dengan salasilah riwayatketurunan dan asal usulkamus dewan mendefinisikan sejarah sebagaiasal usul keturunan salasilahapakahperistiwa yang benarbenar berlaku pada waktu yang lampau kisahsejarah riwayat dan tambokajian atau pengetahuan tentang peristiwaperistiwa yang telah laludalam bahasa inggeris sejarah ialah historyhistory bererti cerita tentang seseorang perkataan ini berasaldaripada bahasa yunani historia yang bererti penyelidikanglosariiktibar pengajaranmonograf tulisan huraian rencanatafsiran penjelasan pengertian atau pendapattambo riwayat dahulu kala4</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -495,7 +499,11 @@
           <t>5</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>12 pengertian sejarah mengikutpandangan sejarawankita juga boleh mengetahui dengan lebih mendalam pengertian sejarah mengikut pandanganbeberapa orang sejarawan tersohor seperti yang berikutsejarawan yang mula menggunakanperkataan sejarah atau historia yangpenceritaan tentang tindakan bermaksud penyelidikan atau penyiasatanmanusia yang penting dan terhadap peristiwa silam mahupun sezamanmengagumkan serta sebabkaryanya yang terkenal ialah histories atauberlakunya sesuatu peristiwasejarah perang parsi the persian warherodotuskaryanya ini ditulis berdasarkan kajiannyasumber r suntharalingamterhadap peristiwa yang benar berlakupensejarahan barat 1993 hlm 910sejarah merupakan tindak balas pembaca suatu proses interaksiterhadap penulisan sejarah iaitu faktafakta berterusan antara ahli sejarahyang ditulis oleh sejarawan dengan faktafaktanya suatu dialogkaryanya yang terkenal ialah what is history yang tidak berkesudahanantara masa kini dengansumber ab rahman haji ismail penterjemahmasa lampaueh carr apakah sejarah 1998 hlm 8sejarah membicarakan karyanya yang terkenal ialah muqaddimahyang mengandungi enam babperkara tentang masyarakatmenceritakan dan mengupas perihalmanusia peradaban duniakehidupan manusia bermula zaman primitifdan perubahanperubahanhingga kehidupan di bandaryang berlaku pada sifatsifatmasyarakat itu sumber muhd yusof ibrahim pengertian sejarahibn khaldun1986 hlm 143antara sejarawansejarah merujuk kepada apaapa yang pernahtempatan tersohoratau sudah berlaku sejarah mendorong kita lebih memahamiyang mengkajiapaapa yang berlaku pada masa kini di samping menjaminsejarah malaysiakesilapan yang sama tidak berulang sejarah ialah ibukepada semua bidangkhoo kay kim info tambahan yang diperoleh daripada temu bual pada 14 april 2016sejarawan tempatan yang mengkajisejarah ialah masa lalu itu sendiritentang ilmu dan disiplin sejarahsejarah juga merupakan catatan ataupunantara karya beliau yang terkenalrekod tentang sesuatu peristiwa yangtermasuklah sejarawan danberlaku pada suatu masa yang lalupersejarahan melayu tradisi dantransformasimuhd yusof sumber muhd yusof ibrahim ilmu sejarah falsafahibrahim pengertian kaedah dan pensejarahan 2013 hlm 9jelaslah kepada kita bahawa pengertian sejarah dari aspek bahasadan pandangan sejarawan merujuk tentang masyarakat danterdapat banyak pengertian sejarahperistiwa masa lalu yang diperoleh berdasarkan bukti sejarahrumuskan takrifan sejarahmampu memberikan teladan dan pengajaran kepada kita5</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -516,7 +524,11 @@
           <t>6</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>13 masa silam dan ruang dalam sejarahdalam mempelajari sejarah kita akan merujuk kepada masa silam dan ruang yang luasdan tiada batasnyamasa silam merupakan rentetan peristiwa yang telah berlaku masa silam dikajiberdasarkan urutan masa yang dinamakan kronologi kronologi juga merujukkepada rentetan peristiwa yang berlaku secara teratur mengikut urutan masa dariawal hingga yang terakhir dan bergerak mengikut satu garisan lurus ruang masaini dapat dibahagikan kepada dekad 10 tahun abad 100 tahun dan alaf 1000tahun konsep masa juga boleh diukur mengikut zaman seperti sebelum masihism dan masihi m zaman masihi bermula dengan kelahiran nabi isa aszaman sebelum masihi mmasihi sm0m10m 100m 1000mdekadabadalafrajah garis masaruang dalam sejarah yang luas mendorong sejarawan membahagikan penulisanmereka kepada tema tertentu seperti politik ekonomi dan sosial hal ini bagimemudahkan sejarawan melakukan penyelidikan sebelum membuat penulisansejarah dalam konteks sejarah malaysia ruang masa dibahagikan kepadabeberapa tempoh masa contohnya era kesultanan melayu melaka kemunculankuasakuasa luar dan kemerdekaan negaraaktivitimembina garis masa sejarah keluarga andalakukan temu bual bersamasama ibu dan ayah anda catatkan peristiwa bersejarah atauyang bermakna dalam keluarga anda seperti perkenalan ibu dan ayah tarikh perkahwinankelahiran ahli keluarga dan kematian bina satu garis masa yang paling menarik bagimenggambarkan semua peristiwa tersebut66cerna mindaa b2bermulanya kerajaan melaka pengisytiharan malaysiasumber perbadanan muzium melaka sumber arkib negara malaysiac dpendudukan jepun di tanah melayu kedatangan portugis ke melakasumber arkib negara malaysia sumber perbadanan muzium melakae1 berdasarkan gambar a hingga ebina peta pemikiran yang sesuaimengikut kronologi masa dengantepat ithink2 pilih satu daripada gambar yangdifikirkan bermakna kepada andamengapakah anda menganggapnyaamat bermaknamajlis menandatangani perjanjian kemerdekaansumber arkib negara malaysiaberdasarkan masa silam dan ruang dalam sejarah yang luas sejarawan telahmengkhususkan bidang kajian mereka berdasarkan tema tertentu seperti politikekonomi dan sosial hal ini bagi menambahkan kepelbagaian dalam pengkajian danpenulisan sejarah77</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -537,7 +549,11 @@
           <t>8</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>14 sumber sejarahsumber sejarah terbahagi kepada dua iaitu sumber primer dan sumber sekundersumber primer contohfosil dokumen rasmisumber iniartifak manuskripbelum diolah ataubukan artifak fail rasmi jabatanditerbitkanbatu bersurat surat peribadibersifat asliketerangan lisan diaribelum ditafsirsumbersejarahsumber sekunderbahan yang contohtelah diolah dan buku jurnalditerbitkan akhbar ensiklopediabahan tersebar majalah risalahkepada umumsejarah ditulis berdasarkan kajian terhadap sumber sejarah iaitu sumber primer dan sumbersekunder yang membantu kita untuk mengetahui sesuatu peristiwa masa laluartifak merupakan peralatan ciptaan manusia yang digunakanuntuk perburuan pertanian dan perdagangan peralatan ini diperbuatdaripada batu kaca dan logam penemuan artifak loceng gangsadi kampung pencu muar johor boleh dijadikan sumber untukmelihat hubungan perdagangan dengan kerajaan funan locengini dihasilkan sekitar 150 tahun masihi iaitu bersamaan denganperluasan kuasa kerajaan funanloceng gangsa sumber muzium negarabukan artifak merupakan data arkeologi berkaitan dengan budayamanusia yang terdapat di bawah tanah dan di atas permukaan tanahseperti dinding gua dinding kota dan struktur binaan penemuancandi lembah bujang boleh dijadikan sumber kajian bagimenunjukkan adanya pengaruh hindu dan buddha serta hubunganperdagangan antara india dengan kedahsumber nik hassan shuhaimi nik abdul rahman ed encyclopedia of malaysia earlycandi lembah bujanghistory singapura archipelago press hlm 94ensiklopedia merupakan satu daripada sumber sekunder bahanyang terkandung dalam ensiklopedia ini berdasarkan fakta dansumber sejarah yang sahih contohnya the encyclopedia ofmalaysia yang mengandungi beberapa tema seperti sejarah awalsejarah moden awal arkitektur laut dan tumbuhtumbuhanensiklopedia8cerna minda2a klasifikasikan bahan berikut kepada sumber primer atau sumber sekunder1 2 3 4manuskrip sejarah artifak di terumbu mangsimelayu kudat sabahensiklopedia56 7rangka manusiadi gua cha3 kelantan4buku biografi diaripolitik tunku abdulrahman putra jurnalb santubong merupakan satu daripada tapak arkeologi di sarawak di sini terdapatpenemuan penting yang boleh dijadikan sumber primer iaitu artifak arca buddha danartifak seramik barang perdagangan dari china dinasti song dan dinasti tang1 apakah kepentingan penemuan sumberprimer ini2 pada pendapat anda adakah sumberprimer sahaja mampu merungkai semuapenyelidikan tentang sejarah santubong5 6 7ini berikan alasan andasumber nik hassan shuhaimi nik abdul rahman edencyclopedia of malaysia early history singapuraarchipelago press 1998 hlm 112sumber sejara h amat penting dalam penyelidikan dan penulisansejarah sumber primer perlu dikaji untuk mencari maklumatglosari dan bukti sahih tentang sesuatu peristiwa sumber sekunder pulamembantu untuk mencari maklumat dan membuat perbandinganarca patung yang dapatan penye lidikan sejarah yang telah diterbitkandiperbuat daripada batu dalam usa ha menghasilkan penulisan sejarah sejarawan dankayu dan lainlain yang ahli arkeologi mestilah berusaha mendapatkan sumber mengkajidipahat dan menyerupai dan menganalisisnya hal ini boleh membantu untuk mendapatkanbentuk sesuatu maklumat dan fakta bagi membolehkannya membuat tafsiran danpenulisan terha dap sesuatu peristiwa9</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -558,7 +574,11 @@
           <t>10</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>15 penyelidikan dalam sejarahterdapat tiga kaedah yang digunakan oleh sejarawan semasa melakukan penyelidikan iaitukaedah bertulis kaedah lisan dan kaedah arkeologikaedah bertuliskaedah bertulis ialah kajian terhadap sesuatu peristiwa daripada maklumat pada sumber yangdipahat atau ditulis di asia tenggara tulisan tertua dikesan di dinding gua dipahat padabatu ditulis pada kulit kayu gading dan daun lontar kaedah bertulis juga boleh dilihat padacatatan harian seseorang fail kerajaan dan catatan pengembaraan proses kaedah bertulisadalah seperti yang di bawahmengenal pasti sumber bagi sesuatu peristiwa tokoh atau institusicontohnya jika kita ingin membuat kajian tentang sejarah negara kita sumberbertulis boleh didapati di negara kita di portugal dan di belanda sumber bertulis inijuga terdapat dalam bahasa lain seperti cina sanskrit dan inggerismendapat dan mengesahkan sumber bertulis tersebutpenyelidik perlu ke tempat simpanan sumber seperti muzium arkib atau perpustakaankadangkala sejarawan akan mentafsir maklumat ini dengan bantuan ahli paleografidan epigrafimengumpul dan menyimpan sumber yang diperolehbahan atau sumber rujukan yang telah didapati harus dikumpulkan di suatu tempatsumber hendaklah dicatat dan disimpan bagi memudahkan penyelidik membuatrujukan semula kelakmenggunakan peralatan yang sesuai penggunaan teknologi maklumat dankomunikasi serta peralatan arkeologipenggunaan peralatan seperti komputer bagi menganalisis data dan sumbermenyunting penulisan di samping menyusun bibliografi dan statistikmenganalisiskeupayaanmenganalisis dan memberikan perspektif baharu terhadap sesuatuperistiwa sejarah sangatlah dihargai apabila sejarawan berupaya mengupas danmenjelaskan pertentangan yang wujud pada kajian lepas terhadap peristiwa yangsama dapatan seseorang sejarawan perlu disebarkan bagi memperkukuh teoripemahaman dan penghayatan terhadap sesuatu peristiwaglosaripaleografi ilmu mengkaji dan menganalisis tulisan kuno pada daun lontar papirustanah liat atau batuepigrafi ilmu mempelajari tulisan yang terdapat pada tugu bangunan dan prasasti10tahukah andadaun lontar digunakan untukmencatatkan maklumat yang logo dewan bahasa danmenjadi bahan penulisan pustaka dbpdalam masyarakat tradisional logo dewandi asia tenggara sumber bahasa dancatatan ini boleh membantu kita pustaka dbpmengetahui sejarah masa lalu ini menonjolkandaun lontar dalam pelbagai bidang seperti unsur daun lontaryang terletak di tengahkebudayaan keagamaan dantengah melambangkan bahanperubatanpenulisan zaman dahulukalalogo ini dilukis oleh hussienenas pada tahun 1957kaedah bertulis juga membantu kita untuk menyelidikisejarah negara misalnya melalui penyelidikan terhadapprasasti atau batu bersurat batu bersurat terengganuyang bertarikh 702 hijrah bersamaan tahun 1303 masihimenceritakan perihal hukum islam hal ini menjadi buktibahawa agama islam sudah bertapak di negara kita lebihawal dari tarikh inibatu bersuratterengganuaktiviti tmkkajian dokumen melalui kaedah bertulis perjanjian pangkor 1874antara kandungan perjanjian ini termasuklah sultanhendaklah menerima dan menyediakan sebuah kediamanyang sesuai untuk seorang pegawai british yang dinamakanresiden yang akan ditauliahkan ke istana baginda dannasihatnya mestilah diminta dan diambil tindakan atassemua persoalan selain yang menyentuh agama islam danadat istiadat orang melayusumber arkib negara malaysia1 dapatkan salinan dokumen di atas dengan melayari laman web wwwarkibgovmy2 secara berkumpulan jawab soalan yang berikuta siapakah yang terlibat dalam perjanjian inib mengapakah perjanjian ini dimeteraic pada pendapat anda mengapakah dokumen ini ditulis dalam tulisan jawid adakah anda bersetuju dengan kandungan perjanjian ini berikan alasan anda11kaedah lisankaedah lisan merupakan proses mendapatkan maklumatmelalui temu bual tokoh yang dipilih untuk ditemu bualdikenali sebagai orang sumber orang sumber biasanyaterdiri daripada mereka yang memberikan maklumatmelalui pemerhatian dan pengalaman sendiri apabila kitamenghargai orang sumber bererti kita menghargai sejarahlisan negara kitakaedah lisan menggunakanteknik temu bualterdapat tiga tahap dalam kaedah lisantahap pertama persediaan menentukan tokoh menentukan skop atau perkara yang akan ditemu bual memilih soalan yang bersifat pendekatan sejarahtahap kedua rakaman temu bual membuat persediaan lengkap dengan mengetahui sebanyak mungkin perkara yangdikaji terutama dengan meneliti sumber bertulis dahulu meyakinkan tokoh untuk memberikan kerjasama dan menghargai tujuan pengkajiantahap ketiga memproses rakaman membuat senarai dan menyalin atau menyunting rakaman menilai faktafakta dengan sumber bertulis menyimpan rakaman dengan baiktahukah andaarkib negara malaysiatelah menjalankan prosespendokumentasian sejarah lisansejak tahun 1960an lamankenali tokoh diwujudkanbagi memantapkan sejarahlisan di negara kita12kaedah arkeologikaedah arkeologi merupakan kaedah yang digunakan secara tahukah andasaintifik untuk mencari maklumat sejarah daripada bahan kulit 46 100 145 168tinggalan sejarah antara bahan tinggalan sejarah yang di malaysia terdapatbanyak tapak arkeologiditemukan melalui kaedah gali cari atau ekskavasi termasuklahyang membanggakanfosil tembikar bahan logam dan binaan daripada batukita dan diiktiraf olehsebagai warga malaysia yang cinta akan negara kitaunesco sebagai tapaksewajarnya memelihara dan memulihara tapak arkeologiwarisan duniaagar warisan ini dapat dinikmati oleh generasi seterusnya viii 48 102 146 180usaha penyelidikan dan langkah mendapatkan pengiktirafanpertubuhan pendidikan sains dan kebudayaan bangsabangsa bersatu united nations of educational scientific andcultural organisation unesco serta memperkenalkanwarisan negara kita ke peringkat antarabangsa haruslah65 108 147didokong oleh semua pihak 1t3apak warisanduniapernahkah anda melihat aktiviti gali cari di tapakpenemuan dan di makmal arkeologiaktiviti gali cari di tapak penemuan13 ipim 77 128 16130 95 130 165kulit 46 100 145 16 81 perancangan grid sebelum kerja 2 menandakan kawasan 3 ekskavasi denganekskavasi setiap petak diberikan berdasarkan pelan mencatatkan semuanombor rujukan penemuan30 you tube 98 142 167viii 48 102 146 1801 warisan negara kita perlulah dipulihara sejauh glosarimanakah anda bersetuju dengan pernyataan ini2 nyatakan cara anda menghargai warisan negara ekskavasi proses mengumpulkandata dalam bidang arkeologi untuk65 108 14713memperoleh m aklumat tentangaktiviti masa lampau manusia aktiviti galicari bermula dari permukaan tanahadakan lawatan ke muzium yang berdekatan hingga tahap tanah asaluntuk menjayakan program 1pelajar 1muzium grid penandaan kawasan di tapak1p1m bagi memupuk kesedaran tentang arkeologi untuk aktiviti gali carisejarah negara kita 131 ippi1mm 77 128 1611330 95 130 16530 you tube 98 142 167kerjakerja di makmal arkeologi1 pemunggahan dan pengisihan 2 pembersihan dilakukan sebelum dikajipengisihan biasanya mengikut jenisartifak atau lapisan tanah di tapakartifak dijumpaiarkeologi bawah airarkeologi bawah air ialah kajian saintifikperalatan menyelam fotografi di dalamtentang sejarah peninggalan manusia yangyang membantu ahli air untuk merekodterdampar di dasar laut sungai atau tasik arkeologi bekerja di butiran ekskavasibanyak kapal dagang yang melalui laluan dalam airlaut di negara ini telah tenggelam kinisegala khazanah warisan kapal karam iniperlu dikaji dan direkod kes kerosakankecurian dan penjualan artifak kapal karammerupakan isu dunia yang dibincangkandi unesco di malaysia arkeologi bawah airmerupakan bidang kajian baharu dan semakinmendapat perhatian jabatan warisan negaradan beberapa buah universiti awam sepertiuniversiti malaysia sabah berperanan terhadappembangunan bidang arkeologi bawah airahli arkeologimenggunakan paip udarajelaslah bahawa dalam melakukan sesuatu untuk menyedut mendapanpenyelidikan sejarah kita perlu berusaha yang menutupi hasilmendapatkan sumbernya ada masanya penemuankita memerlukan lebih daripada satu kaedahbergantung pada sumber yang diperlukan gambar menunjukkan antara kaedah membuat kajianarkeologi bawah air kaedah ini hampir sama sepertidan penyelidikan yang dilakukan ketigadi daratan bezanya kaedah ini menggunakan peralatantiga kaedah ini mempunyai kekuatan dankhusus bawah air yang biasanya dikendalikan olehkelebihan tersendiripakar dengan menggunakan teknologi dari luar negarakerana melibatkan kos yang tinggi1144cerna mindabincangkan kepentingankaedah arkeologiaktivitihasilkan buletin tentang tapakarkeologi di malaysia3 pengkatalogan bagi 4 penganalisisan bagi mendapatkansetiap artifak dengan maklumat tentang sesuatu artifaknombor pengenalantahukah andamenurut akta warisan kebangsaan 2005teknik gali cari di daratangrid ekskavasi untuk telah diubah suai untuk warisan kebudayaan di bawah air ditakrifkanmerekod lokasi hasil kegiatan di dalam air sebagai kesan kewujudan manusia yangpenemuan dengan kemajuan teknik mempunyai ciri kebudayaan bersifat sejarahtepat ekskavasi di dalamatau arkeologi yang sebahagiannya atauair sentiasakeseluruhannya di bawah air sekurangberkembangkurangnya seratus tahun contohnya tapakstruktur bangunan artifak pesawat udara danartifakobjek bersifat prasejarahdiletakkandi atas bekas perisytiharan zon yang dilindungidan diangkat di malaysia terdapat undangundang yangke permukaan melindungi warisan bawah air di bawah bidangair dengan kuasa jabatan warisan negaramenggunakanbeg sepertibelon berisiudaraperairan tanjung tuan melakaaktivitiperairan negara kita menjadi laluan utama perdagangan antarabangsa sejak dahulusecara berkumpulan bincangkan usaha memelihara dan memulihara khazanah daripadakapal dagang yang telah tenggelam15</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -579,7 +599,11 @@
           <t>16</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>11 56 tafsiran dalam sejaraha apakah tafsiran dalam sejarahtafsiran dalam sejarah bererti menerangkan atau mengulas sesuatu fakta sejarah berdasarkansumbersumber yang berkaitan dengannyab mengapakah wujud perbezaan tafsiran dalam sejarahtpwm afsiran tentang sesuatu peristiwa sejarah yang sama mungkin berbeza antara sejarawanerbezaan wujud disebabkanpemilihan sumber yang pelbagaiperbezaan pandanganperbezaan ideologitujuan penulisanalau bagaimanapun pentafsiran dan penerangan yang objektif atau tepat menjadiatlamat utama seseorang sejarawanc apakah kepentingan tafsiran dalam sejarah menggalakkan kita menggunakan pelbagai sumber dalam penulisan bagi menghasilkankajian yang mempunyai bukti yang kukuh mengajak kita menilai sesuatu peristiwa yang sama tetapi dilihat dari sudut yang berbeza mendorong kita berfikiran terbuka dan kritis dalam mengkaji sesuatu peristiwa denganmenggunakan pelbagai sumber sejarahd apakah contoh tafsiran dalam sejarahbdkyb agaimanakah kita mentafsir peristiwa penentangan haji mat hasan bin munas atau lebihikenali sebagai tok janggut di pasir puteh kelantan pengkaji tempatan melihat faktorebangkitan beliau disebabkan oleh penentangan peraturan cukai tanah dan hasil hutanang diperkenalkan oleh pihak british dan membebankan orang ramai bagi pengkajiarat pula kebangkitan tok janggut ini dianggap sebagai pemberontakancerna mindamengapakah terdapat tafsiran yang berbeza apakah kebaikan sesuatu peristiwadalam pengkajian atau penyelidikan sejarah dilihat dari pelbagai sudut tafsiran16aktivitisumber arkib negara malaysiadurbar bermaksud perjumpaan atau persidangan umum yang diadakan oleh rajaraja melayudengan british durbar menjadi asas kepada pembentukan majlis rajaraja pada masa kinimesyuarat durbar dalam gambar di atas merupakan mesyuarat majlis rajaraja dan orangbesarbesar melayu yang pertama bagi membincangkan hal ehwal agama adatistiadat danperkaraperkara lain yang berkaitan dengan orang melayu mesyuarat ini diadakan pada bulanjulai 1897 di kuala kangsar perak gambar menunjukkan rajaraja dan pembesarpembesarmelayu serta pegawaipegawai british yang hadirkewujudan durbar ini memberikan kesedaran kepada setiap rakyat malaysia agar lebihmenghayati prinsip rukun negara yang kedua iaitu kesetiaan kepada raja dan negaraberdasarkan gambar dan penyataan di atas bincang secara berkumpulan dan jawabsoalan di bawah1 apakah maksud durbar2 apakah yang dapat anda tafsirkan berdasarkan gambar di atas3 pada pendapat anda apakah kepentingan penubuhan durbar ketika itu4 hubung kaitkan peranan majlis rajaraja dengan prinsip rukun negara yangkedua iaitu kesetiaan kepada raja dan negara17</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -600,7 +624,11 @@
           <t>18</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1 7 kepentingan mempelajari sejarahsejarah mampu memberikan kefahaman tentang masyarakat negara dan dunia kepadakita melalui penyelidikan penerokaan bukti dan empati pada peristiwa sejarah unsurperpaduan dan semangat kebangsaan akan menjelma dalam diri kita oleh sebab itulahkita perlu mengaplikasikan ilmu sejarah dalam kehidupan kita iktibar daripada peristiwalalu akan mendorong kita untuk bertindak dengan lebih berhatihati pada masa depanmengenal asal usuldengan mempelajari sejarah kita akandapat mengenal asal usul keluarga dannegara kita di samping itu kita dapatmemahami adat istiadat tradisi danbudaya bangsa kitamengetahui sejarah membolehkan kita mengenalasal usul kitagambar ihsan harvinder kaur seremban negeri sembilanmengambil iktibarsejarah membawa pengajaran dan iktibardaripada peristiwa lalu mereka yang tidakmempelajari sejarah berkemungkinan akanmengulangi kesilapan masa laluperistiwa darurat di negara kita pada tahun 1948hingga tahun 1960 telah menyebabkan wujudkeadaan kucarkacir dan kemusnahan harta bendasumber arkib negara malaysiamemupuk patriotismesejarah mengajar kita menghargai warisannegara untuk dihayati oleh generasi akandatang hal ini dapat menyemai rasa cintaakan negara dan menaikkan semangatpatriotikglosari sejarah mampu menyemarakkan semangat patriotikgambar ihsan sharifah afidah syed hamidkuala terengganu terengganuempati memahami perasaan orang lain18mengukuhkan perpaduanpengetahuan sejarah amat pentingkepada generasi kini dalam meneruskankesinambungan hubungan harmoniantara kaum di negara kita sejarahjuga mampu menjadi sumber kesedarankepada masyarakat dalam menjaga dansejarah mampu mengukuhkan perpaduanmeneruskan adat resam dan tradisi kitamembangunkan negara dan bangsamelalui sejarah kita dapat mengekalkankegemilangan yang dicapai oleh negarakita juga akan lebih memahami budayadahulu dan budaya kini untuk dijadikanperbandingan bagi membangunkan negaradan bangsa pada masa akan datangsejarah mengajak kita mempertahankankegemilangan negaramengaplikasikan kemahiranpemikiran sejarahmelalui sejarah pemikiran kritis dananalitis dapat ditingkatkan di sampingitu kita dapat membuat tafsiran terhadapsesuatu peristiwa sejarah juga akanmendorong seseorang memahami peristiwa rombongan kemerdekaan menuju banda hilirsejarah secara lebih empati melaka pada 20 februari 1956sumber arkib negara malaysiasumber arkib negara malaysiajelaslah kepada kita bahawadengan mempelajari sejarah kita berurpaoyam mebndoidnikg geanenra ski aekamn erdekaan menujudatang mencintai negara bersifat empati di samping meneruskanbanda hilir melaka pada 20 februarikegemilangan tamadun bangsa malaysia1956 apakah perasaan anda sekiranyaberada di sini ketika itukpshubung kaitkan mata pelajaran sejarah bagaimanakah sejarahdengan semangat cinta akan negara memupuk sikap empati19</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -621,7 +649,11 @@
           <t>20</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>11 pengertian sejaraha s kasdp momt p a eae l e ip aee e j e nl t r a b p a shm a d p n r a k n j a a a su a k g a g e p h a s g ela h g e a aa a j e e r t r i a a l k l tk y c a o u n a r r t b ab a a p aa a a s kn n a r e a f wy h a a s g b g m h a l ai da r a e a r n d u na e i a a i r p g n im m n ap n m a p d a s ba bumh a a e te in em a l kn e j aa p r na sg n ln k e u ra m a gy a kank dr e h a wag e y u k n j n u e a ai p ag ra n ds n n i u t e na e g n a d i d k dl a j t m k l y a a a a a e a mn a ibk aprk hd a a s h r i l em n l ms ee e a n a k i w p a a t a se u a r s g rt r j i r m i h m a u u i u e l e il r t a i i s ta a a s o n p e s k j a rr p y u s t n n e h a tu b i k ar b ge ia ds a i e a m r w n yd a d b a a a u s h t s k s a l e h ap a t e e h a a l a a u i d u a h a b w n a d s oj jp a h h a a b u n a a a y e e s k s k u a a d a n t d a r r a a ra p u p e p o t t n pa w p a a a h a e n t t e e m k e h h i h a n r e a ar ug mp m a n n rei r t m s nl r r b t e i s a e i g g b a i u ai e e s ors e s s b l b e g e s nn s c s n a i y a t e r d e a ton e e s lpei e da a ya g a l j j u lw a t r j a s n r a a e g e su a h ie u i aa n l i r e w ar r s fi k n a u a a t t s r a a a b l a a b i n a u a m n a h h s b m i s h d u e k y n i h l n i a h e s t a a u n m a a e l a i j j i t m bhy r aa h i a u h k e n n n i a a s e r a a r n g i a p g t eas k a s i s nsn a m n b t aa l e m t k a h a a a a n t o g e d j b a s a n n u h a a r d gri b l a s e e h g l a a msk i r i a e a t j e a r pk l y am a e s p k k a w l p en ea h b a r e ra y h e u i e p a n ir j r s at u k a r t a k r h a a al y eh p k i n k u t w a s a u k oi a a i b e m s d g u t m s t d a n i r e a l a a y p t s w i ab e o t b a bm a n p d a a n n e m d r a n a y w a n daida y r e g g g e k u a a t e g a o p na a n a u ai k r e k n l i g gr u t k b p s a r m r i a t o a a i e e u i e m u i e b p s n p g k n s k a rp r r t e y ea i t r k es i o m b k n i w a m a s bk ag a b d sa y a n uf u a t a a a y a l b e e g a t l ha a s rr r a a a l y a ea s a h i l i j t l a n m d a i n a ka k u l s n m i l r a a i u m o e i k a a g i k h l p d n p a a s t a p a m a t u a i ni a m e sh l en n d u r a l y a b p r i a a jl w k w d i a e d h u k s r a a r a y i a u t k i a l a k l ld i s y a a j iak a w s a a u t a l na m a h a a h u jn d tg a r l i t u i la pdpakmmdaaee n ae rnapnsmildag a a a d a e b h s l n a r aa pt mg wl i p e u a ak ee a n ndd 1 z rd r a aa m b i i nul a 3 s a a s n s k t mi s a aj e e e nt b d t um e h i a mbkait l j j i u nas w e ee m w b h a i ak bm a m pr a a a u d d s a t l p n a r a a d a m r a h s e s p s a d a s a i l a n a a i a n a k a rrl rt y n a j g a ek a h a do m w m nga m r s in ta a n i b e s s d m a i a s ty a h e u s a e h i a p a e i rn j a a h n m ru a mg u s i gp r n t i a a p n e aktm n h a r s e i a i a k r l n s m a m a k t a p jdkij eak n u i a a e w z rm hn t i leg m s a s a p r at isapaiaupe lr wm a a a a m m n h a y nb di k y d u b d e k a t k ah m r om a ae a e a a a d h n d n hn p a n o lb y t i n n gas o m ee ug d a aad mr s k g nh ba i o a n e m kl a f i a b k y b e a k las d n i n d u k p t e e r e n e a a k s j i i t g i m a r e ye r h b iu h d n r la l a e u h aa r a l n a k h d a w c d t i r p p gi j u t a rk a a s hs a r u e e a a m u n e a t w1 r n nu s r e bnd r r e tn nu s m m k r n s e r k a e i 0 i d t s o e jt p bj e aa a f b a waa a d p j m e k o r me s r a rn s u m e ro nr ak e r a u a r a ak t r g t e bi i m h n om e t ru k w p k a n a p a t a a a r a e s egl a i e l f a a ha k s u p n e e u a c o l a e s r h r e m ua a s a e n n n j j h n b h ap y u a u t y 1 s mkk in ur u s an a y g p na a a u u ut p t t i m y s k b s g tr gi a ea e l h aa l ab a m d r h g a a e e a a a b b d r rn m e d a a n j n k a sr a e p t m n j py 2 y a h a n e d i a a s n j g r ea a e h i o t h r e a a g p aa b l a a a 1 n r k j l e n e a d rr a i l s a r k r a nn d 9 n d r a a a i d a b g o b n a m j n kn b a r n e s a t d 9 o a y t g i a p y a n u u a e w g g h y au l a t e t y 3 j u s i e e u r p r n a e h a e u r a e a a b s r a n r ab s a a y a n k j a l m s r m m t a a tn l i l g nr h e h a i n r a y p t h e r u a n y i p a h n e a g t y a l e r r s b gk k g m r a e t 1 m m e no kb a a l p p m l a z m r h a s m e l d k i 9 d u n n s a a r g o g rua a a h p l a a n e n e s n a i e 9 a u t e a a k g u n p l a n h a k l 9 e d a e n d e a a d m g n 8 d t j t e p p p k e u m n u a s s l n sr o a a um e a r a p d h c i n t g 1 r ih a a e u a a m a n s a m n u t n b e o e h s h r p a e r 0 r e a a a n g d j k d p t ri j a k d l a l y r g j g s i u s r u a k s a j u e m m g a e k a a a i a p i d n ii e e a e a a h y r a a t w ki t k a t u r n i m n d a e e n i b a a i j b e u t t b m a s s s a sa s d k s d s 1 t a m 8 g a n a a r h m a a y gn a i k e i a i h p a te a e r n n r u a f k c a i l h n i e n m a r e a a aj k s m s n a e n e 0 n k b i a l a m l a a i n l p e p y u w u k t a s l k k d d t r a urj r i a a g d l b aa a e a t n a i a 0 a i e a u s a h a r d a a e n s p e g l d r n t a e b k s l t n i h a d k n p n a a u e j a s m i a f p r r a a t b r a a a d n n a e i e g a t k a e u e h h s ss e b k e i n a p t t h r o o i e d a rn t n a e n dlk u o m n a m a i a te a a a p w a p r r i g t t i m a g n a a n i j l hg u h i o r n n e s s a e k ta n u r n i n r d i b hn h r u n t m e s b g a oa b r s s e g et gi a e e a a ou i g t e d n t u n g j r a r f a a p u i r b k p a a th r d a si d w n n s l i k l e m l r a s o a l l t 1 t i k aa n s m a e p a n e m i s u a e b a a e 9 d o ik s a n t k u t k j y a h j b 8 a a a p u h m d ha s u a n b a u a r t 6 r r m ga d h i e j s t e n n n e r ln a r f k a i u h p d a m u e p a i n 1 a y b s r u h c r y g e e h n a g u i i k b h 4 a t e a k t l eu t a h m n a m u h s g r o m a e a d r s i i d p s i t a na i d g e i h g n n a r a o a db d b s s a a e a r m m y g j e p t u y a f a c l a a g 1 y u r l mm a r u n n a n s e a i a 4 i n s u m i e p a e pk b h r l sun r 3 h h n e k p d s n e ea e r ae t r ji a en 2 g g e a k d l u e a t n i mh i e y nh s g a a 0 s a m t n i h t b k r nu p y j a u a i 1 t uu s a k e n j l i j h a g m a b a s d a l u e b m a u 6 p a ab r a a e a j d y m s m a a h aa u er y a a m m s k ya as j e a r a t n m t l h e e an d o a r a p u e y a r a a a n i r i n n m n f r aa d a m a r a m m l r aa d n n jk n n a rr a u m k a l g i a ps i d g a u p h b y n p a a n h b a y a s f k a i r a u n r ec a a n y n a e g a ma r t t a i l e y k a a d p p s a n i a e r a a u a p n u g r a n e s y s k w a f s n i m i h e r t e t a g t e d n i i a t sa b u a e a k i a hw p f i b rn j r n 2 g r m y a mt e g s t e n a 1 a e i r mr p d t e a n e a i a0 i u s n n i a u a r a n e u r k w h u g n s n n 1 r e t t a d m d a n l n a k s g p 0 s e r i ti i a a s s3 s g d y m h y a n m a s ad i l w a p s a e j g u t t u e j e l m t e u t a a a a a t e a a a i i a f nu n a j e a u 0 h g p u p n a y i i l r l a t a f j a n mn t r s g a w k a b hl n a u a n a l a s d n a e a l a a e m a ap r r e g n l g i l j a y a a 0 k y s u t k r a a r a s n i p s z h r r a n b r r a s m b e i ir i a k s a t e p h h t m a o ap s g m t a k t i e i 9 b r f i a s n a e a l i a m u a e e t s h a p ri m i i e m n a n u a t n e g r h n e r n k d n l j a a t r a a y n i s a n n l a s s a ie i u h d u u a b n a e h mk a l e g a s r d q a t i a l j e j g s e a m e u h n k i a p h a a a l a e s n a e n s r m r d i t ay r r l a h p n d l a e s s e a u i i a j j a r a s m d g i a o t h e r n r i a a a w k m s i h o h a i t a r h k a h g te r b m i a a a r k u a s n t o a u j h g e i ne u i n i a n s a a f r p h a u r d u n ir i h k p l usn n a y i a g a a e t n h aa k owj l t i n k n i o u k rs y a a g ai g e u n i e n r za n s t as y p a am a t t a a a a n u nn d ang anmimkotainboagsrr apfaen tgu alijsasarnan hiulraaianm renca nad an ruang dalam sejarah masihi sm 0m10m 100m 1000m 5tafsiran penjelasan pengertian atau pendapattambo riwayat dahulu kala dekadabad4 alafrajah garis masasumber sejarah ruang dalam sejarah yang luas mendorong sejarawan membahagikan penulisanmereka kepada tema tertentu seperti politik ekonomi dan sosial hal ini bagimemudahkan sejarawan melakukan penyelidikan sebelum membuat penulisansumber ini boleh dibahagikan kepada dua iaitu sejarah dalam konteks sejarah malaysia ruang masa dibahagikan kepadabeberapa tempoh masa contohnya era kesultanan melayu melaka kemunculankuasakuasa luar dan kemerdekaan negarasumber primer dan sumber sekunderaktivitipenyelidikan dalam sejarah membina garis masa sejarah keluarga andalakukan temu bual bersamasama ibu dan ayah anda catatkan peristiwa bersejarah atauterdapat tiga kaedah dalam penyelidikan yang bermakna dalam keluarga anda seperti perkenalan ibu dan ayah tarikh perkahwinankelahiran ahli keluarga dan kematian bina satu garis masa yang paling menarik bagimenggambarkan semua peristiwa tersebutsejarah iaitu kaedah bertulis kaedah lisandan kaedah arkeologi 66tafsiran dalam sejarahperbezaan tafsiran disebabkan oleh pemilihan sumber yangpelbagai berbeza pandangan ideologi dan tujuan penulisannamun pentafsiran dan penerangan yang objektif atau tepatmenjadi matlamat utama seseorang sejarawankepentingan mempelajari sejarahkepentingan mempelajari sejarah adalah untuk diri dankeluarga menyemai patriotisme memupuk perpaduan danmengaplikasikan kemahiran pemikiran sejarahbab ini telah membawa kita mempelajari maksud sejarah secara umum dan berdasarkanpendapat beberapa orang sejarawan selain itu kita juga mempelajari sumber sejarah dan kaedahpenyelidikan dalam sejarah lebih menarik lagi apabila kita mempelajari tafsiran dalam sejarahyang mengajak kita berfikir dengan lebih kritis sememangnya sejarah mampu membawa kitalebih mengenali diri keluarga dan negara di samping mengaplikasikan kemahiran sejarah bagimembangunkan negara kita bab ini juga memberikan panduan kepada kita untuk mempelajariperkembangan sejarah dunia dalam bab seterusnya20</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -642,7 +674,11 @@
           <t>21</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>pemahaman dan pemikiran kritis2 apakah sebab berlaku perbezaanmendapatkan maklumattafsiran dalam sejarahkaedah x daripada sumber yangi tujuan penulisandipahat pada batuii perbezaan ideologiiii keterangan lisan1 rajah di atas menunjukkan satu daripadaiv ketiadaan sumberkaedah penyelidikan dalam sejarah kaedahx ialah a i dan iia kaedah lisan b ii dan iiib kaedah bertulis c iii dan ivc kaedah arkeologi d i dan iv3 berdasarkan satu peristiwa bersejarah pada diri anda terangkan sebab peristiwa tersebutamat bermakna kepada anda4 anda ingin menjadi ahli arkeologi pengetahuan tentang aktiviti gali cari di tapak danmakmal perlu anda kuasai untuk itu susun semula aktiviti di bawah mengikut urutankerja yang betulnomborkan mengikuturutan kerjadi tapak kerjamenanda kawasanekskavasimerancang griddi makmal mengkatalogmembersihmengisihmenganalisis5 berdasarkan pengetahuan anda bincangkan penyelesaian bagi situasi di bawahsituasi 1 swee lan ingin menyelidik kejayaan dr farah hani imran dalam bidanggimnastik berirama dan kejayaan cemerlangnya dalam pelajaran dankerjaya nyatakan kaedah yang sesuai digunakan oleh swee lansituasi 2 rajesh ingin menyelidik kehebatan tokoh bola sepak negara datuksantokh singh nyatakan kaedah yang sesuai dilakukan olehnyasituasi 3 embok sirih ingin menyimpan gambargambar lamanya dalam albumbergambar nyatakan kebaikan menyimpan gambargambar lama darisudut sejarah21pemahaman dan pemikiran kritis6 sumber sejarah memberikan maklumat dan bukti tentang sesuatu peristiwa berdasarkansumbersumber yang diberikan jawab soalan yang berikutsumber 1bukupadabulan disember 1944 inflasi semakin meningkat namun begitu tempattempat hiburandan panggung wayang masih dipenuhi oleh orang ramai begitu juga perkhidmatan penyediaanmakanan tidak pernah lengang ipoh menjadi tempat termurah menjual beras berbanding dengantempat lain di malaya dalam tempoh dua tahun pendudukan jepun singapura merupakan tempatpaling mahal menjual bahan makanan iaitu 200 hingga 300 peratus lebih tinggi berbanding dengandi ipoh sehingga menyebabkan banyak keluarga yang berhijrah ke utarainflasi menyulitkan pekerja makan gaji orang bersara dan guruguru namun penjaja jalananartisan buruh dan profesional tidak terkesan mereka terus menaikkan harga berdasarkan kos sarahidup semasasumber chin kee onn malaya upside down kuala lumpur federal publication sdn bhd 1976 hlm 4445sumber 2lisanmulamulasaya dengar bandarbandar utama kita dibom kemudian baru jepun datangmereka merampas makanan terutama beras daripada orang cina mereka jarangjarang sekalimengganggu penduduk peribumi tetapi kami tetap takut kepada mereka mereka juga membukasekolah baru mengajar bahasa dan lagu jepun jepun juga mengamalkan undangundang yangketat jika melanggar undangundang akan dikenakan hukuman yang berat saya masih ingat kamimenyembunyikan makanan daripada mereka lagipun sumber makanan sangat terhad ketika itukami bercucuk tanam untuk mendapatkan makanan atau mencari hasil hutan termasuklah sagumalah pakaian diperbuat daripada kulit pokok tekalongorang sumber nujing ak ngajin 71 tahun kampung kandis lama bau sarawaks umbe r 3internet tentera jepun ke tanah melayu pada bulan disember 1941 danpendudukan jepun secara keseluruhannya di tanah melayu bermula bulan februari1942 hingga bulan september 1945 telah meninggalkan kesan dan pengalamanyang pahit kepada seluruh penduduk di negara ini mereka menjadi lebih pekadan sedar terhadap persekitaran dan perkembangan yang berlaku jepun turutmenyemaikan semangat nasionalisme dalam kalangan penduduk tanah melayusupaya membenci british melalui cerapan ideologi asia untuk asiasumber arkib negara malaysiaa berdasarkan sumber di atas klasifikasikan yang manakah sumber primer dan sumbersekunderb lakarkan peta pemikiran yang sesuai bagi membandingkan sumber primer dan sumbersekunder ithink22</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -663,7 +699,11 @@
           <t>23</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>arif dan peka sejarahnilai patriotisme dan iktibarmemahami sejarah dapat membentuk warganegara yang mempunyai jati diridan keperibadian yang muliasemangat patriotik seseorang dapat dilihat daripada kepatuhan terhadap normadan undangundang negarasejarah boleh dijadikan iktibar dan pengajaran untuk kehidupan pada masaakan datangdiri dan keluarga negaralebih menyayangi diri dan mengetahui sejarah dapat meningkatkankeluarga melalui cara hidup patriotisme mengukuhkan perpaduanyang baik dan menjadikan kita patuh kepadarukun negaracantiknya bangunanbersejarah ini saya pernahmelawatnya dahulu bersamasamadengan keluarga kami berazam malaysia mementingkan pemeliharaanuntuk menjaga warisan dan pemuliharaan warisan untuk itu kitabudaya negara perlulah menyokong usaha murni demikepentingan warisan dan sejarahnegara kitasaya berasa bangga jika dapatmemberikan sumbangan untukmemelihara dan mengekalkankhazanah negara kita23bab zaman2air batusinopsisdunia pada hari ini wujud kesan daripada perubahanfizikal bumi yang berlaku semenjak jutaan tahun dahuluperubahan fizikal bumi dipengaruhi oleh iklim padaawalnya bumi mengalami suhu yang amat sejuk bumi padamasa itu dikenali sebagai zaman air batu yang wujud dalamgaris masa antara 25 juta tahun hingga 10000 tahun perubahansuhu bumi yang sejuk kepada panas menyebabkan berlakunyakecairan air batu perubahan ini menyebabkan bumi mengalamibeberapa tahap peralihan zaman yang menyebabkan suhubumi berada pada suhu hari ini bumi juga mengalami banyakperubahan dan perkembangan hidupan seperti yang wujudsehingga hari iniapakah yang akan anda pelajari1 mengenali dunia kita2 mengenali zaman air batu3 memahami garis masa zaman air batu4 memahami ciriciri zaman air batu akhir5 memahami perubahan zaman air batu6 memahami perubahan zaman air batu di asia tenggaraapakah elemen kewarganegaraan dan nilai sivik yanganda dapati1 menjelaskan kepentingan bersyukur dengan ciptaan tuhan2 menyatakan kepentingan sikap yang perlu diamalkan dalam menjaga alam sekitar3 menghubungkaitkan kepentingan masa lalu kini dan masa depan dalam kehidupan4 menjelaskan kepentingan usahausaha untuk memelihara dan memuliharaalam sekitar2220440air batu melitupi sebahagian kawasan bumikemahiran pemikiran sejarah yang anda dapati1 memahami kronologi iaitu urutan waktu dan peristiwa sejarah berkaitan kewujudanzaman air batu2 meneroka bukti dengan mengenal pasti dan membuat kajian terhadap buktibuktitinggalan zaman air batu3 membuat tafsiran berkaitan perkembangan zaman air batu dan kepentingannyakepada manusia4 membuat imaginasi tentang kewujudan dan rupa bentuk fizikal zaman air batu5 membuat rasionalisasi terhadap kesan zaman air batu kepada keadaan dunia hari ini2255</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -684,7 +724,11 @@
           <t>26</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21 dunia kitapengenalanpengetahuan tentang sejarah bukan sahaja membolehkan kita mengenali diri kita tetapijuga memahami tentang dunia dunia merupakan bumi tempat tinggal kita dan tempattinggal berjutajuta hidupan yang lain bumi pada hari ini telah melalui pelbagai perubahanyang memberikan kesan terhadap rupa bentuk fizikal iklim cuaca hidupan yang ada dankedalaman lautanktmekdeplegemmaapapenhhelaaoegue r d j ml e l u o m u o aut a n b g b a b en a t h i p u u m o h i u e a m d l l a bim n t oa n ig a n s g u p s n e e i e ye t s jt fi maa u a a nz hk r i n y e i n a u m i g k n e h s ma j l a n d a mibi ynk d a a e d a e nu i j r a n km u l st l g a aa t e a i a b a k r k m n ab ka u n n u n e eb t o r et n t o k i l u ald o n t l a e h u oa g t k p k u a n k g i u a i n n g ti d ag abumiglosari peta menunjukkan bumi diselaputi salji di bahagiankutub utara dan kutub selatan sekitar 17000 tahundahulugeologi berasal daripada dua perkataansumber iaitu geo yang bermaksud bumidicapai pada 1 september 2016dan logia yang bermaksud sains olehitu geologi merujuk bidang ilmu yangmengkaji pembentukan bumipaleontologi bidang ilmu yangbison occidentalismengkaji organisma yang pernahmerupakan binatanghidup di bumi sisa atau fosil yangyang terdapattelah terawet dalam sedimen binatang di amerika utaratumbuhan dan bentukbentuk hidupan pada zaman air batupurbakala26ahli sains menjangkakan bahawa usiabumi melebihi 46 bilion tahun bumitelah mengalami perubahan dari segiiklim dan fizikal semenjak bumi mulaterbentukharimau bertaring panjanguterdapat binatang yang berbulutebal seperti mamot dan harimaubertaring panjangwoolly mammothmerupakan binatangyang hidup padapetunjukzaman pleistosenkawasan dilitupi air batukawasan daratanlautanslothgambaran binatang berbulu tebal pada zaman air batu27pembentukan fizikal bumi1 bumi 650 juta tahun dahulu tiada 2 bumi 390 juta tahun dahulu airhidupan laut masih tawar wujud hidupanseperti ikan dan amfibialautanatlantiklautanpasifik3 bumi 195 juta tahun dahulu zaman 4 bumi 94 juta tahun dinosaurjurasik dan hidupan utama ialah mengalami kepupusan rupadinosaur bentuk benua mula kelihatanlautanatlantik lautanatlantiklautanpasifik lautanpasifik5 bumi 18000 tahun dahulu 6 bumi pada hari inikebanyakan binatang telah wujudseperti kuda badak sumbu anjingsumber kucing paras air laut meningkat dicapai pada 1 september 201628iklim telah mempengaruhi perubahan bentuk fizikal bumi menjadi daratan dan lautandaratan terdiri daripada gunung banjaran dan bukit tanah pamah lembah dan sungailautan pula terdiri daripada laut selat dan teluklautan merupakan kawasan air masin yang meliputi 71 peratus bentuk muka bumiterdapat lima lautan di dunia iaitu lautan pasifik lautan atlantik lautan hindi lautanselatan dan lautan artikselat pula merupakan kawasan perairan sempit yang memisahkan dua kawasandaratan manakala teluk merupakan bahagian perairan laut yang menghalake daratan dan kawasannya dibatasi oleh daratan ahliahli sains telah membahagikankawasan daratan kepada beberapa buah benuaulautan artikeropahamerikautaraasialautanatlantiklautanpasifikafrika utaralautanamerikalautan selatan hindipasifikselatanoceanialautanselatanantartikapeta menunjukkan kawasan benua dan lautansumber dicapai pada 1 september 2016kita perlu bersyukur dengan keunikan cerna mindabumi dan dunia kita di samping itu kitaharus memelihara alam sekitar supaya nyatakan daratan dan lautan yang wujuddapat dinikmati oleh generasi akan datang akibat daripada kecairan air batusejauh manakah suhu memainkan peranan dalam pembentukanair batu yang menutupi bumi29</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -705,7 +749,11 @@
           <t>30</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>kulit 46 100 145 16822 zaman air batuviii 48 102 146 180zaman terpenting yang memberikan kesan kepada perubahan bentuk fizikal bumi sepertiyang ada pada hari ini ialah zaman air batu zaman air batu ialah garis masa geologiyang menunjukkan suhu bumi menurun suhu bumi menurun pada tahap membeku dalamjangka masa yang lama sebahagian besar bumi khususnya di bahagian kutub utara dan65 108 147kutub selatan diliputi oleh air batu tebal yang dikenali sebagai lapisan ais lapisa1n3 ais inimenyebabkan kawasan air batu menjadi luas di kawasan kutub dan pergununganpada akhir zaman air batu bumi mengalami proses pengglasieran iaitu kecairan airbatu terdapat sekurangkurangnya tiga tahap berlakunya glasier tahap pertama ialah 900hingga 600 juta tahun dahulu tahap kedua 250 hingga 80000 juta tahun dan tahap ketiga10000 juta tahunperubahan iklim dunia kepada suhu panas telah menyebabkan berakhirnya1 3 zipaimman 77 128 161air batuzamanair batutahap zaman air batu 30 95 130 165zaman air batu terbahagi kepada empat tahap zaman iaitu zaman miosen zaman pliosenzaman pleistosen dan zaman holosen1 230 you tube 98 142 167zaman miosen dipercayai berlaku zaman pliosen dipercayai berlakuantara 23 juta hingga 5 juta tahun antara 53 juta hingga 26 juta tahundahulu gunungganang yang ada dahulu ahli sains menyatakan padapada hari ini telah terbentuk secara zaman inilah berlaku penyejukanfizikal mamalia telah wujud dan global zaman miosen yang lebihberkembang di bumi begitu juga panas penyejukan dan pengeringandengan hidupan di laut dan di air alam sekitar global menyumbangsuhu dunia panas dan kering kepada penyebaran besar padangrumput dan savana pada masa itujambatan darat panama antara amerikautara dan amerika selatan terbentukdan mendorong penghijrahan tumbuhandan haiwan ke habitat baharu datarantinggi terbentuk pada zaman ini sepertidi colorado amerika syarikat yangdikenali sebagai grand canyon33003 4zaman pleistosen berlaku antara 25 juta zaman holosen ialah zaman yanghingga 10000 tahun dahulu pada zaman bermula sejak 10000 tahun dahuluini glasier utama berlaku sebanyak 11 hingga kini berlaku kemajuankali manusia telah mengetahui cara dalam kehidupan manusia manusiamembuat api kebanyakan binatang yang telah mengetahui cara mendapatkanwujud pada ketika itu masih kekal hingga makanan melalui aktiviti pertaniankini manusia dipercayai telah sampai roda dan tulisan kuneiform diciptake australia melalui jalan darat dari asia kirakira 5500 tahun dahulutenggara pentas sunda sekitar 50000 setelah itu tamadun manusiatahun dahulu terus berkembang dalam bidangkeagamaan pendidikan pentadbirandan undangundangpengetahuan tentang perubahan dan sebabberlakunya zaman air batu membantu tahukah andameningkatkan pemahaman kita tentangperkara yang berlaku kepada bumi dan milutin milankovitch 18791958hidupan pada masa dahulu hal ini dapat merupakan sarjana sains berbangsa serbiamemupuk sikap sayang akan alam sekitar yang terkenal dengan teori milankovitchdan memelihara bumi menurut teori ini pusingan bumimengelilingi matahari menyebabkanberlakunya pelbagai perkembanganpada zaman air batu setiap kalibumi menghampiri matahari suhubumi menjadi panas dan menyebabkanberlakunya kecairan air batukitaran milankovitchmataharigambar menunjukkan salji melitupi kawasanbumipergunungan pada zaman air batu salji menjadimampat membentuk air batu proses ini memakanmasa jutaan tahun milutinmilankovitchzaman air batu yang berlaku semenjak jutaan tahun dahulu memberikan kesan besarterhadap bentuk fizikal muka bumi dan kehidupan yang ada kebolehan manusia khususnyaahliahli sains telah membantu kita mengetahui sejarah bumi dan kehidupannya pada masalalu pengetahuan ini juga penting bagi memandu manusia menghadapi cabaran kehidupanpada masa depan3311</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -726,7 +774,11 @@
           <t>32</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23 garis masa zaman air batuseperti yang anda pelajari dalam unit sebelum ini zaman air batu terbahagi kepada empattahap zaman iaitu zaman miosen zaman pliosen zaman pleistosen dan zaman holosenberdasarkan garis masa zaman air batu di bawah kita dapat melihat tempoh masa setiaptahap zaman tersebuttahun23 5 juta 5 2 juta 25 juta 10000 hari inimiosen pliosen pleistosen holosenkulit 46 100 145 168rajah garis masa zaman air batuahli paleontologi yang mengkaji sejarah bumi berpendapat bahawa hidupan di bumiv ibiiermula 48 102 146 180semenjak 545 juta tahun dahulu kewujudan hidupan seperti kepelbagaian spesies binatangberkait rapat dengan perubahan iklim dan peringkat zaman yang dilalui seperti dalam garismasa di bawah berdasarkan garis masa di bawah dapat dilihat perkembangan dan evolusihidupan dan binatang mengikut perkembangan tempoh masa65 108 14713500 juta tahun 25 juta tahun 52 juta tahun 2 juta tahun 12000 tahun13 ipim 77 128 161trilobite eurypterids crinoid dipterus coiled cephalopod stegosaurus diatrymastonelily30 95 130 165kewujudan hidupan mengikut garis masazamancerna minda air batu30 you tube 98 142 167senaraikan tempoh masa zaman air batu mengikut garis masa32aktivitiberdasarkan gambar di sebelah buatpembentangan kumpulan denganmenjawab soalan yang berikut1 bagaimanakah hidupan menyesuaikandiri pada zaman air batu2bagaimanakah faktor iklimmempengaruhi kehidupan manusia23 5 juta 5 2 juta 25 juta 10000 hari inicerna mindaberdasarkan maklumat daripada pelbagai sumber susun semula mengikut urutan masahidupan dan binatang di atas500 juta tahun 25 juta tahun 52 juta tahun 2 juta tahun 12000 tahundiatryma hyracotherium deinotheriumaktivitiberdasarkan maklumat daripada pelbagai sumber hasilkan poster berkaitan tempohmasa kehidupan dinosaur secara berkumpulan33</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -747,7 +799,11 @@
           <t>34</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>24 ciriciri zaman air batu akhirbumi mengalami cuaca panas bermula 8500 tahun dahulu suhu dunia meningkatdan menyebabkan berlaku kecairan air batu proses ini dinamakan pengglasieran yangmemberikan kesan besar terhadap rupa bentuk fizikal bumikecairan air batu menyebabkan paras air laut dunia meningkat kesannya bukitbukaudan kawasan tanah tinggi mulai terbentuk seperti tasik dan pulau pembentukan tasik danpulau telah memisahkan haiwan dan tumbuhan di kawasan yang berbeza maka berakhirlahzaman air batu akhirperubahan cuaca yang tidak lagi sejuk memberikan kesan terhadap aktiviti manusia manusiamula menjalankan aktiviti pertanian dan pengeluaran bahan makanan perkembanganperindustrian aktiviti pembakaran terbuka penebangan pokok dan pembakaran minyakdaripada enjin kenderaan telah meningkatkan suhu duniaterdapat ahli sains yang menjangkakan berlaku peningkatan suhu dunia sekurangkurangnyasembilan darjah celsius setiap 50 tahun peningkatan suhu dunia boleh menyebabkankenaikan paras air laut oleh itu kita perlu mencari tenaga alternatif bagi mengatasipeningkatan suhu dunia demi menjaga alam sekitarzaman air batu akhir mempunyai ciriciri khusus yang dapat membezakannyadengan zamanzaman lain ciriciri ini dapat dilihat seperti yang berikutuaras lautamerikautaraeurasiaamerikaselatanpetunjukkehidupanaissempadan daratan manusiajambatan darat zaman air batu dan migrasi binatang mamaliapermukaan air laut membeku paras air laut rendah pulaupulau bersambung dengan tanah besar dan memudahkanmanusia serta binatang bermigrasiterdapat manusia yang tinggaldi kawasan tanah pamah yangsejuk mereka hidup secaranomad dan memburu binatang34permukaan air laut yang membeku binatang seperti mamot berbulu badak kudamenyebabkan sebahagian besar dan singa tinggal di kawasan tanah pamahbumi dilitupi salji yang sejukciri fizikalbumitumbuhan utama ialah rumput dan tumbuhanrenek yang menjalarbinatang utumbuhansuhu dunia terlalu sejuk dunia dipenuhioleh salji terutamanya di kawasan kutubdan benua eropahsuhusuhu merupakan ciri penting zaman air batu akhirwalaupun benua di utara dan benua di selatan masihlagi sejuk namun di benua asia suhu mulai panaskeadaan ini membolehkan manusia berhijrah kebenua asia yang sebelum ini bersuhu sejuk selainitu bentuk muka bumi juga mengalami perubahan1 apakah kesan jika suhukecairan air batu menyebabkan kawasan tanah rendahdunia semakin meningkatditenggelami oleh air dan membentuk tasik kecairan2 cadangkan langkah langkahair batu menyebabkan paras air laut meningkat sepertiuntuk menjaga alam sekitarpada hari ini35</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -768,7 +824,11 @@
           <t>36</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>sumber steven m stanley 2009 earth system25 perubahan zaman air batu akhirperkembangan yang berlaku pada zaman air batu amat penting bagi manusia untuk menilaiperubahan suhu yang meningkat pada zaman air batu akhir memberikan kesan terhadapkepentingan memelihara dunia ini setelah melalui zaman air batu dengan suhu sejuk yangbentuk fizikal dan hidupan di bumipanjang dunia mengalami suhu yang panas perubahan ketara berlaku dari segi iklim glasierrupa bentuk fizikal bumi dan kehidupan manusia serta haiwanglasier telah menukarkan wajah dan bentukfizikal bumi air batu yang cair dari kawasantanah tinggi dan gunung akan membawabersamasama batu dan tanah semasa menurunitanah tinggi lebihan air yang dibawa akanmelimpahi laut dan kawasan tanah tinggikeadaan glasier di alaskasatu daripada kesan pentingperubahan zaman air batu ialahrupa bentuk fizikal bumi seperti yangterbentuk pada hari ini kesannyaberlaku perubahan paras air lautdengan kedalaman 100 meterpulau yang mengalami kenaikan aras lautkecairan air batu telah membentuk tasiktasikair tawar seperti great lakes di kanada dantasik dayang bunting di malaysia bentuksaliran sungai juga berubah kepada bentukyang ada pada hari initasik dayang buntingpada zaman ini berlaku kepupusanbinatang yang hidup pada zamanpleistosen antara binatang yang pupustermasuklah mamot sloth dan harimaubinatang zamanbertaringair batu36pada zaman air batu akhir yang dikenali sebagai zaman holosen perubahan iklim telahmemberikan kesan besar terhadap kehidupan manusia kerana mereka perlu menyesuaikanlai iai menk k ntuu u usia manengadari i gu baatlag ntinair pe amat u atalua b air an amsetg z pada u berlakhara g anmelenal y n a mbangingan keentjana rpnpeeaupkpraktiviti harian dengan perubahan iklim manusia bergerak keluar dari benua afrika danng y ejum s suh n du ber zaman ui mel elah ini nia du igb measecara beransuransur mendiami benua eropah dan benua asia pergerakan ini dipengaruhier glas kli i segi k b ra keta han base per anas ppa yan uhu s alami mk ifi dun goleh suhu di asia dan eropah yang tidak lagi terlalu sejuk pada zaman air batu akhiran haiw rta manusi n kehidu n da umi zi entuk bsuhu bumi adalah seperti pada hari inipeta menunjukkan suhu panas yang melalui laut mempengaruhi kecairan air batukomponen radiasi bumikuasa radiasi bumibumi mula mengalami perubahan terhad bumiyang berlakukuasaiklim daripada terlalu sejuk kepada daripada daripada sinaranpancaransederhana sejuk kegiatan radiasi matahari matahari danpemanasan yangbumi merupakan penyebab utamaberlaku kepadakepada peningkatan suhu bumibumikuasapantulanmataharipemahaman yang tepat tentang iklim masa laluterutamanya pada zaman air batu dan sejarahmanusia sangat penting sebagai langkah pertama pemanasan alam sekitar yangke arah menangani perubahan iklim pada hari berlaku di dunia perlu dikawalini manusia berusaha bersamasama dalam bagi mengelakkan peningkatanmengekalkan kelestarian alam sekitar dan aras laut bincangkanmengurus hal ehwal menjaga bumi daripadaberlaku kemusnahan37</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -789,7 +849,11 @@
           <t>38</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>kesan perubahan zaman air batu26di asia tenggaraperkembangan yang berlaku pada zaman air batu akhir memberikan kesan yang samadi asia tenggara dua kesan penting ialah kenaikan paras air laut di pentas sunda danpergerakan manusia di sekitarnya perubahan paras air laut yang aktif berlaku pada 17000hingga 20000 tahun dahulu sejak tempoh tersebut aras laut telah naik antara 100 hingga120 meterketika itu pentas sunda merupakan daratan yang mempunyai kawasan tanah rendahdi antara pulaupulau yang wujud pada hari ini kepulauan sumatera jawa dan borneoberada di atas pentas sunda kawasan yang dihubungkan melalui daratan seluas lebih32 juta kilometer persegi yang menyatukan burma myanmar thailand laoskemboja vietnam semenanjung tanah melayu borneo dan singapurau upetunjukkawasan tanah tinggipetunjuktanah daratan pada 250 00pentas sunda tahun dahulupeta menunjukkan rupa bentuk asia tenggara sebelum zaman holosensumber robert hall dan christopher k morley continentocean interactions within east asian marginal seas new yorkamerican geophysical union 2004 hlm 25sebelum 10000 tahun dahulu asia tenggara merupakan kawasan tanah yang luasterbentang yang menghubungkan kawasan daratan dengan kepulauan gugusan tanahini dikenali sebagai pentas sunda pentas sunda merupakan tunjang kebenuaandi asia tenggara keadaan ini menyebabkan negaranegara di asia tenggara mempunyaiciriciri fizikal dan hidupan yang hampir sama manusia yang tinggal di rantau asiatenggara khususnya di kawasan pentas sunda berkongsi tamadun yang sama sepertikepercayaan asal usul keturunan bahasa budaya dan masyarakat sebagai contohpenduduk di malaysia indonesia selatan thailand dan selatan filipina berkongsi bahasayang sama iaitu bahasa melayu38tahukah andakecairan air batu pada peringkat akhirkeluasan pentas sunda melebihi 32zaman holosen menyebabkan terjadinyajuta kilometer persegi bentuksungai dan tasik di asia tenggara sungaifizikal tanah pamah ini berlaku padayang terbentuk telah mengalirkan airzaman pleistosen yang mempunyaike dalam tasik dan ke laut antara sungaiparas air laut yang rendah pada ketikaterbesar termasuklah sungai sundaitu daratan boleh dilalui oleh manusiautara aliran sungai yang mengalir telahdengan cara berjalan kakimenenggelamkan kawasan tanah rendahdi sepanjang tepi pantai perkembanganini mempengaruhi pembentukan selatmelaka teluk siam dan laut jawaperubahan yang berlaku di kawasanasia tenggara pada zaman air batuakhir khususnya peringkat akhiruzaman holosen memberikan kesankepada bentuk fizikal dan hidupandi kawasan ini kawasan asiatenggara telah dihuni oleh kumpulanmamalia bersaiz sederhana dan besarasia tenggara merupakan kawasantelukselat siam timnuaim mdpiaduliaiaanm m noailameh a lsiaealb aakune byraaagnkaa m3k apnwearapasutaunnsmelaka ui 1id w abeberapa binatang seperti stegodongajah dan pachycrocuta hyena ataudubuk bersaiz besar telah pupuslaut jawapeta menunjukkan rupa bentuk asia tenggara pada cerna mindahari ininyatakan kesan kecairan air batupada zaman akhir holosenpengetahuan tentang perubahandan sebab berlakunya zaman air batu membantumeningkatkan pemahaman kita tentang perkara yang berlakukepada bumi dan hidupan hal ini dapat memupuk sikapsayang akan alam sekitar dan memelihara bumi39</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -810,7 +874,11 @@
           <t>40</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>kesimpulandunia kitabumi mengalami zaman air batu yanglama suhu bumi pada zaman initerlalu sejuk dan mengehadkankegiatan manusiazaman air batu dangaris masaempat zaman air batu utama ialahmiosen 23 juta tahun pliosen 5 jutatahun pleistosen 25 juta tahun danholosen 10000 tahunciriciri zaman air batu akhirsuhu dunia sejuk air batu yang menutupi bumiberlaku dalam tempoh yang panjang wujudhidupan pengaruh pusingan orbit dan gunungberapiperubahan zaman air batu akhirperubahan zaman air batu melibatkan iklimglasier bentuk fizikal bumi dan kesan kepadamanusia dan haiwankesan perubahan zamanair batu di asia tenggarakesan perubahan di asia tenggara ialahtenggelamnya pentas sunda dan keadaan bumiadalah seperti bentuk yang adapada hari inibab ini telah menjelaskan tentang zaman air batu yang berlaku kepada bumi perubahanyang berlaku kepada zaman air batu telah memberikan kesan fizikal kepada rupa bentukbumi yang boleh dilihat pada hari ini perubahan yang ketara turut berlaku di asiatenggara yang menyebabkan tenggelamnya pentas sunda perubahan yang berlaku padazaman air batu turut mempengaruhi kehidupan manusia perkembangan kehidupanmanusia yang lebih kompleks dalam menghadapi cabaran alam sekitar dikaji dalam babyang seterusnya40</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -831,7 +899,11 @@
           <t>41</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>pemahaman dan pemikiran kritis1 berjutajuta tahun dahulu bumi telah mengalami beberapa perubahan perubahanketika itu memberikan kesan kepadai hidupanii perbandaraniii kegiatan ekonomiiv rupa bentuk fizikal bumia i dan iib ii dan iiic iii dan ivd i dan iv2 apakah yang berlaku pada zaman air batui suhu bumi menurunii paras air batu menuruniii lapisan air batu menjadi nipisiv keluasan air batu meningkata i dan iib ii dan iiic iii dan ivd i dan iv3 dataran tinggi grand canyon di amerika syarikat dipercayai wujud pada zamana miosenb pliosenc pleistosend holosen4 senaraikan bidang ilmu yang membantu manusia mengetahui sejarah yang berlakukepada bumi semenjak jutaan tahun dahulu41pemahaman dan pemikiran kritis5 i m ej gambar menunjukkan perbandingan kawasan kutub utara bumi di antara18000 tahun dahulu dan hari ini18000 tahun kutub bumi petunjukdahulu utara hari ini kawasan dilitupiair batutanah di atasaras lautlaut berair batua berdasarkan gambar di kutub utara apakah yang boleh anda rumuskantentang perkembangan zaman air batub pada pandangan anda mengapakah kehidupan 18000 tahun dahulu lebihmencabar berbanding dengan hari ini6 apakah perkembangan yang berlaku pada zaman pleistosen7 terangkan faktorfaktor yang membolehkan manusia berhijrah ke benua eropahpada zaman air batu akhir8 mengapakah kita perlu mengekalkan kelestarian alam sekitar9 pada pendapat anda mengapakah berlaku kepupusan haiwan yang hidupsemasa zaman pleistosen pada zaman air batu akhir10 bincangkan kesan kecairan air batu terhadap perubahan fizikal muka bumidi asia tenggara42</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -852,7 +924,11 @@
           <t>43</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>arif dan peka sejarahnilai patriotisme dan iktibarapabila mempelajari sejarah pembentukan fizikal dunia kita memperoleh ilmupengetahuan dan mewujudkan kesedaran untuk memelihara alam sekitarpengetahuan tentang perkembangan zaman air batu telah mendidikdan menyedarkan kita supaya bersyukur dengan ciptaan tuhanperubahan yang berlaku kepada dunia dan manusia semenjak zamanair batu dapat memupuk sikap bertanggungjawab kepada pemuliharaanwarisan duniadiri dan keluarga negarasentiasa mengingatkan diri tentang sentiasa memupuk kesedarankepentingan menjaga alam sekitar menjaga persekitaran yang bersihseperti menjaga kebersihan rumah dan menjaga alam sekitar dengandan berjimat ketika menggunakan tidak membuang sampah dankemudahan elektrik dan air merosakkan kemudahan awammenjaga kebersihan sungai sekolahdan pusat kemudahan awamsentiasa peka untuk menjimatkantenaga yang digunakan bagikemudahan awamusaha memelihara dan memulihara alam sekitar seperti menjaga sungai amat penting bagi memastikankesejahteraan dan keselesaan kehidupan43bab3 zamanprasejarahsinopsiszaman prasejarah merupakan zaman yang melihat tahap perubahanpencapaian dan kemajuan manusia perbincangan tentang zaman inidimulakan dengan maksud zaman prasejarah dan lokasi zaman tersebutperbincangan akan merangkumi aspek ciri kehidupan manusia zamanprasejarah seterusnya perbincangan akan memfokuskan sumbangan zamanini kepada kemajuan kehidupan manusia bab ini turut membincangkantinggalan manusia zaman prasejarah di malaysia pemahaman terhadapzaman prasejarah menyedarkan kita bahawa tamadun dan sejarah manusiasentiasa mengalami perubahan dan kesinambunganapakah yang akan anda pelajari1 memahami maksud zaman prasejarah2 mengenal lokasi zaman prasejarah3 memahami ciriciri kehidupan zaman prasejarah4 memahami kesinambungan sumbangan zaman prasejarah terhadapkemajuan kehidupan manusia5 memahami bukti tinggalan zaman prasejarah di malaysiaapakah elemen kewarganegaraan dan nilai sivikyang akan anda dapati1 menjelaskan keupayaan manusia zaman prasejarah meneruskankelangsungan hidup2 mencadangkan kepentingan memelihara dan memulihara tinggalanzaman prasejarah3 menjelaskan penghargaan terhadap kemajuan dalam masyarakat zamanprasejarah4 melahirkan rasa bersyukur dalam memanfaatkan alam ciptaan tuhan4444gua niah sarawakkemahiran pemikiran sejarah yang akan anda dapati1 memahami kronologi zaman prasejarah berdasarkan corak kemajuan kehidupanmanusia zaman itu2 meneroka bukti kewujudan manusia zaman prasejarah berdasarkan penemuantinggalan mereka3 membuat interpretasi terhadap kewujudan manusia zaman prasejarah berdasarkanbukti tinggalan mereka4 membuat imaginasi tentang kehidupan zaman prasejarah5 membuat rasionalisasi terhadap lokasi zaman prasejarah yang menjadi warisangenerasi hari ini4455</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -873,7 +949,11 @@
           <t>46</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>31 maksud zaman prasejarahzaman prasejarah bermaksud zaman sebelum manusia mengetahui dan mengenal tulisanzaman ini pula boleh dibahagikan kepada dua iaitu zaman batu dan zaman logamzaman batuzaman batu merujuk kepada penggunaan teknologi batu dalam kehidupan harianmanusia pada zaman tersebut terdapat tiga tahap zaman batu iaitu zaman paleolitikmesolitik dan neolitik zaman paleolitik juga dikenali sebagai zaman batu lamazaman mesolitik sebagai zaman batu pertengahan dan zaman neolitik pula sebagaizaman batu baruzaman paleolitik dianggap sebagai zaman yang serba mencabar kerana manusiaperlu meneruskan kelangsungan hidup mereka dengan menggunakan teknologi batuyang serba ringkas selain peralatan batu mereka menggunakan peralatan yangdiperbuat daripada tulang binatang dalam aktiviti harian merekazaman mesolitik pula memperlihatkan cara hidup yang semakin berkembangcuaca zaman ini tidak terlalu sejukmanusia pada zaman ini bukansahaja memburu binatang tetapimenangkap ikan sebagai sumbermakanan merekazaman neolitik pula menunjukkantahap perkembangan teknologi sertacorak kehidupan yang lebih baikpada zaman ini wujud kawasanpetempatan yang mengamalkanaktiviti bercucuk tanam membuattembikar dan menternak binatangilustrasi kegiatan memburu binatang padazaman prasejarahzamansumber dailymailcouksciencetecharticle3732832stoneagemissilesprasejarahprehistorichuntersplannedaheadthrowingrockseffectiveweaponskulit 46 100 145 earlyhu1m68anshtml dicapai pada 1 september 2016tahukah andazaman prasejarah turut dikenali sebagai nirleka dalam bahasa sanskrit nirleka merupakanviii ga4b8ungan dua perkat1a02an iaitu nir ya14n6g bermaksud ti1d80ak ada dan leka yang bermaksud tulisan4665 108 1471313 ipim 77 128 16130 95 130 16530 you tube 98 142 167zaman logamzaman logam merujuk kepada penggunaan teknologi gangsa dan besi pada zamanini manusia telah melakukan inovasi logam besi dan gangsa dalam peralatan merekamanusia zaman ini sudah mula melakukan aktiviti pelayaran mereka menjalankanaktiviti pertukaran barangan dan peralatan berasaskan gangsa yang dapat dikesanbertaburan di rantau asia tenggara peralatan besi seperti kapak tulang mawas beliungdan mata lembing merupakan antara jenis peralatan besi yang digunakan oleh manusiaketika ini untuk memburu bertani dan menjalankan aktiviti harian merekakapak besi bersoket tulang mawas pisau bersoketperalatan yang diperbuat daripada besisumber nik hassan shuhaimi nik abdul rahman ed encyclopedia of malaysia early history singapuraarchipelago press 1998 hlm 39tempoh masa zaman prasejarahzaman paleolitik 25 juta tahun 8000 smcerna mindazaman mesolitik 12000 4000 smmengapakah zamanzaman neolitik 10000 2000 smneolitik turut dikenalizaman logam 3500 sm 500 m sebagai zaman batubarusumber roshen dalal the compact timeline history of the world cambridgeworthpress 2010 hlm 8pada pendapat anda bagaimanakah pengetahuan menggunakan api mempengaruhikehidupan manusia zaman prasejarahmemahami zaman prasejarah membolehkan kita mengetahui sejarah dan tamadunmanusia berkembang dalam satu tempoh yang sangat panjang pelbagai tahap perubahanperlu dilalui merentas masa yang berbezabeza perkembangan ini menjadikan manusiasemakin matang dan bertanggungjawab dalam tindakan mereka inovasi dalam peralatanserta penggunaan api sejak zaman paleolitik hingga zaman logam telah membantumanusia memperbaik tahap kehidupan mereka meskipun api dikesan telah digunakansejak satu juta hingga 15 juta tahun yang lalu namun pengetahuan membuat api danmenggunakannya secara berkesan hanya berlaku sekitar 10000 sm47</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -894,7 +974,11 @@
           <t>48</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>sumber ibhopalblogspotcom32 lokasi zaman prasejarah di duniazaman prasejarah berlaku di seluruh dunia kewujudan lokasi prasejarah diketahui melaluipenemuan tinggalan manusia sama ada artifak atau ekofak lokasi prasejarah ini wujud didua kawasan iaitu di kawasan terdedah seperti di lembah sungai dan di kawasantertutup seperti di dalam gua selain itu lokasi prasejarah boleh ditentukan samaada wujud di darat atau di dalam air fungsi lokasi dan tapak ini pula terbahagikepada tapak petempatan perkuburan bandar kawasan perburuan atau pembuatanalatan batu lokasi dan tapak zaman prasejarah yang berikut merupakan tapak yangterkenal dan diiktiraf oleh pertubuhan pendidikan sains dan kebudayaan bangsabangsa bersatu united nations of educational scientific and cultural organisation unesco yang terdapat di seluruh duniagua chauvet perancistapak prasejarah ini terletakdi perancis yang diduduki oleh manusia usilih berganti antara 30000 sm hingga27000 sm lukisan di dalam gua ini britainmembuktikan penglibatan masyarakatprasejarah dalam aktiviti memburu perancisl autbinatangkaspiasepanyol turkiiran china lautanaltamira sepanyolpasifikbukti lukisan yangindiadakielttewammuujikruaad nma d nei ndmuanlaajumnku kgsauinaa selatanchinalautzaman mesolitikm e r e k a h i d u p lautanhindiantara 35000 hingga11000 sm lukisan gua di altamira sepanyolglosarikulit 46 100 145 168ekofak bukti tinggalan d ataarkeologi yang menjadi petunjuk catal huyuk turkiwujudnya kegiatan budaya diduduki oleh manusiamanusia di sesuatu kawasan zaman prasejarah antaraseperti bekas pembakaran 7100 600 sm aktivitidebunga tumbuhan sisa kerang zaman utama termasuklah pertanianarang dan tulang bviiiniatang p48rasejarah teruta1m02anya pen anam14a6n barli 180dan gandum448865 108 1471313 ipim 77 128 16130 95 130 16530 you tube 98 142 167sumber ibhopalblogspotcomstonehenge britaindibina antara 3700 hingga 1600 sm binaanini dikaitkan dengan upacara ritual dan tempat tapak prasejarah di bhimbetka indiamengkaji bintangbhimbetka indiatapak prasejarah di bhimbetkadi bahagian tengah india ini berusia30000 sm bukti di tapak ini menunjukkankehidupan manusia prasejarah di indiaubritainzhoukoudian chinaperancis tapak ini berusia antaral aut1s8m0 0d0a hni ndgigtae m11uk0a00nkaspiasepanyol turkiiran china lautan rangka manusia yangpasifik dinamakan peking mantapak penemuan peking manindiaselatan zhoukoudian chinachinalautshahrisokhta iranlautanhindi berusia antara 3200 hingga 1800 smbukti di tapak ini menunjukkankehidupan masyarakat yang telahtersusun dengan kawasan perumahankawasan perkuburan dan kawasanpembuatan barangan harianshahrishokta iranpeta lokasi zaman prasejarahdi seluruh duniagobekli tepe turkitapak ini diduduki oleh manusia apakah yang boleh anda tafsirkanpada 12000 sm ahli arkeologi pada lukisan binatang yang terdapatberpendapat binaan batu di tapak di dalam gua di chauvet perancis danini mempunyai kaitan dengan altamira sepanyolupacara ritual4499lokasi zaman prasejarah di asia tenggarapelbagai lokasi zaman prasejarah turut ditemukan di asia tenggara tinggalan manusiayang ditemukan di lokasilokasi ini menunjukkan keupayaan manusia ketika itu menjalanikehidupan seharian mereka penemuan ini turut membuktikan ketinggian pencapaianmereka setanding dengan manusia zaman prasejarah di kawasan lainban chiang thailandlokasi ini merupakan tapakuzaman neolitik dan zamanlogam berusia antara 3600hingga 500 sm manusiadi ban chiang menjalankanmyanmaraktiviti pertanian pembuatanlaoslogam tekstil tembikar tanahdan kegiatan menternakbinatangthailandvietnamkembojafilipinalenggong malaysia laut chinaselatanlokasi ini merupakan antaratapak zaman prasejarahbruneiterpenting di rantau asia darussalamtenggara yang menunjukkan m a l a y s i akehidupan manusia merentaszaman paleolitik hoabinhiandan neolitik rangka perakman yang berusia antaraperalatan batu yang ditemui 11000 hingga 10000 sm indonesiadi bukit bunoh lenggong merupakan bukti paling pentingperak menunjukkan kehidupanmanusia zaman prasejarahdi negara inipeta lokasi zaman prasejarahdi asia tenggaragua liang bua pulau floresindonesialokasiini penting kerana penemuanfosil dan sisa tulang yang berusiaantara 94000 hingga 12000 smyang dinamakan sebagai floresman atau homo floresiensis tapakini juga menunjukkan kehidupanmanusia sejak zaman paleolitikhingga zaman logam555000gua padahlin myanmarlokasi ini merupakan tempattinggal manusia zamanprasejarah antara 13000 smhingga 11000 smusa hyun vietnamlokasi ini merupakan tapakzaman besi yang palingmyanmarmenonjol di asia tenggaraberusia antara 1000 smhingga 200 m aktivitiutama ialah pembuatanthailandtembikarvietnamfilipinalaut chinaselatan gua tabon filipinalokasi ini merupakanbrunei tapak zaman prasejarahdarussalamm a l a y s i a yang penting di filipinayang dianggarkanberusia 47000 smtinggalan rangkamanusia berusia antaraindonesia 22000 hingga 24000tahun yang lalu ditemuidi sinitimor lestepenemuan lokasilokasi zaman prasejarah di asiatenggara akan membolehkan kita mengetahuikehidupan manusia zaman itu pemeliharaan danpemuliharaannya sangat penting bagi memastikanaktiviti generasi akan datang mengetahui serta memahamisejarah dan tamadun yang telah dilalui olehberdasarkan sumber internetmanusia ketika itubincangkan kepentinganlenggong perak malaysiaterhadap zaman prasejarahdi asia tenggara555111</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -915,7 +999,11 @@
           <t>52</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>cciririicciriir ik keehhididuuppaann m maansuysaiara zkaamt an33pzraamseajnar pahrasejarahkehidupan manusia zaman prasejarah mempunyai ciriciri tertentu ciri yang palingmenonjol dapat dilihat pada tempat kediaman peralatan aktiviti pengumpulanmakanan kegiatan ekonomi organisasi sosial kepercayaan serta kesenian dan kebudayaantempat kediamangua franchthi greecezaman mesolitikgua niah sarawakmanusia zaman ini masih mendiami guazaman paleolitik dan lubang bawah tanah serta tempattumpuan utama petempatan ialah gua dan berlindung yang diperbuat daripadalubang bawah tanah selain itu mereka ranting kayu tumpuan petempatanberlindung di bawah pokok dan tempat mereka di pinggir sungai dan laut bagiberlindung yang diperbuat daripada ranting memudahkan mereka mendapatkankayu bekalan air dan makananzaman neolitik zaman logammanusia zaman ini tinggal secara menetap manusia telah menetap dan membinadi kawasan petempatan terutamanya tempat kediaman mereka dengan lebihdi kawasan lembah sungai dan di pesisiran baik binaannya diperbuat daripadapantai mereka telah membina rumah yang batu tanah liat dan kayu serta lebihtersusun selain kawasan lembah sungaidiperbuat daripada batu tanah liat dan kayudan pesisiran pantai mereka juga tinggaldi kawasan tanah tinggiilustrasi rumah masyarakatneolitik di ban kao thailandpetempatan bena flores indonesiamengapakah berlaku perubahan tempat kediamanmasyarakat zaman prasejarah52sumber wwwthinglinkcom sumber wwwslidesharenetperalatanzaman mesolitikperalatan zaman mesolitik masihdiperbuat daripada kayu batu dantulang haiwan namun pembuatannyazaman paleolitik lebih halus dan kemas terdapat jugamanusia pada masa ini membuat peralatan alatan lebih kecil yang dikenali sebagaidaripada batu kayu dan tulang haiwan mikrolit mereka juga menggunakanperalatan ini pula dalam bentuk sedia ada panah semasa memburu binatangringkas dan kasar pembuatannya dan menggunakan perangkap untukmenangkap ikanzaman neolitik zaman logamperalatan zaman ini lebih halus dan manusia telah mampu menciptakemas terdapat pelbagai peralatan peralatan yang diperbuat daripadatermasuklah alat menggali dan roda logam pembuatan ini berlaku seiringdengan pengetahuan manusia tentangteknologi peleburan serta pembuatanacuan pada zaman logam inimanusia memiliki tahap kehidupanyang lebih tinggi berbanding denganzaman batu peralatan zaman initerdiri daripada tembaga gangsadan besitahukah andamikrolit merupakan artifak batu kecil yangnipis yang sisinya tajam bergerigicerna mindabagaimanakah manusia zaman prasejarahbandingkan ciriciri peralatanmemanfaatkan alam sekitar untukmanusia zaman paleolitik dankelangsungan kehidupan merekazaman neolitik53pengumpulan makananzaman paleolitik zaman mesolitikkegiatan mengumpulkan manusia pada zamanmakanan merupakan ini masih menjalankanaktiviti paling penting untuk aktiviti mengumpulkanmendapatkan makanan makanan mereka jugaselain memburu binatang mengumpulkan kerangmereka mengumpulkan dan siput yang ditemuibuahbuahan cendawan di pinggir sungai dantompokan kulit siput danbijiran dan pucuk tumbuhan lautkerang zaman mesolitikyang tumbuh liar di dalamdi sumatera indonesiahutanzaman neolitikzaman logamkemampuan manusiaaktiviti pengumpulanuntuk menjalankanmakanan hampir tidak lagiaktiviti pertaniandilakukan kerana kemajuandan penternakanyang berlaku dalam bidangmenyebabkan aktivitipertanian penternakan danmengumpulkanperdagangan tukar barangmakanan semakinkegiatan ini membolehkanberkurangan aktiviti menukar barangmereka memperoleh dagangan atau sistemmakanan yang mencukupi barter pada zamanaktiviti pertanianlogamcuba buat1 2 3membuatperalatan batukeperluan bahan1 batu yang sesuai2 sebatang kayu pilih batu yang pilih sebatang kayu belah hujung kayuyang sesuai bersesuaian bentuk yang sederhana saiz dan dengan menggunakan3 pengasah dan saiznya panjangnya pisau4 tali5 pisau 4 5 6asah hujung batu masukkan batu pada i kat kayu dan batusupaya tajam celah kayu dengan kuat54kegiatan ekonomimanusia zaman paleolitik berkongsi makanan lukisan gua di gua lascaux montignacperancis yang menunjukkan aktivitimemburu binatangzaman paleolitikmanusia zaman ini bergantung zaman mesolitiksepenuhnya pada sumber alam semula manusia pada zaman ini masih lagijadi mereka hidup secara nomad mengutip hasil hutan memburu binatanguntuk mencari makanan dan dikongsi dan menangkap ikan perkongsianbersama aktiviti ekonomi mereka makanan masih berlakubersifat sara dirizaman neolitik zaman logammanusia tidak lagi menjadi penggunaaktiviti pertaniansumber alam sebaliknya merekapenternakan danmenghasilkan makanan melalui kegiatanper daga nganpertanian dan penternakan aktivitipertukaran barangperdagangan dengan menggunakan sistemmerupakan aktivitibarter dan pengkhususan kerja telahutama pendudukbermulaselain itu aktivitipembuatan danpertukangan turutpertukaran barangberkembang tanduk badak dengangading gajahcerna mindagambar lukisan gua di gua magurabulgaria menunjukkan manusianyatakan kesan apabila manusia mula tahumenjalankan aktiviti penternakanbercucuk tanam dan menternak binatangglosaribandingkan aktiviti ekonomi manusianomad kaum yang selalu berpindahrandahprasejarah dengan masyarakat hari inidari satu tempat ke satu tempat lain55organisasi sosialkehidupan manusia zaman paleolitik kehidupan manusia zaman mesolitikzaman paleolitik zaman mesolitikmanusia zaman ini hidup dalam pada zaman ini manusia masih lagikelompok kecil yang terdiri daripada hidup dalam kelompok kecil merekagabungan beberapa keluarga dan juga masih lagi hidup secara nomadmasih hidup dalam keadaan nomad dan belum mempunyai sebuahorganisasi sosial yang tersusunzaman neolitikzaman logampada zaman ini manusia hidup menetapkehidupan manusia zaman ini lebihdan telah mewujudkan sistem sosialtersusun pemimpin bertanggungjawabyang lebih baik terdapat ketua yangmenyelesaikan masalah yang timbuldipilih daripada kalangan mereka dandan membentuk aturan kehidupan agarbermulanya pembahagian dalamdiikuti oleh setiap anggota masyarakatsosial iaitu adanya kelas atasankeadaan ini membawa kepadaatau pemimpin dan kelas bawahanpembentukan sistem pentadbirankemunculan organisasi inimembolehkan aturan kehidupanyang lebih baik dibentukgambaran kehidupankehidupan manusia zamanmanusia logam di ban chiangzaman thailandneolitikglosaricerna mindamengapakahorganisasi sosial pola hubunganmengapakah manusia pada pemimpin diperlukanyang dibentuk oleh masyarakat hasilperingkat awal hidup secara dalam sesebuahkerjasama antara ahli atau keluarganomad organisasi sosialbagi mencapai matlamat bersama56kepercayaankepercayaan manusia terhadap kuasa alamzaman paleolitikmanusia pada zaman inimengamalkan animisme dankepercayaan alam semula jadimanusia masih percaya kepada kuasayang menentukan kehidupan merekaalam termasuk pokok dan mataharimereka percaya pada kuasa alamsemula jadi seperti petir kilat angin zaman mesolitikhujan dan matahari selain itu setiap manusia pada zaman ini masihobjek yang terdapat di sekeliling mereka mengamalkan kepercayaan animismeseperti pokok batu bukit sungai dan lautdipercayai mempunyai kuasazaman neolitik zaman logammanusia pada zaman ini melakukan ritual penyembahan manusia terhadap kuasabagi mewujudkan perdamaian dengan alam semakin jelas binaan khusus telahkuasa alam dan amalan penyembahan diwujudkan bagi upacara ritual danmula dilakukan wujud kepercayaan menyempurnakan kepercayaan merekakehidupan selepas mati dan mayatakan diuruskan dengan teliti sertadikebumikan dengan sempurnatempat diadakanupacara ritualdi gobekli tepeturkikubur zaman logam di selatan indiaglosarianimisme kepercayaan bahawa setiap benda mempunyai kuasadan semangat yang mampu menentukan kehidupan manusiaritual tatacara dalam upacara keagamaan57kesenian dan kebudayaanlukisan di gua chauvet perancis lukisan di dinding gua di altamira sepanyol16500 12000 smzaman paleolitikmanusia pada zaman ini telah zaman mesolitikmenghasilkan lukisan gua lukisan ini lukisan gua masih merupakan antara ciripula bersifat realisme kesenian yang wujud pada zaman inizaman neolitik zaman logamselain lukisan gua kesenian manusia manusia zaman ini amat mementingkanzaman ini turut dapat dilihat melalui nilai estetika yang ditemukan padacorak yang menghiasi permukaan peralatan mereka seperti gendangtembikar pola geometri merupakan pola gangsa yang mempunyai pola hiasanutama yang dikenali sebagai simbolisme yang menariktembikar yang mempunyai bentuk polageometri hiasan pada gendang gangsaglosariestetika kecantikan atau keindahan yang dikaitkan dengan bidang senigeometri corak yang berasaskan garisgaris yang menghiasi objek tertenturealisme aliran sastera dan seni yang menggambarkan kisah hidup sebenar bukan khayalansimbolisme lambang yang menggambarkan sesuatu perkara atau erti tertentu58aktiviti tmksecara berkumpulan layari laman web wwwmuseumsarawakgovmy dan jawab soalandi bawah1 senaraikan artifak prasejarah yang dijumpaidi dalam gua niah2 buktikan bahawa gua niah dihuni olehmanusia pada setiap zaman prasejarah3 cadangkan langkahlangkah untuk menarikperhatian pelancong mengunjungi gua niahbagi mengetahui kehebatan sejarah negarakitaaktivititapak zaman prasejarah gobekli tepe turkiusia 12000 tahunciricirimempunyai tiang berjumlah 200 batangdan berbentuk bulatanterdapat 20 buah bulatansetiap tiang mempunyai ketinggian enammeter dengan berat kirakira 20 tanberdasarkan maklumat di atas dan maklumatyang dikumpulkan melalui internet secaraberkumpulan buat pembentangan berkaitankefahaman anda tentang kepercayaan keseniandan kebudayaan manusia zaman prasejarahdi gobekli tepe turkikebijaksanaan manusia zaman prasejarah menyesuaikan kehidupandengan persekitaran haruslah dihargai oleh itu kita harus bersyukuruntuk memanfaatkan sumber alam semula jadi ciptaan tuhansumber sciencenationalgeographiccom59</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -936,7 +1024,11 @@
           <t>60</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>kesinambungan sumbangan zaman34 pkreassienjaamrabhu knegpaand as kuemmbaajnugana nk zehaimduapna n34mpraansuesjiaarah kepada kemajuan manusiatanpa kita sedari manusia zaman prasejarah banyak mewariskan penemuan danaktiviti mereka kepada tamadun manusia mereka telah mencipta dan melakukanpelbagai kegiatan yang masih dapat ditemui dalam kehidupan manusia hari iniaktiviti pertanian memburu dan menternak binatang pembuatan peralatan dantembikar ideofak serta monumen dan seni bina merupakan antara aktiviti yang telahdilakukan oleh masyarakat sejak zaman prasejarah dan masih lagi diteruskan hingga hari iniaktiviti pertanianaktiviti pertanian giat dijalankan bermula pada zaman neolitik antara jenis tanamantermasuklah padi gandum dan barli aktiviti pertanian menjadi sumber makanan pentingaktiviti pertaniankepada manusia hingga membolehkan mereka tinggal secara menetap aktiviti ini terusdiamalkan oleh manusia dan menjadi pekerjaan yang penting sehingga hari ini manusiaamketnijvailtai npkearnta nakiatniv istei cpaerart agniiaatn b esarmrau dlair ip asdecaa zraa mkaenci lnkeeocliiltaikn uannttuakr am jeenmise ntuahnia mkeapne iralulaahnpseanddii rgia nndaummu nd baeng bitaurl ipa adak tziavmitia nin mi toudreunt m aketnivjaidtii p peerktaenrijaana nte ylaahn mg epnejnatdini ga ksteivhiitni gkgoamlaehrs kiaelhapaarib iinlai h kaseiml paehritraannia mn amnuulsai ad ipjuraasle ajakratihv idtia plaemrta mnieannj dalialankkuakna ank steivcaitria p beerstaanribaens adriatenr udsaklaamnobleenht umk alnaudsainag m doendgenan d menegnagng muneankjaalna npkeraanl aatkatniv mitoi dpeenrta nian komersilpertanian sara diri dilakukanpertanian zaman prasejarahdi pkearwtaansiaann k saamrap duinrgi untukuntuk keperluan makanan perta nian komersial dilakukankeperluan sendirispeecratar an ibaens karombeesrasrilan untuktujuan jualanglosariideofak hasil tinggalan manusia zaman prasejarah yangberkaitan dengan ideologi atau kepercayaankomersial hal berkaitan dengan perniagaan atau perdaganganmonumen bangunan yang dibina untuk memperingatiseseorang tokoh ternama atau sesuatu peristiwa penting60memburu dan menternak binatangmemburu binatangaktiviti memburu binatang merupakan aktiviti paling tua yang diamalkan oleh manusiaaunkttuivki mti enmdeampabtukraun mdaank amnaenn jpearadta zbainmaatann pgr adsieajnargaghap a kstievbiatig maie makbtuivruit bi inpaatlainngg dtiulaa kyuaknagndmiaemngaglkuanna koalne hs emnjaantau syiaan ugn dtuipke rmbeunadt adpaaritpkaadna m baaktuan taunla nsgej akka yzuam gaann gpsaal edoalnit ibke ssie hsienlgaginazitaum taonm mbaokd ednan m peamnabhu druig duanna kmaenn bjeargait a mktaisviihti dmiaemmablukraun oblaeghi mseasneutesniag anh ammaunnu sbieag imtue rjeikkaadmaelanmgg uznaamkaann psuramspejiat ruanhtu mk eamktbivuirtui mmeemrubpuarkua na makatliavnit ii nuin mtuaks imh edniaammapluknagn hseidhuinpg gkain kiin iiampaedrau pzaamkaann a mktoidveitni y aakntgiv ditiij malaenmkbaunr use dbiajaglaain hkoabni sebagai hobi dengan menggunakan senjatayang lebih canggih berlesen dan berdaftar kini aktiviti memburu perlu mendapatkanlesen daripada pihak berkuasa di negara kita lesen berburu binatang dikeluarkan olehperhilitan jabatan perlindungan haiwan liar dan taman negaraimej aktiviti memburu memburu dengan sumpitan masih memburu binatang merupakan hobizaman prasejarah diamalkan sehingga kini sebahagian daripada manusia hari inidi lascaux perancismemburu burungmenternak binatangmenternak binatangsejak zaman neolitik manusia telah mempunyai kemahiran menternak binatang aktivitisineij amke zmabmoalenh nkaeno lmitiekre mkaa nmuesniad taeplaathk amne msupmubneyra im kaekmaanhainr asne cmarean tbeernrtaekru bsiannat apnagda a zkatmivaitniimnio dmeenm bpoelnethekrnaank mane rbeiknaa tmanegn ddaipjaatlkanank asnu msebcearr am akkoamnearns isle cbaargai bmeretnearumspanun gp akdeap zearmluaannmdaogdineng npeegnatrearnakan binatang dijalankan secara komersial bagi menampung keperluandaging dan tenusu bagi sesebuah negaragambaran penternakan binatang penternakan berbentuk sara diri penternakan lembu secarazaman neolitik di gua altamira komersial di kundasangpenternakan lembu secarasepanyol sabah malaysiakomersil66661111peralatanperalatan manusia zaman prasejarah diperbuat daripada batu kayu dan tulang haiwan yangdigunakan untuk pelbagai kegunaan dalam kehidupan mereka peningkatan pengetahuanmanusia tentang campuran logam acuan dan suhu pembakaran telah membolehkan peralatangangsa dan besi dicipta bagi menggantikan peralatan batu dan kayu peralatan gangsa dan besimerupakan hasil ciptaan inovasi yang banyak membantu kehidupan manusia sehingga hariini antaranya termasuklah pedang parang tombak cangkul keris dan kapak pembuatanperalatan besi ini terus kekal dalam sejarah dan tamadun manusia peralatan pada zamanmoden berubah apabila mesin dan jentera mula digunakan aktiviti memotong dan menghirisdaging tidak lagi menggunakan peralatan batu mahupun besi sebaliknya menggunakan mesinterutamanya dalam aktiviti komersialperalatan besi seperti parangdan kerisperalatan zaman batu mesin memotong dan menghiris dagingtembikarmanusia zaman prasejarah mempunyai pengetahuan dan kemahiran membuat tembikar yangdijadikan bekas makanan dan peralatan masakan keduadua pengetahuan ini masih diamalkanhingga hari ini pada zaman prasejarah tembikar turut dijadikan peralatan dalam upacararitual tembikar buatan china seperti tembikar dinasti ming serta buatan vietnam pernahmenjadi komoditi perdagangan yang penting pada abad ke14 dan ke15 masihi pembuatantembikar terus kekal sehingga kini dan menjadi industri yang sangat penting pembuatan labusayong merupakan industri yang penting di kuala kangsar perakreplika tembikar berkaki tembikar dari delta sungai industri labu sayong di kuala kangsartiga zaman hoabinhian yang merah vietnam bertarikh abad perakditemukan di bukit keplu ke15 masihi yang ditemukankedah malaysia di pulau jawa indonesia6622ideofakmanusia zaman prasejarah percaya bahawa kematian bukan penamat kepada kehidupanmereka amat menghormati mayat pelbagai kaedah pengebumian mayat dilakukan dankebiasaannya mayat akan dikebumikan bersamasama dengan pelbagai peralatan di guacha kelantan kepala mayat diletakkan di atas bantal batu mayat juga disertai denganbahan makanan dan terdapat ritual yang menampakkan kedudukan istimewa seseorangdi sabah terdapat sesetengah masyarakat yang memasukkan mayat ke dalam keranda kayudan disimpan di dalam gua batu kapur sehingga kini penghormatan terhadap mayat masihterus diamalkan mengikut agama masingmasingpengebumianmemanjangdi gua chakelantanmalaysiakeranda kayu di pantai timur kawasan perkuburan tenterasumbersabah malaysia komanwel di taiping perakmuzium negarasumber jabatan warisan negara malaysiamonumen dan seni binasejak zaman neolitik manusia mempunyai kebolehan dan kepakaran untuk membinamonumen dan binaan yang digunakan untuk pelbagai tujuan binaan ini sebahagiannyamasih kekal sebagai warisan sejarah untuk diwarisi oleh generasi akan datang pada zamanmoden kemampuan manusia membina binaan yang mengagumkan terus meningkat sepertimenara berkembar kuala lumpur klccstruktur megalitik berusia 3700 sm angkor wat kemboja menara berkembar kualadi ggantija malta lumpurperubahan dan kesinambungan merupakan aspek penting dalam perkembangan zaman prasejarahyang merangkumi zaman batu dan zaman logam perubahan inilah yang membawa kesanbesar terhadap kehidupan manusia hingga memasuki zaman berikutnya sehingga zaman modensebahagian daripada asas kehidupan manusia prasejarah sama ada dalam bentuk kemahiran ideaatau tindakan terus berlaku oleh itu kita perlu menghargai pencapaian manusia zaman prasejarahyang telah melahirkan pelbagai idea dan tindakan yang berguna kepada manusia hingga kini6633</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -957,7 +1049,11 @@
           <t>64</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>35 zaman prasejarah di malaysianegara kita juga tidak terkecuali melalui zaman tahukah andaprasejarah penemuan tinggalan manusia zamanprasejarah menunjukkan sejak 40000 tahun yang lalumanusia telah menetap di negara ini tempoh itu dikenalisebagai zaman paleolitik setelah zaman itu manusiamelalui kehidupan pada zaman mesolitik di asiatenggara zaman mesolitik dikenali sebagai zamanhoabinhian hal ini demikian kerana unsurunsur zamanmesolitik sebagaimana yang ditemukan di eropah tidakditemukan di asia tenggara sebaliknya penggunaanmadeleine colanialatan kerikil repih yang digunakan pada zaman paleolitikmerupakan ahli arkeologilebih banyak ditemukan zaman ini juga dikenali sebagaiperancis yang telahzaman epipaleolitik zaman ini diikuti dengan zamanmemperkenalkan istilahneolitikhoabinhian pada zamanprasejarah asia tenggarapada tahun 1932 hoabinhiandiambil sempena nama satutempat di utara vietnamlokasi zaman prasejarah iaitu hoabinhuppeetrrhllaiissilandkedahpulau kelantan laut china selatan sabahpinang bruneiterengganudarussalamperakpahangselangorselat sarawakmelakamelnsaeekmgaebrilianpetunjukzaman paleolitikjohorzaman hoabinhianzaman neolitiksingapurazaman logampeta lokasi zaman prasejarah di malaysiasumber nik hassan shuhaimi nik abdul rahman ed encyclopedia of malaysia early history singapuraarchipelago press 1998 hlm 2564kewujudan zaman prasejarahzaman tapakdi negara ini dibuktikan melaluipenemuan lokasilokasi tinggalan 40000 sm tingkayu sabahmanusia ketika itu lokasi paleolitik gua niah sarawakkota tampan peraktersebut wujud dalam dualembah mansuli sabahkeadaan iaitu di kawasan guadan di kawasan terbuka12000 sm 2800 sm jenderam hilir selangorkewujudan zaman mesolitik hoabinhian gua madai sabahprasejarah di negara ini dapat gua cha ulu kelantandilihat melalui pelbagai bukti bukit tegun lembu perliskulit s46eperti peralatan b1a00tu dan logam1 45 1682800 sm 500 sm gua kecil pahangtembikar d an manik lukisan guaneolitik sungai tembeling pahangdan ukiran batulubang angin sarawakgua tapadong sabahjenderam hilir selangor500 sm 501800 m sungai tembeling pahangviii 48 102 146logam lembah bernam selangorsumber nik hassan shuhaimi nik abdul rahman ed encyclopedia of malaysiakemunculan early history singapura archipelago press 1998 hlm 25tamadunawal65 108 147 kajian kes13uppeetrrhllaiissilandperalatan yang dijumpaikedah 13 ipim 77 128 161 di sungai tembelingpahangpulau kelantan laut china selatan sabahpinang bruneiterengganudarussalamperakperalatan yang dijumpaipahang 30 95 130 165 di raub pahangselangorloceng gangsaselat melakamelnsaeekmgaebrilian sarawak dkmiajuumamrpp ujanoigh d opirpetunjuk encuzaman paleolitikjohorperalatan yang dijumpaizaman hoabinhian 30 you tube 98 142 167 di klang selangorzaman neolitiksingapurazaman logamperalatan di atas menjadi asas kepadapenciptaan peralatan masa kinibincangkan65teknologizaman paleolitik zaman mesolitik hoabinhianselain lokasi bukti pentingyang menunjukkan kewujudanzaman prasejarah di malaysiaialah penemuan pelbagaijenis peralatan penemuan inimenunjukkan manusia prasejarahdi negara ini mempunyaiperalatan batu yang ditemukan peralatan batu yang telahkemahiran menghasilkandi kota tampan perak dilicinkan ditemukan di guaperalatan batu dan logamsenyum pahangperalatan ini digunakan dalamkehidupan harian merekauntuk memotong menetak atau zaman neolitik zaman logammemecahkan tulang penemuandi kota tampan perak dantingkayu sabah menunjukkanwujud bengkel membuatperalatan batu peralatan batuzaman neolitik di hulu perakmenunjukkan manusia telahperalatan logam yangmampu menggilap alatanditemukan di klangtersebut peralatan logam yangperalatan batu zaman neolitik sumber nik hassan shuhaimiditemukan di klang selangor yang ditemukan di hulu perak nik abdul rahman edmembuktikan kewujudan zaman perak encyclopedia of malaysia earlyhistory singapura archipelagologam di negara ini press 1998 hlm 39tembikar dan manikkewujudan zaman prasejarah di malaysia seterusnya dibuktikan dengan kemahiran pembuatantembikar dan manik penemuan pelbagai jenis tembikar seperti yang ditemukan di gua niah sarawakmenunjukkan manusia prasejarah di negara ini telah melakukan inovasi yang hebat tembikar inimempunyai pelbagai bentuk saiz dan corak hiasan selain tembikar pelbagai jenis manik telahditemukan seperti di kuala selinsing perak dan di lembah bernam selangortembikar yang ditemukan manik yang ditemukan manik yang ditemukandi gua niah sarawak di kuala selinsing perak di lembah bernam selangorsumber nik hassan shuhaimi nik sumber nik hassan shuhaimi nikabdul rahman ed encyclopedia of abdul rahman ed encyclopedia of sumber muzium sultan alam shahmalaysia early history singapura malaysia early history singapura selangorarchipelago press 1998 hlm 32 archipelago press 1998 hlm 3566lukisan gua dan ukiran batubukti paling ketara tentang kewujudan manusia zaman prasejarah di malaysia ialahpenemuan lukisan gua dan ukiran batu lukisan gua dan ukiran batu ini merupakan carakomunikasi untuk menyampaikan maklumat tentang kehidupan mereka selain itu lukisandan ukiran menggambarkan kehidupan harian manusia seperti aktiviti memburu dan amalanritual lukisan gua ini biasanya menggunakan arang dan oker merahcerna mindadengan melayari internet jawab soalandi bawah1 namakan negeri bagi tapak zamanprasejarah yang ditemukan lukisan guaseperti yang disenaraikan di bawahtapak lukisan gua negerilukisan gua di gua niah sarawaksumber nik hassan shuhaimi nik abdul rahmangua tambuned encyclopedia of malaysia early historysingapura archipelago press 1998 hlm 43 gua badakgua kelawarukiran batugua batu luasukiran batu banyak ditemukan di sabah dangua sirehsarawak sementara di semenanjung malaysiagua batu putehhanya ditemukan di pengkalan kempas negerilobang ringensembilan kewujudan ukiran batu mempunyaihagop bilokaitan dengan budaya megalit2 namakan negeri yang ditemukanukiran batu seperti yang disenaraikandi bawahtapak ukiran batu negerilemuyunpa sialong semadohukiran batu di kelabi t ukiran pada batu megalithighlands sarawak di pengkalan kempas ba kelalanyang dikenali sebagai negeri sembilan pa lunganbatu patungpa bengarsumber nik hassan shuhaimi nik abdul rahman ed encyclopediaof malaysia early history singapura archipelago press hlm 40 pa ramudulong bangaglosarilong omoksungai jaongoker merah hematit bahan pewarna merahpengkalan kempasyang diperoleh daripada batu kawi atau batu ladabudaya megalit budaya berasaskan penggunaanbatubatu bersaiz besar67ekonomibuktibukti tinggalan yang ditemukan di tapaktapak zaman prasejarah di malaysiamenunjukkan terdapat tiga bentuk aktiviti masyarakat ini dalam bidang ekonomiaktiviti memburu dan memunguthasil hutan merupakan aktivitipaling penting yang dijalankanoleh masyarakat zaman paleolitikhingga zaman haobinhian aktivitiini berbentuk sara diri sepenuhnyagambaran manusia zaman prasejarahmenjalankan aktiviti perburuanaktiviti penanaman padi dijalankan oleh manusia zaman neolitik antara tapak prasejarahyang penting termasuklah di pinggir sungai dan lembah yang subur seperti di hulutembeling pahang jenderam hilir selangor dan lembah nenggiri ulu kelantan terdapatjuga peralatan yang dikaitkan dengan aktiviti penanaman padi iaitu pisau tembelingdi pahang pisau ini dikatakan digunakan ketika menuai padi lebihan padi pula menjadibarang pertukaran dalam masyarakat ketika ituuppeerrtllhiiassilandkedahpulau kelantan lembah nenggiri laut china selatan sabahpinangperak terengganuhulutembelingjenderam pahanghilirselats e l a n g ornsaeekmgaebrilian sarawakpisau m e la k a m eljohortembelingpeta kawasan penanaman padi pada zaman prasejarah di malaysiasumber nik hassan shuhaimi nik abdul rahman ed encyclopedia of malaysia early history singapuraarchipelago press hlm 48kegiatan perdaganganmelalui sistem pertukaranbarang berlaku sama ada aktiviti tmkmelalui laluan daratanatau maritim antara dengan bantuan guru sejarahbarang dagangan yang anda layari laman web muziumloceng gangsa yangpenting termasuklah ditemukan di klang arkeologi lenggong bagiloceng dan gendang selangor mencari bukti kewujudan zamangangsa sumber muzium sultan prasejarah di negara inialam shah selangor68kepercayaanbukti tinggalan masyarakat zaman prasejarah di negara kita juga ditemukan melalui penemuanideofak di beberapa tapak perkuburan masyarakat zaman tersebut mengamalkan kepercayaan danmemberikan penghormatan kepada orang mati bukti penemuan ideofak ini menjelaskan cara hidupmasyarakat ketika itupengebumian pengebumian melentur pengebumian kerandamemanjang gua gunung runtuh perak kayugua cha kelantan pantai timur sabahsumber jabatan warisan negarasumber nik hassan shuhaiminik abdul rahman ed encyclopediasumber muzium negara of malaysia early history singapura pengebumian tempayanarchipelago press hlm 54terdapat di sabahsarawak dan kampungkubur kepingan batu pengebumian perahulimbongan terengganulembah bernam selangor kuala selinsing peraksumber muzium negara sumber muzium negara sumber muzium negaraselain itu kepercayaan masyarakat zaman prasejarah di malaysia turutditunjukkan melalui budaya megalit budaya megalit merujuk kepadakewujudan batu besar yang tersusun rapi dipercayai mempunyai kaitandengan amalan kepercayaan dan ritualbukti penemuan sejarahseperti yang dibincangkan menunjukkankewujudan zaman prasejarah di negara kita replika batu megalitsejak 40000 tahun yang lalu negara kita pengkalan kempastelah melalui pelbagai tahap zaman prasejarah negeri sembilansebelum menempuh zaman sejarah hal ini sumber muzium negaramenunjukkan kepentingan negaraaktiviti kpskita dalam perkembangan sejarahdan tamadun manusia rasionalkan penemuan pelbagaijenis pengebumian di atas69</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -978,7 +1074,11 @@
           <t>70</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>kesimpulanzaman prasejarahzaman prasejarah merupakan zaman sebelum manusia mengenali tulisanzaman ini terbahagi kepada zaman batu dan zaman logamlokasi zaman prasejarahlokasi zaman prasejarah boleh ditemui di seluruh dunia penetapan lokasiini sebagai lokasi prasejarah ditentukan melalui penemuan tinggalanmanusia sama ada artifak atau ekofakciriciri kehidupan manusia zaman prasejarahkehidupan manusia zaman prasejarah mempunyai ciriciri yang tersendiridan dapat diperhatikan melalui tempat kediaman mereka peralatan yangdibuat dan digunakan cara mereka mengumpulkan makanan kegiatanekonomi organisasi sosial kesenian dan kebudayaankesinambungan sumbangan zaman prasejarah terhadapkemajuan kehidupan manusiapelbagai aktiviti yang pernah dilakukan oleh manusia zaman prasejarahseperti pertanian memburu dan menternak binatang membuat peralatanmembuat tembikar amalan kepercayaan dan membina monumen didapatiterus dilakukan oleh manusia hari ini hal ini bermakna aktiviti manusiasejak zaman prasejarah itu berterusan hingga hari inizaman prasejarah di malaysiasebagaimana kawasankawasan lain di dunia malaysia tidak terkecualidaripada melalui zaman prasejarah kehidupan manusia zaman prasejarahdapat ditemui di pelbagai lokasi di negara ini seperti di lenggong peraklembah mansuli sabah gua niah sarawak dan gua cha kelantanbab ini telah menjelaskan tentang kepentingan zaman prasejarah dalam perkembangan tamadunmanusia perubahan yang berlaku sejak zaman paleolitik hingga zaman logam menunjukkankemampuan manusia meneruskan kelangsungan mereka dalam pelbagai keadaan pengalaman sertakeupayaan manusia melakukan inovasi serta menyesuaikan diri dengan alam sekeliling menjadiasas penting yang membolehkan mereka meneruskan kehidupan kemahiran dan kebolehan dalammenggunakan sumber semula jadi ciptaan tuhan membolehkan peralatan yang digunakan menjadisemakin baik dari semasa ke semasa tapak prasejarah dan bukti tinggalan manusia prasejarahboleh ditemukan di pelbagai lokasi di seluruh dunia termasuk negara kita kepentingan zaman iniwajar dikekalkan melalui usaha pemeliharaan dan pemuliharaan zaman ini menjadi titik perubahankepada pembinaan tamadun awal dunia yang akan dibincangkan dalam bab seterusnya70</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -999,7 +1099,11 @@
           <t>71</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>pemahaman dan pemikiran kritis1 dalam perkembangan zaman prasejarah di asia tenggara zaman hoabinhianmerujuk kepada zaman a mesolitikb paleolitikc neolitikd logam2 yang manakah lokasi zaman prasejarah terletak di malaysiai ban chiangii hagop biloiii gua liang buaiv bukit tegun lembua i dan iib ii dan iiic ii dan ivd i dan iv3 rangka manusia yang ditemukan di x berusia antara 11000 hingga 10000 tahundan menjadi bukti penting tentang kewujudan manusia prasejarah di negara inidi manakah xa gua niahb gua chac lenggongd jenderam hilirmayat dikebumikan bersamasama pelbagai peralatan4 mengapakah manusia prasejarah bertindak sedemikiana menggambarkan kedudukan seseorang semasa hidupb mempercayai kehidupan selepas matic membuktikan keunikan amalan rituald memberikan penghormatan terakhir5 a nyatakan lokasi tapaktapak zaman prasejarah yang terdapat di duniab pada pendapat anda apakah kepentingan lukisan gua pada zaman prasejarahc nyatakan keistimewaan tapak zaman prasejarah di lenggong perak71pemahaman dan pemikiran kritis6 lukiskan peralatan yang digunakan dalam kehidupan manusia zaman prasejarahzaman paleolitik zaman logam7 bezakan zaman prasejarah mengikut aspek yang berikutaspekzaman paleolitik mesolitik neolitik logamtempatkediamankegiatanekonomikesenian dankebudayaanzaman mesolitik zaman neolitik8 a berdasarkan ilustrasi di atas apakah yang anda boleh rumuskan berkaitan corakkehidupan masyarakat zaman mesolitik dan zaman neolitikb apakah cabaran yang terpaksa dilalui oleh masyarakat keduadua zaman tersebutc bagaimanakah mereka menghadapi cabaran tersebut72</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1020,7 +1124,11 @@
           <t>73</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>arif dan peka sejarahnilai patriotisme dan iktibarpengetahuan tentang zaman prasejarah mendidik kita bersikap tabah menghadapicabaran bagi menjadi warganegara yang baik dan berdaya tahanapabila kita mengetahui peristiwa masa lalu khususnya zaman prasejarahdi negara kita maka akan wujud rasa bangga terhadap sejarah tradisi dan budayanegaradengan mempelajari zaman prasejarah kita dapat memupuk sikap rajin gigihkreatif dan inovatif bagi menjadi warganegara yang bertanggungjawab untukmembina negara yang cemerlangdiri dan keluarga negaramengetahui kepentingan setiap ahli memahami kepentingan zamankeluarga bersikap kreatif dan inovatif prasejarah dapat memberikan inspirasibagi meningkatkan pendapatan dan mendidik kita untuk sentiasa bersikapekonomi keluarga kreatif dan inovatif khususnya merekacipta untuk memastikan kecemerlangannegara pada masa hadapanpertandingan reka cipta memupuk persaingan yang sihat untuk menjana ideaideayang kreatif dan inovatifgambar ihsan sharifah afidah syed hamid kuala terengganu terengganu73bab mengenali4tamadunsinopsistamadun merupakan proses meningkatkan kemajuan kehidupan manusiamenjadi lebih baik pada umumnya bahasa yunani bahasa inggeris dan bahasaarab menakrifkan tamadun sebagai pencapaian kemajuan manusia tamadunawal manusia bermula di lembah sungai dan terus berkembang sehingga hariini pertambahan jumlah penduduk yang ramai di kawasan lembah sungai telahmenyebabkan pembukaan bandar oleh itu manusia telah melakukan inovasidengan menggunakan kreativiti untuk menambah baik kehidupan merekaapakah yang akan anda pelajari1 memahami maksud tamadun mengikut bahasa yunani bahasa inggerisdan bahasa arab2 mengenali konsep tamadun mengikut pandangan islam dan barat3 memahami ciriciri tamadun awal duniaapakah elemen kewarganegaraan dan nilaisivik yang anda dapati1 menerangkan kepentingan kepimpinan dalam pembinaan sesuatu tamadun2 menerangkan nilai yang boleh dipelajari daripada sumbangan tamadun awal3 menjelaskan keperluan menghargai sumbangan tamadun awal dunia dalamkehidupan manusia4 membincangkan kepentingan sumbangan tamadun awal sebagai pencetusinovasi277704440patung di pintu masuk tempat ibadat hatshepsut di luxorsumber sivachandralingam sundara raja dan ayadurai letchumanan tamadun mesir shah alam karisma pub 2009 hlm 77kemahiran pemikiran sejarah yang anda dapati1 memahami kronologi iaitu urutan waktu dan peristiwa sejarah berkaitan kewujudantamadun awal dunia2 meneroka bukti dengan mengenal pasti dan membuat kajian terhadap buktibuktitinggalan tamadun awal dunia3 membuat tafsiran tentang perkembangan tamadun dan kepentingannya kepada manusia4 membuat imaginasi tentang kewujudan dan rupa bentuk fizikal dan pemikirantamadun awal5 membuat rasionalisasi terhadap kewujudan dan rupa bentuk tamadun awal mengikutkawasan777555</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1041,7 +1149,11 @@
           <t>76</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>41 maksud tamadunpengenalanpada umumnya tamadun ditakrifkan sebagai suatu pencapaian tertinggi oleh sesuatumasyarakat dalam pelbagai bidang antaranya termasuklah kegiatan pertanian danperdagangan sistem pemerintahan pembentukan bandar pengkhususan pekerjaanteknologi organisasi sosial agama dan kepercayaan tulisan dan penyimpanan rekod sertakesenian dan kesusasteraan perubahan kehidupan manusia ini didorong oleh daya inovasisesuatu masyarakatmaksud tamadun dalam bahasa yunanidari segi pengertian bahasa perkataan tamadun civilisation diambil daripada perkataanyunani iaitu civitas yang bermaksud bandar atau kota tahap kemajuan dalamkehidupan masyarakat dicapai dalam bidang kebudayaan sains industri dan sistemkerajaanmaksud tamadun dalam bahasa inggerisdalam bahasa inggeris tamadun disebut civilisation iaitu tahap pembangunan manusiadan organisasi yang dianggap paling maju tahap pembangunan tersebut merangkumipengetahuan kepercayaan seni moral undangundang adat dan kebolehan manusiaatau organisasimaksud tamadun dalam bahasa arabperkataan tamadun dalam bahasa arab ialah mudun madain dan madana yang bermaksudtinggi budi bahasa dan pembukaan bandar istilah lain yang sama pengertiannya ialahhadharah dan hadari hadharah bermaksud kawasan daerah bandar kota kampungdan kawasan yang digunakan untuk bercucuk tanam hadari pula bermaksud tanah ataurumah yang didiami oleh masyarakat tahap kemajuan dan memperoleh kekayaan76maksud tamadun dalam bahasa melayudalam bahasa melayu tamadun bermaksud suatu peradaban yang merujuk kepadapencapaian kemajuan masyarakat dari segi kebendaan serta perkembangan pemikiranmeliputi bidang sosial budaya politik dan lainlain yang tinggi kemajuan kebendaanmerujuk kepada pencapaian dalam penciptaan seni bina seperti bangunan dan empanganserta sistem ekonomi seperti percukaian dan kewangan dan hasil cipta seperti membuatkertas lukisan dan ukiran tamadun penting bagi membina kemajuan dan kemodenankehidupan manusia yang teratur dalam sesebuah sistem masyarakatkulit 46 100 145 168viii 48 102 146 180binaan piramid dan sfinks di mesirmerupakan seni bina yang mengagumkan6y5ang menjadi 1t08anda kemu1n47culan13tamadun a wal duniamengenali the art of the ancient near east menunjukkantamadunketinggian hasil kesenian masyarakat di babylon13 ipim 77 128 161walaupun terdapat perbezaan maksud tamadun menurut bahasa yunani bahasa inggerisbahasa arab dan bahasa melayu tetapi terdapat persamaan yang jelas iaitu kemajuanyang dicapai oleh masyarakat untuk membina kehidupan yang lebih baik dan kompleks30 95 130 165cerna mindabandingkan maksud perkataan tamadun dalam bahasa yunani bahasa inggeris dan30 you tube 98 142 167bahasa arab77</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1062,7 +1174,11 @@
           <t>78</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>42 konsep tamadunsudut pandangan islamkonsep tamadun dalam islam dibinaatas kerangka islam sebagai aldin carahidup tamadun mengikut pandanganislam merangkumi pembangunan lahiriahdan rohaniah yang berasaskan nilai dalampendidikan seperti yang disarankan olehalquran dan hadis serta ajaran nabimuhammad sawuniversiti alazhar mesiribn khaldun ialah tokoh awal yangmembicarakan tentang konsep tamadunislam beliau memperkenalkan konseptamadun iaitu umran dan hadharahyang digunakan dalam bukunya yangbertajuk muqqadimah hadharahmengandungi prinsipprinsip nilai meliputiaspek akidah syarak akhlak falsafahkebudayaan dan peradaban madaniyyahpula lebih menjurus kepada aspek kebendaandalam kehidupan dan lebih bersifat umumkepada semua manusia keduaduanyabermaksud perbandaran dan tamadunistilah hadharah dan madaniyyah iniibn khaldun pernah menjadi hakimlebih menepati konsep tamadun dalam islamdan ahli akademik di universitidan berpusat kepada wahyu alazhar mesirtahukah andasarjana teragung islam iaitu ibn khaldun merupakan sarjana sejarah pertamayang membincangkan tentang peraturan pemerintahan yang berkaitan dengankebangkitan dan kejatuhan sesebuah tamadun78syed muhammad naquib alattas pulaberpendapat tamadun ialah keadaankehidupan insan bermasyarakat yangtelah mencapai taraf kehalusan tatasusiladan kebudayaan yang luhur bagi seluruhmasyarakatnya beliau menulis pelbagaibuku dalam bidang pemikiran danperadaban antaranya termasuklah islamdalam sejarah dan kebudayaan melayu syed muhammad naquibdan historical fact and fiction alattas buku islam dalamsejarah dankebudayaan melayusudut pandangan baratdalam tradisi barat istilah civilisationdigunakan bagi menggambarkan tahapsesuatu masyarakat atau budaya yangkompleks lazimnya masyarakatbertamadun diukur melalui pencapaianilmu dan teknologi ekonomi strukturpolitik kemasyarakatan dan petempatandi kawasan perbandaranbagi masyarakat barat tamadundikaitkan dengan pembangunan lahiriahterutamanya dalam bidang kebudayaan arnold j toynbeeseperti kesenian penulisan undangundangdan perbandaranarnold j toynbee menjelaskan tamadunsebagai suatu sistem masyarakat yangmemperkasakan sistem politik ekonomisosial serta kesenian dan kebudayaan buku karyaarnold j toynbeekonsep tamadun meliputi semua pencapaiankehidupan masyarakat dalam bidang sosial danbudaya serta pemikiranrumuskan konsep tamadun79</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1083,7 +1199,11 @@
           <t>80</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>43 ciriciri tamadun awal duniatamadun awal dunia lahir di lembah sungai iaitu di lembah sungai tigris dan euphratessungai nil sungai indus dan sungai huang he ciriciri tamadun awal dunia ialahpencapaian yang hebat dalam bidang pertanian dan perdagangan sistem pemerintahanpembentukan bandar pengkhususan pekerjaan teknologi organisasi sosial agama dankepercayaan tulisan dan penyimpanan rekod serta kesenian dan kesusasteraan192pertanian dankesenian dan perdagangansistemkesusasteraanpemerintahan83tulisan dan pembentukanpenyimpanan ciriciri bandarrekodtamadunawal dunia74agama dankepercayaanpengkhususanpekerjaan6 5organisasi teknologisosial88001 pertanian dan perdagangankehidupan masyarakat tamadun awal mulai berkembang apabila terdapat kegiatan pertanianpenciptaan pelbagai peralatan pembinaan saliran penciptaan kincir angin dan pembinaanteres di tanah tinggi telah menggalakkan kegiatan pertanian dalam kalangan masyarakatperkembangan ini seterusnya telah mewujudkan kegiatan perdagangan pertamaperdagangan tempatan iaitu masyarakat yang tinggal di kota mendapatkan makanan danbarangan pertanian dengan menukarkan barangan kraf tangan dan perkhidmatan termasuklahkegiatan keagamaan kedua perdagangan jarak jauh masyarakat dari kawasan tamadunyang berbeza bertukartukar barangan dengan penduduk yang mempunyai bahan mentahseperti logam emas dan besi berlaku kegiatan perdagangan antara masyarakat sumerdengan mesir dan antara masyarakat sumer dengan mohenjodaroilustrasi menunjukkan kegiatan perdagangan pada zaman mesir purba2 sistem pemerintahankerajaan telah dibentuk untuk mengurus pemerintahankota yang berkembang pesat kesan daripada pembentukanbandar pada peringkat awal pemerintahan negarakotadiketuai oleh pendeta tetapi kemudiannya raja mengambilalih peranan sebagai pemerintah raja telah dibantu olehcerna mindapegawai daripada golongan bangsawan dan pendetamemerintah negarakota selain itu bagi melicinkan urusannyatakan ciriciripentadbiran negara undangundang telah dibentuktamadun awal dunia88113 pembentukan bandarperkembangan dalam bidang pertanian menyebabkan manusia mula membina petempatankekal kewujudan petempatan kekal di sesebuah kawasan bermula dengan kampung apabilaberlaku pertambahan penduduk kawasan kampung berkembang dan disatukan membentukbandar bandar mempunyai jumlah penduduk yang lebih ramai dan mempunyai pelbagailatar belakang antara ciri bandar termasuklahpelan susun atur bangunan danpetempatan yang tersusun rumahkediaman mempunyai kemudahanperigi bilik mandi dan tandaskemudahan prasarana yang teratur dansistematik seperti pasar rumah ibadatdan kawasan kediamanpembinaan sistem perparitan danpembetunganpembinaan kota untuk berlindunggambaran sebuah bandar pada zamandaripada serangan orang luar dan tamadun indusmenjadi kawasan sempadanpada peringkat awal bandar menjadi pusat kegiatan politik ekonomi dan kebudayaan bagikawasan sekitarnya kemudian bandar berkembang menjadi institusi sosial dan ekonomiyang tersusun yang menjadi asas kepada kelahiran tamadun awal duniabandar pertama dibina pada tahun 4000 sm kotakota utama pada peringkat tamadunawal ialah ur dan uruk berhampiran sungai tigris dan euphrates memphis di sungai nilmohenjodaro di sungai indus dan anyang di sungai huang he4 pengkhususan pekerjaanperkembangan pesat bandar telah meningkatkan jumlah penduduk hal ini secara tidaklangsung telah mewujudkan pengkhususan dalam bidang pekerjaan terdapat lebih banyakpeluang pekerjaan baharu seperti pengutip cukai jurutera yang mengawal sistem pengairansungai tentera petani yang bekerja di sawah dan mereka yang bekerja dalam bidangpentadbirankumpulan artisan pula menumpukan masa mereka dalam kerja mengukir menempa besidan tembikar selain itu saudagar dan pedagang bertukartukar barangan yang dihasilkanoleh golongan artisancerna mindaapakah peranan bandar huraikan keperluan pengkhususandalam tamadun awal dunia pekerjaan dalam tamadun awal825 teknologikemahiran dalam bidang teknologi oleh masyarakat tamadun awal telah menghasilkanpenciptaan barangan dan monumen serta hasil pertukangan hasil ciptaan ini telahmemberikan keselesaan kepada masyarakat tamadun mesopotamia terkenal dengan tamantergantung babylon tamadun mesir purba pula terkenal dengan pembinaan piramid dansfinks manakala tamadun indus terkenal dengan pembinaan negarakota mohenjodaropenggunaan teknologi dalam pembuatan logam tembaga gangsa dan besi pula menghasilkanperalatan seperti bajak untuk pertanian selain itu penciptaan roda telah membantupenggunaan kereta kuda dan kereta lembu untuk tujuan mengangkut hasil pertanian danperhubungan penduduk6 organisasi sosialdalam masyarakat mesir purba kemunculaninstitusi dan golongan pekerja telah mewujudkankelas sosial kelas sosial berasaskan jenisfiraunpekerjaan kekayaan dan pengaruh padaperingkat tamadun awal pemerintahwazir pegawaifiraun golongan agama dan golongankanan golonganbangsawan berada pada kedudukan agama dantertinggi dalam susunan masyarakat bangsawangolongangolongan saudagar dan artisanpenyalinberada dalam kelas keduapenulisdi bawah mereka ialahgolongan petani dan pekerjaartisanyang tidak berkemahiran berkemahirangolongan hamba berada dan karyawanpada kedudukan palingrendah hambapetani danterdiri daripada duaburuhkumpulan iaituhamba perangdan hamba pembanturumah danyang dijualhambasusunan struktur sosial pada zaman mesir purbasumber troy d allen the ancient eygptian family kinship and social structure london routledge 2003 hlm 74aktivitilakonkan situasi kegiatan ekonomi masyarakat pada zaman mesir purba seperti gambardi atas837 agama dan kepercayaanmasyarakat tamadun awalmempercayai banyak tuhanantara tuhan yang disembahtermasuklah tuhan bulanmatahari ibu dan sungaiterdapat institusi agama yangmengurus upacara keagamaanseperti korban binatangatau mempersembahkanmakanan kepada kuasa rohlakaran daripada book of the dead yang menunjukkan orang yangdalam hal ini tempat ibadatmati bersamasama isterinya memerhatikan penimbang keadilanyang besar dibina sebagai sedang menimbang perlakuannya semasa hiduptanda menghormati tuhan sumber gloria kfiero landmark in humanities new york mcgrawhill 2006di mesir misalnya penduduk hlm 15mempercayai kehidupan selepaskematian8 tulisan dan penyimpanan rekodsistem tulisan mula lahir kirakira 5000 tahun lalu penciptaantulisan penting bagi membezakan kehidupan zaman prasejarahdan sejarah kemudian manusia mencipta sistem tulisanyang lebih baik menggunakan abstrak simbol bagi mewakilipelbagai bentuk idea kelahiran tulisan membolehkanmanusia menyimpan rekod dan perkara penting tentangmasyarakat dan diri mereka tulisan pertama menggunakansistem piktograf atau simbol gambarbentuk piktografdalam tulisankuneiform yangtulisan zaman dinasti shangdigunakanpada tulang haiwansemasa tamadunsumber gloria kfiero landmarkmesopotamiain humanities new yorkmcgrawhill 2006 hlm 7sumber farah dan karlsworld history humanexperience new yorkcerna mindaglenceo 1999 hlm 69apakah kepentingan tulisankepada kehidupan manusia849 kesenian dan kesusasteraanmasyarakat pada zaman tamadun awal melahirkan hasilsastera dan seni bina yang mengagumkan gaya dan teknikyang digunakan oleh artis menggambarkan setiap budayatamadun masingmasingartis menghasilkan ciptaan berupa patung dan lukisantuhan dan dewa pahlawan dan pemerintah apabilapenggunaan tembaga meluas patungpatung diciptamenggunakan tembagaciptaan ukiran pada gelasdengan kehalusan senisumber sivachandralingam sundara raja dan ayadurailetchumanan tamadun mesir shah alam karisma pub2009 hlm 84aktivitiberdasarkan gambar tempat ibadat hatshepsutluxor di sebelah layari laman web secaraberkumpulan dan jawab soalan yang berikut1 apakah struktur binaan tempat ibadat ini2 jelaskan peranan tempat ibadat kepadamasyarakat pada ketika ituciriciri tamadun awal duniamemaparkan kehebatan pencapaian tamaduntamadundalam semua bidang kehidupan hal ini adalah asas pencapaiantertinggi manusia sehingga digelarkan tamadun hebat kemajuanpemikiran menyumbang kepada hasil cipta idea dalam kalanganmasyarakat untuk membina tamadun yang lebih tinggi hasilcipta telah membantu manusia membina kehidupan yang lebihbaik terutamanya dalam pembinaan bangunan dan teknologipertanian kewujudan tamadun awal dunia menjadipencetus inovasi kepada masyarakatpada hari ini85</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1104,7 +1224,11 @@
           <t>86</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>kesimpulanmengenali tamaduntamadun bermaksud pencapaian yangtinggi dalam semua aspek kehidupan yangmeningkatkan kehidupan manusia menjadilebih majukonsep tamadunkonsep tamadun dalam islam merangkumipembangunan lahiriah dan rohaniahkonsep tamadun barat pula merujuk kepadapembangunan lahiriah terutamanya dalambidang kebudayaan seperti kesenian penulisanundangundang dan perbandaranciriciri tamadun awal1 pertanian dan perdagangan2 sistem pemerintahan3 pembentukan bandar4 pengkhususan pekerjaan5 teknologi6 organisasi sosial7 agama dan kepercayaan8 tulisan dan penyimpanan rekod9 kesenian dan kesusasteraanbab ini telah menjelaskan maksud tamadun konsep tamadun dan ciriciritamadun awal dunia apabila memahami perkara ini kita dapat mengetahui lebihlanjut pembinaan tamadun yang dibina oleh masyarakat dahulu bab seterusnyapula akan membincangkan perkembangan tamadun awal dunia yang bermuladi lembah sungai86</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1125,7 +1249,11 @@
           <t>87</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>pemahaman dan pemikiran kritis1 perkataan civitas bermaksuda bandarb tatasusilac kesejahteraand kemajuan rohani2 tamadun mengikut pandangan islam ialahi pembangunan rohaniahii pembangunan lahiriahiii kemajuan kebudayaaniv kehidupan yang makmura i dan iib ii dan iiic iii dan ivd i dan iv3 mengapakah kewujudan bandar dikatakan asas kepada kelahiran tamadun awal duniaa bermulanya sistem tulisanb pusat pembentukan keagamaanc tempat pembangunan sosioekonomid kewujudan masyarakat bertatasusila4 yang manakah tuhan yang disembah oleh masyarakat tamadun awali tuhan batuii tuhan bulaniii tuhan sungaiiv tuhan aira i dan iib ii dan iiic iii dan ivd i dan iv5 bezakan konsep tamadun mengikut pandangan islam dan barat6 tamadun dalam bahasa yunani membawa maksud pencapaian yang tinggi dalamkehidupan sains industri dan sistem kerajaan bincangkan pernyataan ini87pemahaman dan pemikiran kritis7 terangkan ciriciri tamadun awal duniaciriciri tamadun peneranganpertanian dan perdagangansistem pemerintahanpembentukan bandarpengkhususan pekerjaanteknologiorganisasi sosialagama dan kepercayaantulisan dan penyimpanan rekodkesenian dan kesusasteraan8 hubung kaitkan pembentukan bandar dengan sistem pemerintahan yang membawakepada kemajuan sesebuah tamadun9 bagaimanakah faktor alam semula jadi mempengaruhi perkembangan pembinaantamadun manusia88</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1146,7 +1274,11 @@
           <t>89</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>arif dan peka sejarahnilai patriotisme dan iktibarmemahami tamadun membolehkan kita mengenali masyarakat yangbertamadun iaitu masyarakat yang mengamalkan tatasusila dan kehidupanberadab oleh itu kita perlu sentiasa berilmu dan beramal untuk kepentingannegarapengetahuan tentang pembentukan tamadun manusia mendidik kita supayasentiasa berilmu dan berketerampilan seterusnya melibatkan diri dalampembangunan negarakesungguhan manusia menggunakan kebijaksanaan untuk kelangsungan hidupbertamadun mendidik kita supaya menghargai sumbangan khazanah masa laludiri dan keluarga negarasikap menghormati pendapat sesama ahli kita perlu sentiasa berusahakeluarga amat penting supaya kesepakatan memupuk kesedaran cinta akandapat dicapai demi kelangsungan dan warisan negara bagi memupukkesejahteraan keluarga selain itu kita perlu semangat ini kita perlu sentiasamelengkapkan diri dengan pembangunan mengamalkan sikap berkerjasamakerohanian dan saling bersefahaman sesamaahli masyarakatputrajaya merupakan mercu tanda pembinaan tamadun negara kita yang hebat89bab tamadun awal5duniasinopsistamadun awal dunia bermula di mesopotamia mesir purbalembah indus dan huang he keempatempat tamadun initerletak di kawasan lembah sungai yang mempengaruhiperkembangan setiap tamadun tersebut interaksi manusiadengan cabaran alam sekitar telah membawa kepadapeningkatan cara hidup masyarakat dalam tamadun awaldunia ini membuktikan manusia mampu membina negarakota dan hidup di bawah sistem berkerajaan yang menjadiasas kepada perkembangan tamadun manusia pada hari iniapakah yang akan anda pelajari1 mengenali empat lokasi pembentukan tamadun awaldunia2 memahami sumbangan tamadun awal duniaapakah elemen kewarganegaraan dannilai sivik yang akan anda dapati kuil isis aswan mesirsumber menerangkan kepentingan kepemimpinan dalamegyptlandofeternitycomimagespembinaan sesuatu tamadun philaephilaetempleegyptjpgdicapai pada 1 september 20162 menerangkan nilai yang boleh dipelajari daripadasumbangan tamadun awal3 menjelaskan keperluan menghargai sumbangan tamadunawal dunia dalam kehidupan manusia4 membincangkan kepentingan sumbangan tamadun awalsebagai pencetus inovasi90kemahiran pemikiran sejarah yang anda dapati1 memahami kronologi iaitu urutan waktu dan peristiwa sejarah berkaitankeempatempat tamadun awal dunia2 meneroka bukti lokasi keempatempat tamadun awal dunia3 membuat interpretasi sumbangan tamadun awal dunia terhadap masyarakathari ini4 membuat imaginasi tentang pembentukan tamadun awal5 membuat rasionalisasi kepentingan lokasi tamadun awal dunia91</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1154,20 +1286,24 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab  Mengenali Sejarah </t>
+          <t xml:space="preserve">Bab  Tamadun Awal Dunia </t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pengertian Sejarah </t>
+          <t xml:space="preserve"> Empat Lokasi Tamadun Awal Dunia </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>51 empat lokasi tamadun awal duniapengenalanterdapat empat tamadun awal manusia di dunia iaitu tamadun mesopotamia tamadunmesir purba tamadun indus dan tamadun huang he hwang ho keempatkeempattamadun ini bermula dan berkembang di kawasan lembah sungai yang memainkan perananpenting dalam pembentukan tamadun awal dunia kepentingan sungai kepada manusiapada masa itu ialah membekalkan air bagi tanaman membuat kawasan petempatan danmenjadi alat perhubungan lokasi keempatempat tamadun tersebut dapat dilihat melaluipeta di bawahueropahlautk aspi a s ia shuaseuphr s t igris a n g h etsaompaodtaumniaht ua am ag d huneat m e sindutsamadunssgbanraghemsa ne s putr amteasmir apduurnba laut indus lautanarab pasifiks bentgelguaklan selatanliafrikaanchiutlalautanhindipetunjuktamadun mesopotamiatamadun mesir purbatamadun industamadun huang hepeta menunjukkan lokasi empat tamadun awal duniasumber gloria kfiero landmark in humanities new york mcgrawhill 2006 hlm 692aktivitiulautk aspi shuaseuphr s t igris a n g h etsaompaodtaumniht ua am ag d huneat m e a indutsaimndaudsunssgbanraghemsaputra ne s bmeerndjaaswaarkba sno gaalamnb dair bdaiw ataahs buat pembentangan berkumpulan dengansmteasmir apduurnba lautanl au tarab pasifik 1 nyatakan kepentingan sungai pada masa inis bentgelguaklan atan 2 mengapakah kita perlu melestarikan sungailisel 3 cadangkan usaha untuk memelihara dan memulihara sungaianchiutlalautanhindi aktivitihasilkan poster cintailah sungai kita secara berkumpulanberdasarkan pelbagai sumbercerna minda1 nyatakan lokasi keempatempat tamadun awal dunia2 apakah kegunaan sungai kepada tamadun awal999333</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1175,20 +1311,24 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab  Mengenali Sejarah </t>
+          <t xml:space="preserve">Bab  Tamadun Awal Dunia </t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pengertian Sejarah Mengikut Pandangan Sejarawan </t>
+          <t xml:space="preserve"> Tamadun Mesopotamia </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>perkembangan empat tamadun awal duniatamadun mesopotamia mesir purba indus dan huang he terletak di kawasan strategikiaitu di lembah sungai yang menjadi faktor penting kepada perkembangan pesatkeempatempat tamadun initamadun mesopotamiatamadun mesopotamia merupakan tamadun terawal dunia yang terletak di baratdaya asia mesopotamia bermaksud tanah di antara dua sungai iaitu sungai tigrisdan sungai euphrates yang mengalir dari kawasan pergunungan turki sehingga tanahpamah di iraqtamadun ini telah berkembang dari petempatan awal zaman neolitik antara tahun5000 sm hingga 700 sm pada sekitar tahun 3500 sm wilayah mesopotamia telahberkembang menjadi pusat tamadun awalterdapat beberapa kerajaan dalam tamadun ini antaranya termasuklah sumeriababylon akkad chaldea dan asyriakerajaan terawal ialah kerajaan sumeria yang bermula pada tahun 3500 sm dankerajaan yang terakhir ialah chaldea yang runtuh pada tahun 539 smtamadun di mesopotamia bermula di wilayah selatan iaitu sumer orang sumeriatelah berhijrah ke wilayah ini dan membina petempatan serta menjalankan aktivitipertanian melalui kerja menebus guna tanah dengan membina sistem pengairan yangmembolehkan mereka mengawal pengaliran air sungai mereka juga berjaya membinasistem perbandaranciri utama kerajaan sumerbandar majupeningkatan pengkhususanteknologi pekerjaanciri utamakerajaansumerinstitusipengurusanyang komplekssimpan kiracerna mindabagaimanakah masyarakat mesopotamia mengawal pengaliran air sungai94di lembah sungai tigris dan sungaieuphrates terdapat kawasan subur yangluas dalam oasis di tengahtengah gurundan gunung kawasan ini dipanggil bulansabit subur iaitu terletak di antara lautmediterranean dan teluk parsi kawasanini telah berkembang menjadi sebuahbandar yang besar struktur bandar inidibina daripada tanah liat yang dijadikanbata tempat ibadat dibina di setiappusat bandar binaannya berbentukpiramid yang dipanggil zigurat bagitujuan pertahanan dinding besar dibinamengelilingi setiap bandarilustrasi menunjukkan perbandaran tamadun mesopotamiakulit 46 100 145 168umes s o p so ta t igr is viii 48 102 146 180eu phrate s m ialaut mediterranean akkadbabylonsumertetluelkuk13 p p aarrssii 65 108 147mesirsnil la petunjukutm lembah bulan sabiterahpeta menunjukkan kawasan bulan sabit subur fertile crescentsumber farah dan karls world history human experience new york glen1c3e oip im 77 128 1611999 hlm 59aktiviti tmktamadunlayari internet secara berkumpulan dan jawab soalan mesopotamiayang berikut 30 95 130 1651 kumpulkan maklumat tentang kerajaankerajaanyang terdapat dalam tamadun mesopotamia2 bagaimanakah lembah bulan sabit menyumbang apakah kelebihan tamadunkepada perkembangan tamadun mesopotamia mesopotamia30 you tube 98 142 16795petempatan awal yang berbentuk perkampungankajian masa depanini berkembang secara evolusi kepada bandar danseterusnya kepada beberapa buah negarakotaberdasarkan gambar negarakotagambar di bawah menunjukkan pembentukanur jawab soalan di bawah dengansebuah negarakota dalam tamadun mesopotamiamembuat pembentangan secaraiaitu negarakota ur negarakota ini berperanansebagai pusat perdagangan dan pelabuhan berkumpulanpenduduknya berjumlah 30000 orang terletak 1 adakah bandar ini bandardi sungai euphrates berhampiran teluk parsi ur terancang berikan pendapatmenjadi tempat pertemuan pedagang dari jauh andaseperti india 2 sekiranya anda diberikan peluangpada hari ini kawasan mesopotamia melibatkan merancang bandar lakarkaniraq syria turki dan iran termasuk kawasanbandar masa depansempadan turkisyria dan sempadan iraniraqbandar dipenuhidengan rumahdan kedaidinding yang tinggimelindungi urdaripada serangannegarakota ur96aktivitikuil isis aswan mesirterkenal dengan keindahannilai estetika dan kesenianhalus secara berkumpulanbuat perbandingan antarakuil isis dengan bangunankesenian yang mempunyainilai estetika yang samadi malaysiakuil besar disediakanuntuk tuhan bulan nannadan isterinya ningal yangmenguasai bandarpetani menanampokok gandum danbarli di luar kota urterusanmenghubungkanur dengan sungaieuphratesdi dalam bandar terdapat sebuahlagi terusan dan pelabuhan besaryang dibina bagi membolehkanorang luar berdagang denganpedagang ur97</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1196,20 +1336,24 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab  Mengenali Sejarah </t>
+          <t xml:space="preserve">Bab  Tamadun Awal Dunia </t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Masa Silam dan Ruang dalam Sejarah </t>
+          <t xml:space="preserve"> Tamadun Mesir Purba </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>tamadun mesir purbautamadun mesir purba terletakdi kawasan lembah sungai nil sungainil merupakan sungai terpanjangdi dunia dengan kepanjangan sejauh6650 kilometer piramid dan firaunlaut mediterraneanmerupakan tinggalan terkenal tamadunini terdapat tiga tahap pemerintahankerajaan dalam tamadun mesirhilirdelta nilpurba iaitu kerajaan purba kerajaanmesirpertengahan dan kerajaan barugiza heliopolismemphissaqqarahkulit 46 100 145 168hulumengapakah mesir dikatakan mesirhadiah sungai nillautmenurut herodotus 484432m thebes mmesir dikavitiaikan had iah su4n8gai nil 102 146 180 e rathe gift of the nile kerana sungai hnil yang membanjiri kawasansekitarnya setiap tahun membawalumpur berwarna hitam yang suburuntuk pertanian65 108 14713 buhenkawasan yan g subur initerletak di lembah nil yangnubiamerupakan antara kawasan lembahyang terbesar di dunia sungainil juga membekalkan sumber smakanan terutamanya ikan kepada n13 ipim 77 128 161 ilpenduduk selain m enjadi sumberperhubungan dan pengangkutanterpenting kepentingan sungai petunjuknil mempengaruhi petempatankerajaan purbadi kawasan ini yang kemudiankerajaan pertengahanberkemban30g menjadi negara95kota 130 165kerajaan barupeta sungai nil dalam tamadun mesir purbatamadun sumber gloria kfiero landmark in humanities new yorkmesir purba mcgrawhill 2006 hlm 1430 you tube 98 142 1679988kerajaan purbapetempatan terawal di mesir purba bermula dengan perkampungan petani pada tahun5000 sm perkampungan ini membentuk dua buah kerajaan kerajaan utara terletakdi hilir sungai nil melibatkan kawasan lembah sungai nil suhu kawasan ini lebihsejuk berbanding dengan di selatan kerajaan di selatan terletak di hulu sungai nilkawasan ini merupakan kawasan yang terbentang luas berhadapan dengan padangpasirkeduadua kerajaan mesir purba telah disatukan sekitar tahun 3100 sm oleh rajamennes yang menawan kerajaan utara raja mennes telah membuka bandar memphisyang kemudian menjadi ibu kota kerajaannya perkembangan kerajaan purba mencapaikemuncak pada tahun 2650 smkerajaan pertengahankerajaan kedua dikenali sebagai kerajaan pertengahan yang bermula sekitar tahun21001650 sm pada zaman ini berlaku perkembangan bidang kesusasteraan danukiran kerajaan pertengahan meluas hingga selatan sungai nilkekuatan raja telah membawa kestabilan dan kemakmuran ekonomi ibu kotalakerajaan ini ialah thebes pemerintahnya telah menggalakkan kegiatan perdaganganutmenggunakan jalan sungai kerajaan pertengahan telah mengadakan hubunganmer perdagangan dengan nubia yang terletak di bahagian selatan mesirah para pedagang yang melalui jalan perdagangan mesir menghadapi ancamanserangan penjahat raja mesir bertindak menghantar tentera bagi melindungipedagang manakala penduduk mesir membina kubu di sepanjang sungai nil merekajuga mengambil alih kuasa kota nubiakerajaan barucerna mindakerajaan baru muncul apabila golonganbangsawan memerintah mesir 1 nyatakan lokasi tamadun mesirpemerintahnya digelar firaun yang telah purbamembentuk pasukan tentera yang kuat 2 apakah kelebihan sungai nilbagi mematahkan serangan orang luarraja yang terkenal semasa zamankerajaan baru mesir ialah ramsesaktiviti tmkramses telah membina banyakmonumen terkenal berupa berhalalayari internet dan kumpulkanzaman kejatuhan kerajaan baharu mesirmaklumat tentang pemerintahanbermula apabila ramses ii memerintahkerajaan baharu dalam tamadundari tahun 1279 1213 smmesir purba secara berkumpulan9999</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1217,20 +1361,24 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab  Mengenali Sejarah </t>
+          <t xml:space="preserve">Bab  Tamadun Awal Dunia </t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sumber Sejarah </t>
+          <t xml:space="preserve"> Tamadun Indus </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>tamadun industamadun indus terletak di lembah sungai indus iaitu di bahagian barat laut dan utaraindia kawasan ini dikelilingi oleh banjaran makran pergunungan baluchistan punjabdan rajasthan di bahagian timur serta kathiawar dan gujerat di bahagian tenggaratamadun ini bermula pada tahun 2500 sm di bahagian barat laut india terdapat pendudukyang mengamalkan kehidupan secara nomad mereka telah membentuk petempatan kekaldi sepanjang lembah sungai induslembah sungai indus mempunyai dua musim yang ekstrem musim hujan yangmembawa banjir dan musim kering yang membawa kemarau keduadua musim inimenyebabkan tanaman musnahbanjir pula berlaku di luarjangkaan penduduk sungaiutibet kadangkala berubah arah aliranpergmuonhuenngajonbdalaucrhoistasnindus phkinueuirjs aiinnmng g pa undyl mt du bkaskekiaa mm aeankkneee rtikuunesg uadharaaacnunah a r a p papunjab aaen i n mcnbanjaranhimalayandraja s t h a n e n b a m asutkagendor tanaman hujan lebat yanggujerat berterusan menyebabkan berlakunyalothalkathiawar banjir yang memusnahkan kawasanindialaut teluk petempatanarab benggalapenduduk lembah sungaiindus bergiat aktif dalam pertanianmereka menanam pokok gandumpetunjukbarli dan kapas dalam masa yanglembah sungaisama wujud kegiatan lain sepertiinduspembuatan barangan daripada kapaspeta menunjukkan kawasan lembah sungai indusdan besi hubungan perdagangansumber gloria kfiero landmark in humanities new yorkberlaku antara penduduk lembahmcgrawhill 2006 hlm 21sungai indus dengan pendudukdi bahagian selatan mesopotamiakawasan ini kemudian berkembangcerna minda menjadi bandardi manakah terletaknya tamadun industamaduninduskulit 46 100 145 168bagaimanakah peningkatan hasil pertanian boleh menyebabkan pertambahanjumlah pendudukviii 48 102 146 18010065 108 1471313 ipim 77 128 16130 95 130 16530 you tube 98 142 167binaan bangunan mohenjodarosumber farah dan karls world history human experience new york glenceo 1999 hlm 33terdapat dua buah bandar terancang tahukah andaterkenal yang dibina dalam tamadun iniiaitu mohenjodaro dan bandar harappa perancangan bandar harappa membuktikanpada masa ini jurutera telah mencipta sistem penduduknya telah mencapai tahap tamadunpaip dan pembentungan yang canggih yang tinggi kotanya dikelilingi oleh dindingmenjelang tahun 1750 sm tamadun indus bata yang tebal sepanjang 48 kilometermula mengalami kemerosotan ahli sejarah dinding ini dibina bagi mengelakkanbanjir di dalam kota dibina benteng bagiberusaha mencari sebab kemerosotanmelindungi keluarga dirajatamadun inijalan raya dibina selebar 30 kakipada tahun 1970an ahli sejarahdinding memisahkan daerah perumahanmenemukan punca kemerosotan ini imejantara satu sama lain rumah pula pelbagaisatelit menunjukkan terdapat pergerakansaiz ada yang dibina setinggi tiga tingkatplat bumi yang menyebabkan berlakunyagempa bumi dan banjir selain ituserangan orang aryan mempercepatkeruntuhan kerajaan tamadun indusaktiviti tmklayari internet dan dengan menggunakanberdasarkan pelbagai sumberpelbagai sumber kumpulkan maklumathuraikan keistimewaan bandartentang tamadun indus dengan lebihterancang mohenjodarolanjut101</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1238,20 +1386,24 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab  Mengenali Sejarah </t>
+          <t xml:space="preserve">Bab  Tamadun Awal Dunia </t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Penyelidikan dalam Sejarah </t>
+          <t xml:space="preserve"> Tamadun Huang He </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>tamadun huang hetamadun huang he terbina di kedudukan dua sungai utama yang mengalir dari kawasanpergunungan di sebelah barat ke lautan pasifik sungai huang he atau dikenali jugasebagai sungai kuning terletak di kawasan utara negara china manakala sungai yangtzedi bahagian tengah china mengalir ke timur hingga ke laut kuning huang he bermaksudsungai kuning yang menyimpan banyak lumpur kekuningan yang suburseperti tamadun awal yang lain sungai menjadi nadi utama dalam pembentukantamadun huang he masyarakat awal china telah membina petempatan dan menjalankanaktiviti pertanian dan penternakan binatang selain mengumpul hasil hutan dan berburudi sepanjang sungai huang he penduduk di kawasan ini turut menghadapi banjir disebabkanoleh limpahan air sungai huang he yang menenggelamkan keseluruhan kampung halini ditambah pula dengan kedudukan geografi tamadun ini yang terpencil menyebabkanpenduduk awal tamadun ini hanya dapat menghasilkan makanan sendiri dan tidak berdagangdengan orang luarugurun gobichinaanyangheshuanglautzhengzhouluoyang kuningyangzhousyangtzepetunjuktanahtinggitamaduntibet huang hepeta menunjukkan lokasi tamadun huang hesumber farah dan karls world history human experience new york glenceo 1999 hlm 221kulit 46 100 145 168cerna minda1 nyatakan lokasi tamadun huang he2 nyatakan tiga buah kerajaan awal china tamadunhuang heviii 48 102 146 18010265 108 1471313 ipim 77 128 16130 95 130 16530 you tube 98 142 167tamadun huang he telah bermula kirakira 4000 sm terdapattiga kerajaan awal iaitu xia 2205 1766 sm shang 1766 1050 sm dan zhou1050 256 sm perkembangan petempatan kerajaan awal ini telah melahirkan beberapa buahbandar huang he antaranya termasuklah anyang bandar ini merupakan pusat kerajaandinasti shang semasa dinasti zhou tamadun ini tersebar hingga ke bahagian selatan sungaiyangtze antara aktiviti utama tamadun ini selain pertanian termasuklah membuat tembikarmembina kapal menghasilkan varnis sutera sulaman dan ukirankemajuan aktiviti pertanian dalam tamadun ini telah membawa kepada penghasilanciptaan daripada kayu dan logam yang digunakan sebagai peralatan pertaniansungai huang he memacu perkembangan tamadun awal manusia di chinasumber dicapai pada 1 september 2016pembentukan tamadun awal dunia yang bermula di kawasan lembangan sungai telahberkembang menjadi bandar pertambahan jumlah penduduk menyebabkan kegiatanekonomi yang berasaskan hasil pertanian berkembang dalam bidang lain pembukaanbandar telah mewujudkan sistem pemerintahan sistem pentadbiran sistem pengairandan kegiatan perdagangan hal ini memakmurkan dan menjadikan kehidupan manusiabertambah baikaktiviti tmklayari internet dan kumpulkan maklumat secara berkumpulan tentangkeistimewaan sungai huang he103</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1259,20 +1411,24 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab  Mengenali Sejarah </t>
+          <t xml:space="preserve">Bab  Tamadun Awal Dunia </t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tafsiran dalam Sejarah </t>
+          <t xml:space="preserve"> Perbandingan Sumbangan Tamadun Awal </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>perbandingan sumbangan52tamadun awalempat tamadun awal dunia telah memberikan sumbangan besar kepada pemodenankehidupan masyarakat pada hari ini peningkatan tamadun melalui reka cipta dalampelbagai bidang telah meningkatkan nilai kehidupan manusia sejagat setiap tamadunawal dunia ini mempunyai kelebihan dalam bidang masingmasing hal ini dapat dilihatberdasarkan jadual di bawahperbandingan sumbangan tamadun awal yang pentingaspek tamadun tamadun mesopotamia tamadun mesir purbapemerintahan negarakota diperintah oleh firaun memerintahdan pentadbiran raja negara sepertinegarakota bersatu kuasa tuhanmembentuk empayar yang raja berkuasa mutlakpertama raja mempunyailahirnya undangundang pandangan kehidupandikenali sebagai kod selepas mati merekahammurabi menghormati mayatuntuk dikebumikankegiatan ekonomi ditadbir secara pertanian merupakanekonomi berpusat oleh golongan agama kegiatan utamadan raja majoriti pendudukkerajaan menentukan jumlah ialah petanitanaman dan bilangan petani petani membayarwujud pekerjaan seperti sewa tanah kepadapegawai petani jurukira dan rajahamba terdapat kegiatanperdaganganteknologi adanya sistem tali air kemajuan matematikreka cipta berasaskan gangsa dan geometriciptaan roda sauh dan bajak kemahiran dalamsistem nombor berasaskan 60 bidang perubatankalendar 12 bulan pembinaan terusan danmencipta emas pengairanmencipta kertas daripada 365 hari dalam kalendarpapirus tahunanpenciptaan kertas104zigurat merupakan tempat beribadat dalam ilustrasi taman tergantung babylon yang dibinatamadun mesopotamia pada abad keenam sebelum masihisumber gloria kfiero landmark in humanities new york sumber gloria kfiero landmark in humanities new yorkmcgrawhill 2006 hlm 10 mcgrawhill 2006 hlm 15tamadun indus tamadun huang heteraju pemerintahan dipegang oleh sistem politik berasaskan negaragolongan pendeta kotagolongan pendeta mempunyai masyarakat dan keluarga merupakanpengaruh dalam bidang keagamaan unsur pentingdan pentadbiran pembahagian kelas sosialkuasa raja datang dari syurgaraja berkuasa dalam bidangekonomi politik dan agamasistem ekonomi bersepadu tumpuan utama ialah pertanianyang berasaskan pertanian sekoi dan tanaman paditanaman utama ialah gandum tanaman utama ialah gandumdan barli dan barlihaiwan ternakan seperti haiwan ternakan seperti lembulembu dan kambing kambing ayam dan babiterdapat kegiatan tenunan kaindan kerja logamkegiatan perdaganganberkembangkota dibina mengikut grid yang hasil cipta suteratepat penciptaan peralatan daripadaadanya sistem perparitan dan besipembetungan penciptaan wang syiling365 hari dalam kalendar tahunan peningkatan pengangkutan jalanpenciptaan kertas dan terusanpenciptaan kompas magnetik105aspek tamadun tamadun mesopotamia tamadun mesir purbakesenian dan tulisan dikenali sebagai tulisan hieroglifkesusasteraan kuneiform lakaran hasil kesenianpenduduk menukilkan terdapatpuisi di tembok batu sebagairekaan patung untuk lukisan dindingmengingati pemimpin di kawasan perkuburanbinaan zigurat yang berfungsi piramidbangunan dan sebagai rumah ibadat sfinkskemudahan taman tergantung tempat ibadatbabylonsfinkspiramid dibina sebagai kawasan perkuburan raja mesirribuan pekerja terlibat dalam pembinaan piramid106tamadun indus tamadun huang headanya tulisan piktograf adanya penulisan berasal daripadapenghasilan balang yang piktografmempunyai ukiran geometri dan hasil cipta puisi yang romantikmotif alam lirik diolah dalam pelbagai bentuktradisi masyarakathasil kesenian dilukis padatembikarkolam mandi besar kekurangan seni bina monumenkota dibina mengikut grid yang bandar pertama dibina padatepat zaman dinasti shangjelapang kajian ahli arkeologi mendapatisistem paip dan pembetungan istana dan tempat ibadat dibinadewan perhimpunan di tengahtengah bandarair mandian disalirkanke dalam longkangbatubata di bawahjalan rayapembetungmempunyai kawasan perkuburan diraja shang dalamsaliran utama tamadun huang he terdapat pelbagai objek yangdiperbuat daripada gangsasistem pembentungan dalam tamadun induskeempatempat tamadun awal dunia mempunyai persamaan dan perbezaan dalamsumbangan terhadap perkembangan kehidupan manusia bahagian seterusnya akanmemperincikan sumbangan tamadun awal dari aspek pemerintahan dan pentadbirankegiatan ekonomi teknologi serta kesenian dan kesusasteraan107pemerintahan dan pentadbirantamadun mesopotamiakerajaan mesopotamiaterkenal kerana mempunyaikerajaan yang kukuh di bawahpemerintah yang bernamahammurabi hammurabitelah membina bangunan danmemperbaik sistem pungutancukai serta meningkatkankegiatan perdaganganusaha ini telah membawatamadun mesir purbakemakmuran kepada empayardi mesir purba raja dikenalibabylon hammurabi jugasebagai firaun yang berperananterkenal kerana mewujudkanmembentuk kestabilan dankulit 46 u10n0dangundan1g4 5yang dikenal1i6 8kemakmuran ekonomi firaunsebagai kod undangundangtelah menggalakkan kegiatanhammurabi yang mengandungiperdagangan menggunakankirakira 282 perkara yangjalan sungai apabila pedagangmerangkumi hal perdaganganmenghadapi ancaman serangankod undangundangkecurian denda dan hukumanviii 48 102 146 180 hammurabi yang penjahat raja mesir telahdipah at bertindak menghantar tenterabagi melindungi pedaganglangkah ini telah berjayamewujudkan keamanan di mesirkod undangundanghammurabi purba65 108 14713tamadun indus tamadun huang hesistem pemerintahan lembah sungai indus tamadun ini mementingkan peranan rajaditerajui oleh golongan pendeta kajian yang sebagai pemerintah yang membawa mandatdijalankan oleh ahli arkeologi menunjukkan daripada syurga sistem pemerintahannyatidak terdapat bukti kewujudan pemerintahan berasaskan kepada dinasti dalam13 ipim 77 128 161beraja di l embah sung ai indus oleh itu kepercayaan masyarakat china merekagolongan pendeta mempunyai pengaruh perlu mendapatkan kebenaran daripadadalam bidang keagamaan dan pentadbiran tuhan untuk memerintah30 95 130 165ce rna minda1 apakah peranan raja dalam tamadun mesir purba2 dari manakah raja dalam tamadun huang he mendapat mandat30 you tube 98 142 167108ukegiatan ekonomigreecetamadun mesopotamia stiugarit griskegiatan ekonomi atau pengkhususan byblosspleebkiehrajnaa hna bsielr lpaekruta anpiaanbi lma wasuyjuardankyaat laut mediterranean c y pr us euphratesdelt a n ilbabylonyang sebelum ini bekerja sebagaimemphispetani telah bertukar pekerjaanmenjadi peniaga pedagang dansnil tanah arabartisan aktiviti perdagangan telahthebesmeluas sehingga ke kawasan lembah elephantineindus terdapat pengusaha tekstilbarangan tembikar dan alat keperluan petunjukharian selain itu pertambahan kush l au t m kerajaan baruerah luatalumaan importpenduduk menyebabkan peningkatan napatapermintaan tukang rumah bagipembinaan rumah peta menunjukkan laluan perdagangan mesir purbasumber gloria kfiero landmark in humanities new york mcgrawhill2006 hlm 14tamadun mesir purbawujud pengkhususan pekerjaan dalam bidangtamadun induspenenunan dan pembuatan barang tembikarpelbagai kegiatan ekonomi dijalankandan peralatan harian eksport utama ialahseperti perdagangan pertaniantekstil dan kertas di samping itu terdapatpertukangan dan pembuatan aktivitikegiatan perlombongan emasperdagangan turut dijalankan dengansungai nil yang lebar dan dalampedagang dari mesopotamia antaramembolehkan kapalkapal daganghasil perdagangan yang pentingmenyusurinya dan berlabuh di pelabuhantermasuklah emas gading gajahpelabuhan seperti thebes memphis danmanik dan hasil pertanian petani pulaelephantinemenjalankan aktiviti bercucuk tanamterutamanya bagi tanaman makananseperti barli dan kacang selain itutamadun huang heterdapat penduduk menjadi artisandalam aspek ekonomi tamadun ini telahyang terlibat dalam penghasilanmemberikan banyak sumbangan masyarakatbarangan logam dan tembikardalam tamadun ini juga amat prihatin terhadappembangunan pertanian terusan dibina untukmengairi kawasan pertanian pembangunandalam pertanian juga membawa kemajuandalam teknologi pembajakan dan penciptaanbagaimanakah masyarakat padacangkul dan sabit petani juga menggunakanzaman tamadun awal melakukanbatas untuk tujuan penanamankegiatan perdagangan109teknologitamadun mesopotamia tamadun mesir purbasumbangan tertinggi masyarakat sumer masyarakat zaman mesir purba juga melakukandalam tamadun mesopotamia ialah reka cipta sains dan teknologi hasil cipta yangpenciptaan tulisan penciptaan roda terkemuka adalah dalam bidang astronomibidang perubatan bidang astronomi matematik perubatan bahasa dan senidan bidang matematik tamadun ini bina masyarakat zaman ini merupakanmenggunakan sistem nombor berasaskan antara masyarakat yang terawal menulis dan60 mereka membahagikan masa kepada menyimpan rekod sesuatu peristiwa bentuk60 minit mereka juga membahagikan penulisan terawal dikenali sebagai hieroglifbulatan kepada 360 darjah selain itu orang mesir purba menghasilkan kertas yangmereka mencipta formula bagi mengira dipanggil papirus dan mencipta dakwat hitampelbagai bentuk geometri bulatan tulisan di atas papirus adalah untuk menulisdan segi tiga ahliahli astronomi teks agama dan dokumen pentingm e s o p o t a m i apula mencerappergerakan bulanplanet dan bintangtulisanhieroglif olehmasyarakattulisan kuneiform mesir purbatamadun indus tamadun huang hemasyarakat lembah indus mencapai masyarakat tamadun huang he mencipta tulisankebolehan mengukur sukatan panjang daripada lukisan selain itu mereka menciptadan masa dengan tepat mereka alatalat pertanian daripada kayu dan besimerupakan masyarakat terawal yang penghasilan alat pertanian banyak membantumencipta sistem menyukat berat dan petani dalam kegiatan pertanian khususnyasukatan batubata yang dibina mengikut penanaman padi masyarakat tamadun ini jugaukuran saiz yang tepat kebolehan lain terlibat dalam penciptaan benang sutera matayang dimiliki oleh masyarakat ini ialah wang syiling dan penciptaan kompas magnetikmencipta tembaga gangsa dan timahkemuncak pencapaian tamadun inidapat dilihat melalui pembinaan bandarsimbolterancang di mohenjodaro yang purbasistematik aksaramodenperkembangan karektor tulisan chinabagaimanakah ciptaan alatan pertanian dapat meningkatkan tamadun manusia110kesenian dan kesusasteraantamadun mesopotamia tamadun mesir purbamasyarakat pada zaman ini telah mula masyarakat mesir purba mempunyaimengukir pada batu bagi merakamkan kebolehan menghasilkan hasil seniperistiwa yang berlaku berbentuk lukisan yang terkenal di dunialukisan terdapat pada dindingdindingbangunan serta kuiltulisan epik enuma elish yang menceritakankisah apsu dan tiamat iaitu kisah epikorang babylonlukisan dinding yang menunjukkan rajamesir sedang disapa oleh dewa wanitatamadun indus tamadun huang hemasyarakat pada masyarakat tamadun huang he jugazaman tamadun indus berjaya mencipta puisi yang romantikmenghasilkan kerja dan lirik dalam pelbagai bentuk tradisilogam terutamanya masyarakat kemahiran utama masyarakattembaga gangsa huang he ialah penghasilan tembikardan batu permataahli seni tamadun penduduk zamanini mempunyai semasa kerajaan dinastiindus menghasilkankemahiran shang masyarakatnyapatung yang diperbuat membuat patung telah menghasilkan hasildaripada batu dan cipta yang diperbuatsumber gloriadaripada tembagalogam kfiero landmark inhumanities new york sumber gloria kfiero landmark inmcgrawhill 2006 humanities new york mcgrawhillhlm 21 2006 hlm 25sumbangan tamadun awal memperlihatkankemampuan manusia meningkatkan kemajuan dalam kehidupanperkembangan aktiviti pertanian di kawasan lembah sungai membawa kepadapembentukan bandar dan negarakota yang lebih tersusun dan sistematikperkembangan ini menyumbang kepada kemajuan sistem pemerintahankegiatan ekonomi teknologi kesenian dan kesusasteraan termasuklahpembinaan monumen perkembangan tamadun awal ini mempengaruhikehidupan manusia sehingga hari ini111</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1280,20 +1436,24 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab  Mengenali Sejarah </t>
+          <t xml:space="preserve">Bab  Tamadun Awal Dunia </t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kepentingan Mempelajari Sejarah </t>
+          <t xml:space="preserve">Kesimpulan </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>kesimpulanmengetahui lokasi danu perkembangan tamadun awaleropahlokasi empat tamadun awal mempunyaiaulseuphrsatetsigris t k aspi a a s ia sh ua n g h ed psdeueiu nr sgahaanmriata a at na m iauamdintuaugnd t imen r l eeistgeoasrpkiio td aidmu li ea m sttbeeuarrllnneeggttaaaakknim e tsaompaodtaumn i a raaubstindutsaimndaudsunssgbanraghbeemsn a p u t r a h t ua am n a g hu n eafr m i t k easmir a apduurnba s lin a l t ge lg ua k l a sel ata n lpaaustifaink ter sa sa a t rs ar bnl a u t c hi n a p t u m p alautanhindi di lembah sungai nil tamadun induspula berada di kawasan sungai indusmanakala tamadun huang he beradadi sungai kuningkedudukan empat tamadun awalmembandingkan sumbangantamadun awal dan sumbangan kepadakehidupan masyarakat hari iniperbandingan tamadun awal dunia dapatdilihat dari sudut pemerintahan danpentadbiran kegiatan ekonomi teknologikesenian dan kesusasteraan serta binaanbab ini telah menjelaskan tentangbangunan dan kemudahan setiap tamadunlokasi empat tamadun awal yangmempunyai keunikan dan sumbanganmemberikan sumbangan kepadamasingmasingtamadun dunia pengetahuan kepadaperkembangan tamadun awal duniaini menunjukkan kepentingan alamsekitar dengan kehidupan manusiahal ini menjelaskan perlunyakita menghargai sumbangan yangtelah diberikan oleh masyarakatdahulu khususnya dari segizigurat piramidmenghargai sungai dan sumberalam sumbangan tamadun awaldunia ini menjadi inspirasi kepadaperkembangan dan peningkatantamadun manusia pada hari ini babseterusnya akan membincangkantentang peningkatan tamadunukiranyunani rom india dan chinagelas perkuburan diraja112</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1301,20 +1461,24 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab  Mengenali Sejarah </t>
+          <t xml:space="preserve">Bab  Tamadun Awal Dunia </t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kesimpulan </t>
+          <t xml:space="preserve">Pemahaman dan Pemikiran Kritis </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>pemahaman dan pemikiran kritissungai tigrissungai euphrates1 keduadua sungai di atas merujuk kepada tamaduna mesopotamiab mesir purbac indusd huang he2 apakah kepentingan sungai nil kepada tamadun awal mesir purbai pelanconganii pengangkutaniii sumber makananiv perluasan kuasaa i dan iib ii dan iiic iii dan ivd i dan iv3 sumbangan terbesar tamadun indus kepada dunia ialaha rodab sistem tulisanc sistem kalendard perancangan bandar4 apakah kepentingan kepimpinan dalam pembinaan sesuatu tamadun5 bincangkan sumbangan tamadun indus dalam aspek perancangan bandar6 sejauh manakah tamadun awal di dunia memberikan sumbangan kepada kitadalam bidang teknologi113pemahaman dan pemikiran kritisilustrasi berikut menggambarkan bandar terancang mohenjodaro yang tersusunkemas71 42536petunjuk1 sekolah 2 bilik air 3 stor simpanan 4 dewan5 tempat ibadat 6 tembok 7 terusan7 berdasarkan ilustrasi di atasi bincangkan ciriciri penting bandar terancang mohenjodaroii bincangkan sumbangan lain tamadun indus8 bagaimanakah pembinaan terusan membantu kemajuan kegiatan pertaniantamadun huang he9 bincangkan perkembangan kewujudan bandar semasa zaman tamadun awal dunia114</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1322,20 +1486,24 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab  Mengenali Sejarah </t>
+          <t xml:space="preserve">Bab  Tamadun Awal Dunia </t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pemahaman dan Pemikiran Kritis </t>
+          <t xml:space="preserve">Arif dan Peka Sejarah </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>arif dan peka sejarahnilai patriotisme dan iktibardengan mempelajari tamadun awal dunia kita perlu sentiasa bersifat tabah danberdaya tahan dalam menghadapi setiap cabaran untuk meneruskan kehidupanmasa depanpengetahuan tentang kemunculan tamadun awal dunia mendidik kita supayaberbangga dengan tradisi dan budaya bangsapenghayatan terhadap warisan dan budaya kebangsaan akan membentuksikap patriotisme dan sikap berbangga sebagai rakyat malaysiadiri dan keluarga negarasentiasa meningkatkan pengetahuan pengetahuan dan keterampilan diridan keterampilan diri sebagai amat penting untuk menjalinkanpersediaan menghadapi cabaran yang hubungan sosial dengan pelbagaimendatang antaranya termasuklah pihak sama ada pada peringkatmenambah baik kemahiran kendiri tempatan mahupun antarabangsaseperti kemahiran komunikasi sifat berdaya tahan dan berdaya saingakan dapat memastikan sumbangankita kepada negara pada masadepanpenglibatan dalam program latihan khidmat negara dapat membentuk sifat daya tahandaya saing dan daya juang yang tinggi untuk mempertahankan negarasumber jabatan latihan khidmat negara115bpeningkatanab6tamadun yunanidan romsinopsisdalam bab terdahulu kita telah membincangkan kemunculan danperkembangan beberapa tamadun awal peningkatan pesat telah berlakudalam pelbagai bidang dalam tamadun yunani dan tamadun romkeduadua tamadun ini mencapai pencapaian yang sangat baik dancemerlang peningkatan ini berlaku dalam aspek pemerintahan danpentadbiran dalam tamadun yunani dan peningkatan bidang seni binadalam tamadun romapakah yang akan anda pelajari1 mengenal lokasi tamadun yunani dan tamadun rom yangmenunjukkan peningkatan yang tinggi dalam pelbagai bidang2 memahami peningkatan tamadun yunani dalam aspek pemerintahandan pentadbiran3 memahami peningkatan tamadun rom dalam aspek seni binacolosseum rom italiapakah elemen kewarganegaraan dan nilaisivik yang anda dapati1 menjelaskan kepentingan menghargai asasasas amalan demokrasi2 menerangkan kepentingan seni bina sebagai simbol kemajuan3 menghuraikan kepentingan kerjasama masyarakat dalam pembinaansesebuah tamadun111166kemahiran pemikiran sejarah yang anda dapati1 memahami kronologi tentang kewujudan tamadun yunani dan tamadun rom2 meneroka bukti kecemerlangan tamadun yunani dan tamadun rom3 membuat imaginasi tentang kreativiti dalam masyarakat yunani dan rom4 membuat tafsiran tentang sumbangan tamadun yunani dan tamadun romterhadap tamadun sejagat5 membuat rasionalisasi terhadap peningkatan tamadun yunani dan tamadun romberasaskan bukti sejarah111177</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1343,20 +1511,24 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab  Mengenali Sejarah </t>
+          <t xml:space="preserve">Bab  Peningkatan Tamadun Yunani dan Rom </t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arif dan Peka Sejarah </t>
+          <t xml:space="preserve"> Tamadun Yunani </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>61 tamadun yunanipengenalantamadun yunani yang berkembang antara tahun 1000 sm hingga 800 sm merupakanpencetus kepada perkembangan tamadun eropah zaman ini dilihat oleh masyarakat eropahmoden sebagai zaman yang memberikan inspirasi dan panduan kepada kehidupan manusiayang lebih baik menerusi pelbagai pencapaian dalam pemerintahan dan bidang pentadbiranmelalui pengenalan sistem demokrasi ekonomi sains dan teknologi kesusasteraan sertafalsafah dan pendidikanlokasi dan perkembangannyatamadun yunani berkembang di semenanjung greece dan pulaupulau yang bertaburandi laut aegean serta laut mediterranean cuaca yang sederhana telah membolehkankegiatan di luar rumah seperti perdebatan dan sukan giat dijalankan di yunani selain itukedudukannya yang berhampiran dengan laut menyebabkan orang yunani dikenali sebagaipelayar yang handaltamadun yunani terkenaldengan negarakota atau polislaut hitamyang merupakan gabungan tiga thraceukomponen iaitu bandar utama macedoniabandar kecil dan kawasankampung polis bukan sahajamenjadi ibu kota tetapi menjadipusat tumpuan masyarakatlautdi tengahtengah polis aegeanterdapat acropolis iaitu pusatkomuniti yang dilindungi oleh corinthathenskubu acropolis merupakan olympialokasi yang paling strategik dari greecespartasegi keselamatan pentadbirandan komunikasi yang dilengkapidengan rumah ibadat bangunankerajaan istana dan rumahgolongan bangsawan terdapat cretejuga kawasan lapang yanglaut mediterraneandikenali sebagai agora yangdigunakan sebagai tempat peta kedudukan negarakota dalam tamadun yunanipertemuan dan pasar awam sumber farah dan karls world history human experience new yorkglenceo 1999 hlm 151111188acropolis di athenssumber farah dan karls world history human experience new york glenceo 1999 hlm 116keadaan ini menyebabkan penduduk yang tinggal berhampiran dengan acropolislebih aktif terlibat dalam urusan negara jika dibandingkan dengan penduduk yang tinggaljauh dari acropolis di luar kawasan acropolis terdapat penduduk di kawasan kampungyang menjalankan aktiviti pertanian dan penternakanterdapat tiga polis yang terkenal dalam tamadun yunani iaitu athens sparta dancorinth athens merupakan negarakota yang paling ramai penduduk manakala spartamerupakan negarakota yang paling luasdua ciri utama polis ialah jumlah penduduk yang ramai dan keluasan wilayah pendudukathens dianggarkan seramai 40000 orang sparta 16000 orang dan corinth 10000 orangselain itu terdapat perbezaan keluasan polis seperti sparta yang mempunyai keluasan8400 kilometer persegi athens seluas 2650 kilometer persegi dan corinth seluas 880kilometer persegibagi penduduk yunani setiap polismerupakan tanah suci kurniaan dewaoleh itu setiap warganegara mempunyaihak dan tanggungjawab untuk menjagakepentingannya sikap ini mendorongjalinan hubungan yang sangat rapatdalam kalangan setiap warganegaradan membangkitkan rasa kekitaan untukmempertahankan negarakota iniagora di corinthcerna mindaapakah perbezaan pembinaan pusat pentadbirannyatakan kepentingan polis kerajaan pada masa kini dengan polis dalamkepada tamadun yunani tamadun yunani111199</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1364,20 +1536,24 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab  Zaman Air Batu </t>
+          <t xml:space="preserve">Bab  Peningkatan Tamadun Yunani dan Rom </t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dunia Kita </t>
+          <t xml:space="preserve"> Peningkatan Pemerintahan dan Pentadbiran Tamadun Yunani </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>peningkatan pemerintahan dan62pentadbiran tamadun yunanidalam tamadun yunani aspek pemerintahandemokrasi dan pentadbiran merupakan sumbanganterpenting dalam perkembangan sejarahdemokrasi ialah dan tamadun manusia hal ini demikianpemerintahan yang kerana aspek ini diwarisi oleh generasidipilih oleh rakyatselepas tamadun yunani dan kekal sehinggamelalui pengundiankini terdapat lima sistem pemerintahanyang diamalkan di kebanyakan polis iaitutirani monarki oligarki aristokrasi tirani dandemokrasi setiap sistem mempunyai ciritirani ialahtertentu dan berbeza antara satu sama lainpemerintahan yangdikuasai oleh golonganyang zalim dan perkembangan sistemmenindas rakyatdemokrasi di athensbagi masyarakat di athens perkembanganaristokrasisistem pemerintahan dan pentadbiranberlaku melalui perubahan yangaristokrasi ialahpemerintahan yang dilaksanakan bagi memantapkan aspekdikuasai oleh golongan tersebut tindakan ini telah memperlihatkanbangsawan kematangan politik penduduk athensyang kemudiannya memilih sistemoligarki demokrasi sebagai sistem pemerintahandan pentadbirannya amalan demokrasioligarki ialah di athens menjadi ikutan dan diamalkanpemerintahan yang oleh kebanyakan negara moden hingga kinidikuasai oleh sebahagian sistem demokrasi di athens melaluikecil golongan yangbeberapa tahap perkembangan sebelumberkuasasistem ini diasaskan oleh solon padatahun 594 sm athens telah melaluimonarkisistem pemerintahan bercorak monarkioligarki aristokrasi dan tiranimonarki ialah sistemsistem demokrasi yang diamalkanberaja yang berasaskandi athens merupakan demokrasi langsungketurunandemokrasi langsung bermaksud setiapraja pula dibantu olehkonsul yang terdiri warganegara athens terlibat secara langsungdaripada golongan bijak dalam perbincangan dan perdebatanpandai bagi menentukan sesuatu dasar danperaturan yang berkaitan dengan athens120termasuklah hal ehwalekonomi sosial dan politikpada zaman pemerintahanpericles 495429 smpenekanan diberikankepada kuasa rakyatbagi memantapkansistem demokrasi walaubagaimanapun demokrasimenjadi lemah dan terhapuspada zaman raja philipsolon periclesyang menguasai yunanisumber sivachandralingam sundara sumber sivachandralingampada tahun 338 sm raja dan ayadurai letchumanan sundara raja dan ayaduraidi malaysia sistem tamadun greek shah alam karisma letchumanan tamadun greek shahpub 2008 hlm 14 alam karisma pub 2008 hlm 12demokrasi dilaksanakanmelalui pilihan raya yangmemilih wakilwakilrakyat sistem pilihan rayadi malaysia bermula padatahun 1951 dan diamalkansehingga kiniamalan demokrasi di athenssumber gloria kfiero landmark in humanities new york mcgrawhill2006 hlm 80ciriciri demokrasi di athensdalam sistem pemerintahan dan pentadbiran di athens badan tertinggi ialah dewanperhimpunan di bawahnya pula terdapat majlis majistret dan juridewanperhimpunanmajlis majistret juri121keanggotaan dan fungsi badan pemerintahan danpentadbiran di athensdewan perhimpunan yang diwujudkan di athens merupakan badan pentadbiran yang palingtinggi di dalam dewan ini setiap warganegara athens boleh mengemukakan sebarangpandangan mereka berkaitan dasardasar pentadbiran yang dijalankan oleh pemerintahhal ini menimbulkan perasaan kebersamaan dalam kalangan warganegara athens sehinggamereka sanggup mengorbankan diri demi athensdewan perhimpunan mempunyai kuasa kawalan terhadap pentadbiran dan menetapkandasardasar yang akan dilaksanakan dewan perhimpunan juga mempunyai kuasa untukmemutus dan mengeluarkan deklarasi peperangan tanpa deklarasi ini athens tidak akanterlibat dalam manamana peperanganselain itu dewan perhimpunan berfungsi sebagai mahkamah orang awam keadaanini menyebabkan setiap warganegara yang mempunyai masalah boleh membuat aduankepada dewan perhimpunan terutamanya keskes besar yang tidak dapat diselesaikan olehbadan pentadbiran yang lain1 fungsi dewanperhimpunanberperanan melantikahli majlis sebagaisebahagian sistempentadbiran yang wujud2menggubal undangundang bagi memastikankeadilan dapatdilaksanakan denganseadiladilnya di athens3membuat deklarasipeperangan bagimempertahankankedaulatan athens122aktiviti simulasidewan perhimpunankeanggotaan dewan perhimpunan 1 pilih seorang murid untuk menjadi1 anggotanya terdiri daripada pengerusi bagi dewan perhimpunansemua warganegara lelaki 2 lakonkan situasi seperti perbahasanathens di dalam dewan perhimpunan2 setiap warganegara berpeluang 3 bahaskan tajuk berperang denganmemegang jawatan selama sparta dapat mempertahankanenam bulan hingga setahun kebebasan dan kedaulatan athens3 bersidang sekurangkurangnyatiga kali sebulan4 semua warganegara dibenarkanmenghadiri perhimpunan4perjanjian dengannegara lain bagimelicinkan hubunganantarabangsa keduadua belah pihak5membincangkanhal kewangan danpercukaian bagimengukuhkan ekonomiathens6menerima duta dari negaraasing bagi mengukuhkanhubungan antara keduadua pihak123majlismajlis merupakan jawatankuasa yang mengendalikan urusan dan perbincangan halhalpenting yang berkaitan pemerintahan dan pentadbiran badan ini kadangkala dikenalisebagai majlis 500keanggotaan1ahli dilantik oleh dewan perhimpunan2 ahli terdiri daripada 500 orang dengan keahlian selama dua tahun3 ahli sebanyak 500 orang ini kemudiannya akan dipecahkan kepada 10 jawatankuasaprytany yang setiap satu dianggotai oleh 50 orang4 pemilihan pengerusi dilakukan pada setiap kali persidangan diadakanfungsi majlismelaksanakan ahliahli majlis bertanggungjawab kuasa majlis tidakkeputusan dewan mengendalikan jabatanjabatan mengatasi kuasa dewanperhimpunan kerajaan perhimpunanmajistretmajistret merupakan badan yang melaksanakan segala dasar yang telah ditetapkanmajistret sama dengan perkhidmatan awam dalam sistem pentadbiran hari inikeanggotaan1warganegara athens2 dianggotai 6000 orang ahli3 sebanyak 200 hingga 500 orang merupakan hakim4 sebanyak 10 orang jeneral tentera menganggotaibadan inifungsi majistretmerupakan melaksanakan dasardasar mengurus halehwalkakitangan yang telah diputuskan pendidikan percukaiankerajaan oleh majlis dan sebagainya124jurijuri merupakan badan yang bertanggungjawab dalam hal yang berkaitan dengan keadilankeanggotaan1dianggotai oleh 101 hingga 1001 orang berdasarkankeseriusan kes yang sedang dibicarakan2 perbicaraan diketuai oleh pengerusifungsi jurijuri menjadi pesalah akan kuasa pengadilanpemutus kepada merayu terus kepada terletak dalam tangansesuatu kes warganegara warganegaratahukah andapada zaman athens pengadilan terletak di tanganbandingkan sistem demokrasiwarganegara pesalah akan merayu secara terusdi athens dengan sistemkepada warganegara dan keskes kecil akandemokrasi di malaysiadiselesaikan di mahkamah tempatan kes yang lebihbesar akan diselesaikan di mahkamah athenslaut hitamthracepemerintahan dan pentadbiran spartamacedoniadi sparta sistem pemerintahan dan pentadbiranubersifat monarki terhad terdapat dua orang rajayang memerintah sparta bersamasama bagilautmengelakkan seorang daripada raja bertindak aegeankejam keduadua raja datang daripada keluargaeurypontids dan agiadsathensurusan pentadbiran raja dibantu oleholympiasebuah dewan perhimpunan dan majlisspartadewan perhimpunan mempunyai 10000orang ahli dan lima orang pegawai dilantiksebagai ephors yang berfungsi memastikanraja tidak memerintah secara mutlak majliscretepula mempunyai 28 orang dewasa dan berusiamelebihi 60 tahun keahlian majlis seumur peta kedudukan sparltaaut mediterraneanhidup sumber farah dan karls world history humanexperience new york glenceo 1999 hlm 151125sebagaimana di athens kaum wanitadi sparta juga tidak terlibat dalam urusanpentadbiran dan pemerintahan kehidupanmasyarakat di sparta berbeza daripadakebanyakan polis di yunani di spartapenekanan diberikan kepada disiplinketenteraan kanakkanak seawal usia tujuhtahun dan kaum wanita akan dilatih menjadianggota tentera kaum wanita turut menjalanilatihan fizikal dan diajar berlari bertinjumenari dan menyanyi di hadapan khalayakramai malahan kaum wanita di sparta tidakterkecuali daripada tugas mempertahankannegara dalam hal ini sparta boleh tentera sparta sedang berperangdikategorikan sebagai kerajaan ketenteraanpenekanan terhadap aspek disiplindan taat setia kepada negarakota menjadiasas perkembangan sparta malahanaspek ini tertanam kukuh dalam kalanganwarganegara sparta mereka sanggupberkorban demi mempertahankankedaulatannya hal ini dibuktikan melaluisiri peperangan antara sparta denganpersia antara tahun 490 sm hingga449 sm pada tahun 480 sm sparta berjayamengalahkan persia dalam pertempuran disalamispenekanan kepada disiplin dan taat setiaseperti ini boleh menjadi contoh kepadadisiplin ketenteraan amat penting di spartapembinaan negara malaysia yang lebihcemerlangsumbangan tamadun yunani terutamanya dalam sistem demokrasi akan terus kekaldalam sejarah dan tamadun manusia sebagai pengasas demokrasi kehidupandi athens menekankan aspek kebebasan hak warganegara dan pemikiran terbukaselain itu negarakota sparta turut memberikan penekanan kepada disiplinketenteraan dan semangat patriotik setiap warganegara sama ada lelaki atau wanitadalam mempertahankan kedaulatan negaracerna mindaapakah bukti masyarakat sparta mementingkan disiplin ketenteraan kepada rakyatnya126</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1385,20 +1561,24 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab  Zaman Air Batu </t>
+          <t xml:space="preserve">Bab  Peningkatan Tamadun Yunani dan Rom </t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Zaman Air Batu </t>
+          <t xml:space="preserve"> Tamadun Rom </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>63 tamadun rompengenalantamadun rom merupakan kesinambungan daripada tamadun yunani kerana keduaduazaman ini sering kali dirujuk sebagai zaman klasik dalam sejarah eropah beberapa ciritamadun yunani seperti kebebasan pemikiran dan sikap ingin tahu menjadi asas yangpenting dalam pembinaan tamadun rom dan tamadun eropah tamadun rom munculsebagai sebuah kuasa paling kuat di mediterranean apabila berjaya mengalahkan pesaingpesaing yang wujud termasuklah etruscan macedonia seleucid dan mesir keadaan inimenyebabkan rom berjaya membentuk sebuah empayar yang luas berpusat di rom italilokasi dan perkembangannyatamadun rom terletak di lembah latium berhampiran dengan sungai tiber lembahlatium merupakan kawasan subur yang membolehkan aktiviti pertanian giat dijalankansungai tiber pula menjadi sumber air utama kepada penduduk dan menjadi laluan utamauntuk berlayar ke laut tamadun rom boleh dibahagikan kepada tiga zaman iaitu zamanberaja 753 509 sm zaman republik 509 27 sm dan zaman empayar 27 sm 476 m tamadun rom mencapai tahap kegemilangannya pada era pax romana 27 sm 180 m pax romana begitu penting kerana selama 200 tahun keamanan wujud dalamtamadun rom yang berkembang meliputi tiga buah benua iaitu asia afrika dan eropahmasyarakat dalamtamadun rom terbahagiukepada tiga kelompokiaitu kalangan patricianatau atasan plebian britainyang terdiri daripadapetani artisan peniagadtkeaamnm aajduguaonnlo niangliaa nm pehenalcbmaapbgaaaii lautkaspiala u t h i t amd m sepanyol corsica et r ru o ri s a m tiberllaattiuinmi b yz a n ti u mbidang seperti politikpompeisardinaekonomi sains dansicily athens babylonpteeknndoidloigkian f alsafah dan lautsyramcuseeditercrerteane cyprus a npetunjuk mesirarabempayar rom lautmerahpeta empayar romsumber farah dan karls world history human experiencenew york glenceo 1999 hlm 165127</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1406,20 +1586,24 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab  Zaman Air Batu </t>
+          <t xml:space="preserve">Bab  Peningkatan Tamadun Yunani dan Rom </t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Garis Masa Zaman Air Batu </t>
+          <t xml:space="preserve"> Peningkatan Seni Bina dalam Tamadun Rom </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>peningkatan seni bina dalam64tamadun rompepatah ada menyebutrom tidak dibina dalam seharirom mengalami perkembangan yang panjang sebelum mencapai kegemilangannyadalam berbagaibagai bidang tamadun ini telah membuktikan keupayaan manusia untukmelahirkan ciptaan yang mengagumkan sumbangan yang ditinggalkan oleh tamadun inibukan sahaja diwarisi oleh tamadun eropah tetapi oleh tamadun dunia yang lainjika tamadun yunani terkenal dengan sistem pemerintahan dan pentadbiran bercorakdemokrasi tamadun rom pula terkenal dengan kepakaran dalam bidang seni binaorang rom bukan sahaja membina bangunan bersaiz besar dan mempunyai nilaiestetika tetapi setiap binaan mempunyai kegunaan yang khusus perkembangan bidangseni bina melibatkan bangunan jalan raya saliran air dan tempat mandi awambinaanbinaan ini juga mempunyai ketahanan tinggi yang masih kekal hingga kini danmenjadi warisan sejarah yang tidak ternilai harganya kemajuan seni bina rom didorongoleh pelbagai faktor seperti kepakaran pendidikan dasar pemerintahan kewanganteknologi sumber alam dan buruh kemunculan arkitek seperti marco vitruvius yangmengarang buku terkenal tentang seni bina iaitu on architecture pada tahun 46 smmembolehkan bidang seni bina rom berkembang pesat sistem pendidikan yang praktikaldalam tamadun rom turut memainkan peranan melahirkan golongan warganegara yangmahir dalam pelbagai bidang termasuklah seni binaperkembangan pesat seni bina di rom turut disokong oleh pihak pentadbir seperti marcuskulit 46 100 145 168visanius agrippa 6312 sm kerajaan juga memberikan bantuan kewanganagar projek yang dirancang dapat berjalan dengan lancar gabungan antarateknologi zaman yunani dengan teknologi rom seperti penggunaansimen dan penekanan kepada aspek ketahanan dannilai estetika mempengaruhi bidang seni bina romgolongan buruh yang sebahagian besarnya terdiriviii 48 102 146 180daripada kalangan hamba juga m emberikansumbangan dalam perkembangan bidang senibina di rom65 108 14713marcus visaniusagrippabuku seni bina tamadunmarco vitruvius on architecture rom13 ipim 77 128 16112830 95 130 16530 you tube 98 142 167ciriciri pembinaan bangunan dalam tamadun romseni bina rom merupakan gabungan antara teknik seni bina yang diwarisi sejak zamanyunani dengan inovasi yang dilakukan oleh orang rom dengan menggunakan bahan binaanbaharu serta reka bentuk yang kreatif gabungan ini membolehkan bangunan dan binaandalam tamadun rom mempunyai ciriciri yang tersendiri yang kekal sehingga kini seni binarom yang terkenal dan masih kekal hingga hari ini ialah colosseum pantheon amfiteaterakueduk jalan raya tembok pertahanan dan tempat mandi awambumbung denganmempunyai strukturkubahsaiz yangmelengkungberbentuk bulatbesarpenggunaansilingpenggunaanbatu dilepa hiasan marmartiang gayadengan simen dalamanyunanikeratan rentas pantheon129colosseumaktiviticolosseum merupakan binaan yangmelambangkan keagungan tamadunrom yang dijadikan tempat mengadakanpersembahan dan pertandingan bersaizbesar seperti acara gladiator strukturbinaan colosseum mempunyai ketinggianmencapai 50 meter panjang lebar 156meter dan luas keseluruhan bangunankirakira 25 hektar dengan kawasan arenaseluas 85 meter x 54 meter yang mampumemuatkan 50000 orang pada satusatu colosseummasa colosseum mempunyai sistemlayari laman web wwwhistorycompengurusan penonton yang setandingtopicsancienthistorycolosseum jawabdengan stadium pada zaman modensoalan yang berikut secara berkumpulanterdapat 80 pintu masuk serta tempat duduk1 jelaskan latar belakang pembinaanpenonton yang dibina bertingkattingkatcolosseumbinaan ini dimulakan oleh raja vespian2 pada pendapat anda mengapakahpada tahun 72 m dan diselesaikan olehcolosseum mampu kekal hingga kinianaknya titus pada tahun 80 mkulit 46 100 145 168pantheonbinaan berkubah yang terbesar di dunia yang digunakan sebagai tempat penyembahan dewadewi masyarakat rom pada awalnya pantheon dibina oleh marcus visanius agrippa padatahun 27 sm namun musnah dalam kebakaran pada tahun 80 m pantheon dibangunkansemula oleh maharaja hadrian pada tahun 125 mpantheon dviiibiina dengan me4n8gambil gaya bi1n0a2an 146 180zaman yunani terutam a di bahagian ha dapan yangmempunyai tiang yang kukuh atap pantheon pulamerupakan kubah bersaiz besar dengan diameter43 meter dinding pantheon pula dibina daripadabatubata yang dilepa dengan simen puncakpantheon m13empunyai ruang 6t5erbuka yang dike10n8ali 147sebagai oculus berukuran 13 meter lebar yangmembolehkan cahaya masuk menyinari ruanganpantheondalam binaan inisumber gloria kfiero landmark in humanitiesnew york mcgrawhill 2006 hlm 76tahukah anda13 ipim 77 128 161cernamindasimen merupakan bahan asas binaandalam seni bina rom yang diperbuatnyatakan kemahiran yangdaripada campuran air kapur dan abudiperlukan untuk menghasilkangunung berapi yang dikenali sebagaiseni bina yang mengagumkanpozzolana30 95 g13l0adiator 16513030 you tube 98 142 167amfiteaterbinaanini merupakan colosseum mini atausebuah gelanggang terbuka yang digunakanuntuk membuat persembahan seni pertunjukandan gladiator amfiteater ini berbentuk lingkaranterdapat kirakira 230 amfiteater yang dibinadi seluruh empayar rom dengan mempunyaipelbagai saiz dan kapasiti penonton yangberbeza amfiteater yang terkenal termasuklahamfiteater di el djem tunisia yang bolehmemuatkan 16000 orang dan di arlesperancis yang boleh memuatkan 20000 orangkewujudan binaan amfiteater di seluruh wilayahrom menjadi bukti nyata tentang pengaruhdan cara hidup masyarakat zaman ini yang amfiteatermenggemari aktiviti di luar rumah sumber gloria kfiero landmark in humanitiesnew york mcgrawhill 2006 hlm 73akueduksistem perancangan dan pengawalan air yang sistematik yang melambangkan teknologidan kejuruteraan rom akueduk berfungsi membekalkan air ke rumah kediamandi sekitar bandar dalam empayar rom air dari akueduk juga disalurkan ke tempatmandi awam dan binaanbinaan utama di rom termasuklah ke colosseum sewaktuacara gladiator diadakan akueduk pertama dibina di aqua appia pada tahun 312 smdengan panjangnya 16 kilometer marcus agrippa merupakan antara jurutera romyang bertanggungjawab membina akueduk seperti aqua virgo yang dibina pada tahun19 sm akueduk dibina berdasarkan kajian mendalam terhadap aspek mutu sumberair yang ada aliran air dan lokasinya akueduk yang termasyhur ialah pont du garddi perancis yang mempunyai tiga tingkatsaluranlubang periksa tertutuplubang masuk bakpengendapan bakpenampungansumberkotaairsistem penapisan airlakaran fungsi akuedukakueduk sumber sivachandralingam sundara raja dan ayaduraisumber gloria kfiero landmark in humanities letchumanan tamadun rom shah alam karisma pubnew york mcgrawhill 2006 hlm 74 2008 hlm 57131jalan raya romjalan raya mula dibina pada tahun 500 sm dengantujuan untuk menghubungkan bandarbandar utama bagimemudahkan pergerakan tentera serta sebagai sistempengangkutan oleh sebab matlamat asas adalah untukkegunaan tentera jalan raya tersebut dibina secaraberlapislapis dengan menggunakan batu besar batu kecildan batu kerikil supaya tahan dan kuat menahan bebanserta pergerakan pasukan tentera luas jalan raya inibiasanya empat kaki 13 meter tebal dan 20 kaki 67meter lebar terdapat batu tanda bagi menunjukkanjarak satu kawasan dengan kawasan lain di tepi jalan rayajalan raya romsumber gloria kfiero landmark in dibina longkang bagi mengalirkan air agar tidak bertakunghumanities new york mcgrawhill 2006di atas jalan rayahlm 78cuba buatmembina model jalan rayajalan raya di rom dibina berlapislapis dan dapat bertahan selama ratusan tahun matlamatprojek ini adalah untuk membina model jalan raya di rom dan menunjukkan kepada muridlapisan tersebut1keperluan1penutup atas kotak kasut2 gam3 pasir4 batu akuarium5 tanah liat6 batu licinratakan gam pada seluruh penutup kotakkasut dan letakkan pasir di atasnyabiarkan selama kirakira 30 minit2 3 4letakkan gam pada ¾ pasir danletakkan batu akuarium kelikiryang boleh dibeli di kedaiakuarium kemudian letakkan gunakan tanah liat bagigam di atas batu akuarium mewakili konkrit gaul ketika masih lembuttersebut dan tinggalkan dalam supaya sebati dan kemudian letakkan batu licin dan susuntempoh beberapa ketika supaya tuangkan di atas batu batu tersebut rapatrapatbatu akuarium betulbetul kering akuarium tersebut113322tembok pertahanan tempat mandi awampembinaan tembok pertahanan bertujuan orang rom percaya mandi penting untukuntuk melindungi tamadun rom daripada kebersihan dan kesihatan serta melambangkanserangan musuh tembok ini juga menjadi kehidupan bertamadun bagi memenuhipemisah antara kawasan yang terletak tuntutan tersebut orang rom membinadi bawah kekuasaan rom dengan kawasan tempat mandi awam yang boleh digunakanyang bukan wilayah rom seni membina oleh setiap orang mereka yang hendaktembok pertahanan telah bermula pada menggunakannya akan dikenakan bayarantahun 100 m dengan menggunakan batu tertentu tempat mandi awam ini dilengkapiyang disusun memanjang serta mencapai dengan pelbagai kemudahan termasukketinggian sehingga lima meter selain itu tandas ruang mandi ruang untuk mengurutterdapat beberapa kubu kecil yang dikenali perpustakaan bilik berehat dan bersenamsebagai milecastel dalam jarak sebatu ruang mandi pula mempunyai bahagian16 kilometer setiap satu kubu kecil yang berasingan iaitu mandi air panas sejukini menempatkan tentera yang mengawal suam serta berwap antara tempat manditembok tersebut tembok yang terkenal awam yang terkenal termasuklah caracallaialah tembok hadrian di britain yang di rom yang didirikan pada abad ketigadibina pada tahun 122 m oleh maharaja masihi oleh maharaja caracalla tempathadrian panjang tembok ini ialah 117 mandi ini boleh memuatkan sehingga 1500kilometer dan setinggi lima meter orang pada satusatu masatembok hadrian tempat mandi awamsumber gloria kfiero landmark in humanities sumber gloria kfiero landmark in humanitiesnew york mcgrawhill 2006 hlm 78 new york mcgrawhill 2006 hlm 78peningkatan dalam seni bina menunjukkankemampuan dan kebolehan orang rom menghasilkan binaanyang menonjolkan kebijaksanaan mereka binaanbinaan ini jugamenunjukkan kebesaran dan keagungan tamadun rom kecemerlangantamadun rom bukan sahaja ditunjukkan dalam bidang seni bina tetapi dalambidang lain seperti pentadbiran dan pemerintahan ekonomi ketenteraan pertahananperundangan pendidikan sains dan teknologi sehingga hari ini sebahagiandaripada kecemerlangan tamadun rom boleh terus dinikmati dan kekalmenjadi warisan dunia memahami dan mengetahui ketinggian tamadunboleh menjadi inspirasi kepada peningkatan penciptaan dankemajuan di negara kita113333</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1427,20 +1611,24 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab  Zaman Air Batu </t>
+          <t xml:space="preserve">Bab  Peningkatan Tamadun Yunani dan Rom </t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ciriciri Zaman Air Batu Akhir </t>
+          <t xml:space="preserve">Kesimpulan </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>kesimpulantamadun yunani pembentukan polis atau negarakotamerupakan ciri utama tamadun ini tamadun ini mempunyai lima corakpemerintahan iaitu monarki oligarkiaristokrasi tirani dan demokrasi sistem pemerintahan di athensberdasarkan demokrasi melaluipenubuhan dewan perhimpunan yangmeliputi majlis majistret dan juri sparta pula menekankan disiplinketenteraan dan taat setia warganegaradewan perhimpunan di athenstamadun rom perkembangan seni binayang hebat berlaku dalamtamadun ini faktor keunggulan senibina yang kekal lamatahan dan kuat binaan seni bina yangmengagumkan antaranyatermasuklah colosseumpantheon amfiteaterakueduk jalan rayatembok pertahanan dantempat mandi awamakueduk di pont du gard perancisbab ini telah menjelaskan tentang peningkatan tamadun yunani dan tamadunrom keduadua tamadun ini telah menunjukkan tahap peningkatan yang begitutinggi mutunya sama ada dari sudut gagasan mahupun binaan fizikal ciptaan inisebahagiannya bukan sahaja dapat dilihat tetapi juga menjadi inspirasi kepadaperkembangan seni bina hari ini bab seterusnya akan mengkaji tentang peningkatantamadun india dan tamadun china113344</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1448,20 +1636,24 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab  Zaman Air Batu </t>
+          <t xml:space="preserve">Bab  Peningkatan Tamadun Yunani dan Rom </t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Perubahan Zaman Air Batu Akhir </t>
+          <t xml:space="preserve">Pemahaman dan Pemikiran Kritis </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>pemahaman dan pemikiran kritis1 monarki oligarki aristokrasi tirani demokrasimengapakah dalam tamadun yunani berlaku perubahan pentadbiran seperti dalamrajah di atasa memenuhi tuntutan rakyatb memansuhkan sistem tradisionalc mengukuhkan sistem pemerintahand memperkenalkan kepelbagaian bentuk pentadbiran2 antara berikut yang manakah merupakan ciriciri dewan perhimpunan di athensi dianggotai oleh kaum lelakiii terdiri daripada 10 orang jeneral tenteraiii terdapat juri sebagai pemutus sesuatu kesiv bersidang sekurangkurangnya tiga kali sebulana i dan iib ii dan iiic iii dan ivd i dan iv3 apakah bukti masyarakat sparta mementingkan latihan ketenteraana semua rakyat mesti berjiwa patriotikb pemerintahannya diketuai dua orang rajac kaum wanita tidak terlibat dalam ketenteraand anak lelaki dilatih dari awal untuk menjadi tentera yang baik4 masyarakat rom berjaya mengembangkan seni bina dalam pelbagairupa disebabkan oleh pelbagai faktorberdasarkan pernyataan di atas apakah iktibar yang diperoleh daripada kejayaanmasyarakat romi kebolehan membina bangunan yang tahan dan kuatii kepakaran membangunkan seni binaiii kekuatan pasukan tenteraiv kemajuan dalam kesusasteraana i dan iib ii dan iiic iii dan ivd i dan iv113355pemahaman dan pemikiran kritis5 dalam tamadun rom akueduk berperanan untuk a pertandingan pahlawanb persembahanc pertahanand pengairan6 berdasarkan pengetahuan anda gambarkan keadaan sebuah polis dalam tamadunyunani7 a terangkan lima tahap perubahan sistem pemerintahan yang wujud di athenssehingga munculnya sistem demokrasib berdasarkan pengetahuan sejarah anda mengapakah masyarakat athens memilihuntuk melaksanakan sistem demokrasi berbanding dengan sistem lain8 jika anda diberikan pilihan untuk tinggal di athens atau sparta yang mana satukahpilihan anda berikan alasan anda9 rom tidak dibina dalam sehari hubung kaitkan pepatah ini dengan kejayaan yangdicapai oleh sekolah andapantheon rom itali bangunan sultan abdul samad kuala lumpur10 a merujuk kepada keduadua gambar bangunan di atas jelaskan ciri yang terdapatpada binaan tersebutb pada pendapat anda mengapakah ciri keduadua bangunan tersebut berbeza136</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1469,20 +1661,24 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab  Zaman Air Batu </t>
+          <t xml:space="preserve">Bab  Peningkatan Tamadun Yunani dan Rom </t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kesan Perubahan Zaman Air Batu di Asia Tenggara </t>
+          <t xml:space="preserve">Arif dan Peka Sejarah </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>arif dan peka sejarahnilai patriotisme dan iktibarmempelajari kejayaan dan kemajuan tamadun yunani dan tamadun rommendorong kita supaya berusaha dengan bersungguhsungguh bagi mencapaikemajuan dalam pelbagai bidang demi kesejahteraan masyarakat dan negaranilainilai demokrasi yang diasaskan sejak zaman tamadun yunani mendidikkita agar menjunjung tinggi dan sanggup mempertahankan nilai tersebutyang menjadi asas penting dalam pembentukan negara kitamempelajari tamadun yunani dan tamadun rom boleh melahirkan semangatpatriotisme untuk membangunkan negara malaysiadiri dan keluarga negarakita perlu memahami bahawa kemajuan dan kesejahteraan negarakejayaan diri dan keluarga hanya hanya akan dapat dicapai sekiranyaakan dapat dicapai dengan usaha dan setiap warganegara menjunjungkerajinan yang bersungguhsungguh tinggi adat resam demokrasi danmenghormati undangundang negaraparlimen merupakan tempat hidup harmoni pelbagai kaum dalam suasana yang aman danpersidangan ahli dewan rakyat dan sejahtera dapat dinikmati dalam sebuah negara demokrasiahli dewan negara bagi menyusunsumber jabatan penerangan malaysiaatur strategi membangunkan negarasumber jabatan penerangan malaysia137bab7 peningkatan tamadunindia dan chinasinopsisselain tamadun yunani dan tamadun rom dua lagi tamadun utamaialah tamadun india dan tamadun china keduadua tamadun ini jugatelah mencapai tahap kegemilangan yang tinggi dalam pelbagai bidangdalam tamadun india peningkatan tamadunnya ketara dalam aspekpenyebaran kuasa dan agama kemunculan dinasti nanda maurya dangupta dalam tamadun india membuktikan bahawa dasar pemerintahanyang baik bukan sahaja akan membentuk kerajaan yang luas malahanmenjadi asas kepada keagungan sesebuah tamadun dalam tamadunchina peningkatan dalam bidang pendidikan telah menjadi warisankekal tamadun tersebut dinasti qin dan dinasti han menjadi penggerakutama kegemilangan tamadun china yang dipengaruhi oleh dasarpentadbiran yang berkesan pencapaian tinggi oleh keduadua tamadunini terus menjadi warisan sehingga kiniapakah yang akan anda pelajari1 mengenal lokasi peningkatan tamadun india dan tamadun china2 memahami peningkatan tamadun india dalam aspek perluasan kuasa3 memahami peningkatan tamadun china dalam aspek pendidikanapakah elemen kewarganegaraan dan nilaisivik yang anda dapati1 merumuskan kepentingan pendidikan sebagai agen perubahan kepadakemajuan negara2 menghuraikan kepentingan kerjasama dalam pembinaan sesuatutamaduntiang asoka dalam3 menjelaskan kepentingan pemerintah yang baik sebagai satu caratamadun indiapeningkatan tamadun138sistem peperiksaan awam dalam tamadun chinasumber farah dan karls world history human experience new york glenceo 1999 hlm 230kemahiran pemikiran sejarah yang anda dapati1 memahami kronologi dan peristiwa sejarah yang berlaku dalam tamadun indiadan tamadun china2 meneroka bukti tentang keunggulan tamadun india dan tamadun chinaberdasarkan peningkatan tamadun mereka3 membuat interpretasi tentang aspek perluasan kuasa dalam tamadun india danaspek pendidikan dalam tamadun china4 membuat imaginasi tentang kehidupan masyarakat dalam tamadun india dantamadun china5 membuat rasionalisasi terhadap tindakan pemerintah india dan pemerintah chinadalam usaha meningkatkan kemajuan tamadun mereka139</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1490,20 +1686,24 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab  Zaman Air Batu </t>
+          <t xml:space="preserve">Bab  Peningkatan Tamadun India dan China </t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kesimpulan </t>
+          <t xml:space="preserve"> Tamadun India </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>71 tamadun indiapengenalantamadun india merupakan tamadun yang setanding dengan tamadun mesopotamiatamadun mesir dan tamadun china tamadun india telah mengalami peningkatan yangsangat mengagumkan dalam pelbagai bidang seperti pemerintahan perluasan kuasaekonomi kebudayaan teknologi dan keagamaan pencapaian inilah yang meletakkantamadun india antara tamadun terunggul di duniaukambojlokasi dan perkembangannyagandharselepas tamadun indus berakhir berlaku perubahankurubanjaranhimalayadalam perkembangan tamadun india perkembangan sindus p anchalsursen aini berlaku apabila pusat tamadun beralih ke lembah kosal vrijjiganges peralihan ini menandakan bermulanya tahap matsya vatsa sganges mallakashibaharu dalam tamadun india yang sebelumnya berpusat avanti chedi angamagadhadi lembah indus perubahan ini merupakan tahap keduatelukdalam tamadun india dan menjadi asas penting kepada teluk benggalacambayperkembangan dalam tamadun tersebutasmakperkembangan yang berlaku di sekitar lembahganges membawa kepada kemunculan kerajaankerajaankecil yang dikenali sebagai janapada kerajaankerajaanini kemudian membentuk kewujudan kerajaan yang lebihbesar yang dikenali sebagai mahajanapadamagadha yang terletak di timur laut india muncul peta menunjukkan kerajaankerajaanmahajanapadasebagai kuasa penting yang berjaya menguasai kerajaanlain di india antara tahun 540 490 sm kejayaan ini sindus udikaitkan dengan kedudukan magadha yang strategiksgangesdi lembah ganges yang membolehkannya mengawallaluan perdagangan utama di sungai ganges magadhakemunculan magadha memainkan peranan pentingtelukdalam tahap perubahan sistem politik di india melalui teluk benggalacambayperluasan kuasa dan menjadi asas kepada kewujudankerajaankerajaan lain seperti dinasti nanda mauryadan guptaketigatiga dinasti ini berjaya menonjolkan kehebatanmemperluas kuasa sehingga membentuk kerajaan danempayar yang luaspeta magadhasumber farah dan karls world history humanexperience new york glenceo 1999 hlm 212pada pandangan anda mengapakah lembah ganges memainkan peranan penting dalamperkembangan tamadun india140perluasan kuasa dalam tamadun indiakemunculan pelbagai kerajaan dalam tamadun india menyebabkan wujudnya persainganantara kerajaan untuk memperluas kuasa masingmasing perluasan kuasa bermaksud usahayang dilakukan oleh sesebuah kerajaan atau raja bagi menguasai dan memperluas pengaruhdi sesebuah kawasan atau usaha untuk mengatasi pihak lain pada permulaannya perluasankuasa dilakukan secara fizikal namun begitu cara perluasan kuasa ini telah berubah kepadaperluasan secara keagamaan demi memastikan kesejahteraan dan perdamaian wujud dalamtamadun indiafaktor perluasan kuasaterdapat pelbagai faktor perluasan kuasa yang saling berkait faktor tersebut termasuklahkekuatan ketenteraan dasar pemerintahan sumber manusia diplomasi keagamaan dankewangankekuatan ketenteraansesebuah kerajaanperlu mempunyai dasar pemerintahanpasukan tentera yang pemerintahan yangkuat pasukan tentera diketuai oleh rajajuga digunakan untuk menentukan dasarmempertahankan perluasan kuasa sesuatunegara daripada kerajaanserangan musuhkewanganfaktorsetiap perluasan sumber manusiaperluasankuasa perlu mendapat sumber manusia yangkuasapembiayaan secukupnya cukup menjamindaripada perbendaharaan sesebuah kerajaankerajaan tanpa kewangan ditadbir dengan baikyang kukuh usaha ini dan berkesanmenghadapi kesukarandiplomasi keagamaanpemerintah yang bijak tidakhanya bergantung pada aspekketenteraan sematamataaspek keagamaan dankemanusiaan turut berperanandalam memperluas kuasa danpengaruh kerajaan141bentuk perluasan kuasaterdapat dua bentuk perluasan kuasa dalam tamadun india iaitu perluasan fizikal danperluasan keagamaan1 fizikalperluasan fizikal bermakna perluasan kuasa yang dilakukan oleh sesebuah kerajaan denganmenguasai wilayahwilayah lain sebuah kerajaan mampu membentuk sebuah empayardengan menguasai kerajaankerajaan lain selain itu perluasan kuasa dapat dilaksanakanapabila sesebuah kerajaan mengakui taklukan dan akan mematuhi peraturan yang ditetapkanoleh kerajaan yang menang dan lebih berkuasadalam aspek ini kekuatan ketenteraan dan disiplin pasukan tentera merupakan syaratyang paling penting selain itu dasar yang diambil oleh seseorang raja menjadi faktorperluasan kuasa ini dilaksanakandalam tamadun india perluasan fizikal dapat disaksikan dalam perkembangan dinastinanda 345 sm 321 sm dinasti maurya 32k2ul istm 185 sm 4d6an dinasti gupt1a0 0320 m 145 168 550 m ketigatiga dinasti ini merupakan pemerintahan yang telah mencapai tahap tinggidalam perluasan kuasa ini gabungan antara kekuatan ketenteraan dan dasar pemerintahmembolehkan ketigatiga dinasti membentuk sebuah empayar yang luas di indiaketika zaman dinastiu nanda perluasan kuasaviii 48 102 146 180dilakukan den gan kekuatanmathura pataliputra ketenteraan pasukan tenterazaman ini mempunyai 20000pundravardhanavidisha kavalri 200000 infantri dan3000 tentera bergajahteluk teluk e6m5payar nanda m1e08nganjur 147benggal1a3cambay dari wilayah be ngal di sebelahtimur india hingga ke punjabdi sebelah barat serta wilayahdeccan pataliputra patnahari ini merupakan pusatpetunjukpeme7r7intahan empayar1 2i8ni 161dinasti 1n3 iapnimdapeta dinasti nandasumber farah dan karls world history human experience new york glenceo1999 hlm 212glosari 30 95 130 165dinasti pemerintahan raja yang berasal daripada satu keturunanempayar wilayah yang luas yang berada di bawah satu pemerintahaninfantri tentera berjalan kaki tamadunindiakavalri tentera berkuda30 you tube 98 142 167142kekuatan ketenteraan juga menjadiasas perluasan kuasa zaman dinastimaurya terutamanya ketika zamanpemerintahan chandragupta maurya danasoka keduadua pemerintah ini berjayamembentuk sebuah empayar yang luasyang meliputi wilayah bengal di sebelahtimur hingga hindu kush di sebelah baratpusat pemerintahan juga terletakdi pataliputrausaha perluasan kuasa pada zamanchandragupta maurya sangat bergantungpada kekuatan ketenteraannya denganmemiliki 9000 tentera bergajah 30000kavalri dan 600000 infantrichandragupta mauryasetelah memegang kuasa asokaberusaha menguasai kawasankawasanyang belum lagi ditakluki di bawahkekuasaan maurya antara kawasanyang masih belum dikuasai termasuklahkalingakalinga berjaya dikuasai namunteluktelukbenggala jumlah nyawa yang terkorban begitucambaybesar seramai 150000 orang telahkehilangan harta benda dan 100000orang telah terbunuh keadaan ini telahmemberikan kesedaran kepada asokapemerintahannya berubah menjadi lebihtoleran dan bertanggungjawabpetunjukdinasti mauryapeta dinasti mauryasumber farah dan karls world history humanexperience new york glenceo 1999 hlm 212mengapakah kekuatan tentera menjadiciri penting untuk meluaskan kuasa143uperluasan kuasa pada zaman gupta diterajuioleh chandragupta i yang memerintah antaratdaihjaudni k3a2n0 mus at p3e3m5e mrint hpaant adliinpausttir ain iturut banjaranhimalayasindusp achandragupta i telah menjadikan ketenteraan vaisalisgangessebagai kaedah untuk memperluas kuasa pataliputrahingga mampu menguasai kawasan yang luasmenganjur dari punjab hingga bengaltelukteluk benggalacambaycerna mindamerujuk kepada peta zaman dinasti nandamaurya dan gupta mengapakah pataliputra petunjukdipilih sebagai pusat pemerintahan ketigatiga dinasti guptadinasti inipeta dinasti guptasumber farah dan karls world history humanexperience new york glenceo 1999 hlm 2122 keagamaanperluasan kuasa dengan menggunakan kaedah keagamaan dan kemanusiaan berbezadaripada fizikal kerana kaedah ini tidak bergantung pada sempadan wilayah yang tetapsebaliknya merentas sempadan penekanan kepada aspek keagamaan membolehkannama dinasti maurya terutamanya zaman asoka begitu dikenali di serata dunia selepasperang kalinga asoka menghentikan sebarang usaha perluasan secara fizikal sebaliknyamenumpukan kepada pengembangan agama buddha bagi mengukuhkan pembinaannegara peraturan dan undangundang yang ditetapkan dalam pemerintahannya telah diukirupada tiang batu yang diletakkan di kawasan strategik tiang ini dikenali sebagai tiang asokadi bawah naunganasoka misi pengembanganu agama buddha telah giatbactriatarim basin dilakukan misi tersebut telahathensdihantar ke tibet nepalantiochalexandria antioch bactriaalexandria dan burma misi penyebaranpataliputra burma agama blauuddthaan ke sri lankadiketupaai soilfeihk mahendrasementara ke asia tenggaraoleh sona dan uttarasri lankalautan hindipeta penyebaran agama buddhasumber farah dan karls world history human experience new york glenceo1999 hlm 214144ketika zaman gupta pula penekanan diberikan tahukah andakepada agama hindu hingga agama ini mengalamiperluasan kuasa secaraperkembangan yang sangat pesat pemerintahfizikal dan keagamaan telahgupta menekankan halhal berkaitan kebudayaanmemasyhurkan lagi tamadunkesusasteraan seni bina perdagangan danindia sungguhpun demikianpemerintahan yang berasaskan kepada agama hinduterdapat pelbagai aspek lain yangraja samudragupta 335 m 376 m meminati puisiturut membolehkan tamadunpuisi berbentuk keagamaan hingga menyebabkan beliauindia menjadi antara tamadundikenali sebagai kaviraja raja penyair penekananterunggul di dunia ketika itukepada agama hindu dalam dinasti ini membolehkan antaranya termasuklahzaman gupta dikenali sebagai zaman keemasan dalam buku arthasastra ditulisagama hindu oleh kautilya yang berkaitansistem pemerintahandan ketenteraan zamanaktivitimauryalukisan gua di ajanta danberdasarkan gambarellora yang menunjukkandi sebelah hasilkan kepentingan kesenian dalamkulit 4p6oster yang men1g0a0ndungi t14a5madun 168tamadun indiaindiamaklumat yang berikut kepesatan perdagangan sama1 fungsi tiang asoka ada melalui laluan daratan2 tujuan tiang asoka mahupun laluan maritimdiletakkan di kawasan menyebabkan tamadun indiaberkembangtumpuan ramaiviii 48 102 146 1 80penggunaan wang syilingemas ke tika zaman guptamenunjukkan kemewahankerajaan tersebutaktiviti65 108 14713lakarkan peta minda yang menunjukkan cara pemerintahtamadun india mengukuhkan tamadun merekatamadun india berjaya menunjukkan peningkatanmelalui perluasan kuasa secara fizikal dan keagamaan yang13 ipim glosari 77 128 161mempengaruhi kesinambungan pemerintahan untuk jangkamasa yang lama kematian dan kemusnahan yang besarzaman keemasankesan daripada perluasan kuasa secara fizikal menyebabkanpencapaian ataupemerintah mengubah perluasan kuasa kepada penyebarankemajuan besarkeagamaan jelaslah bahawa keamanan amat penting dalamdan tertinggi dalam30 bidang tertentu y9a5ng me1n30jamin kesela1m65atan dan kesejahteraan negara oleh itudicapai ol eh sesebuah kita hendakla h menanamka n sikap menghargai keamananpemerintahan dan bekerjasama dalam pembinaan sesebuah tamadun14530 you tube 98 142 167</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1511,20 +1711,24 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab  Zaman Air Batu </t>
+          <t xml:space="preserve">Bab  Peningkatan Tamadun India dan China </t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pemahaman dan Pemikiran Kritis </t>
+          <t xml:space="preserve"> Tamadun China </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>72 tamadun chinapengenalansebelum ini kita telah pun mempelajari peningkatan yang berlaku dalam tamadun indiamelalui perluasan kuasa tamadun china juga telah menunjukkan peningkatan yangbegitu mengagumkan dalam pelbagai bidang iaitu pemerintahan dan pentadbiran sistemekonomi teknologi intelektual dan pendidikan aspek pendidikan mengalami peningkatanyang pesat semasa zaman pemerintahan dinasti qin dan dinasti han pendidikan menjadiasas penting dalam kemajuan yang dicapai oleh tamadun china hingga membolehkannyamenjadi antara tamadun teragung di dunialokasi dan perkembangannyatamadun china pada era peningkatan ini masih lagi muncul di sekitar lembah sungaihuang he kawasan yang subur serta kedudukannya yang strategik menjadikan lembahsungai huang he sebagai kawasan yang sesuai untuk dijadikan pusat kerajaan seperti padazaman dinasti qin dan dinasti hanketika ini dinasti qin muncul sebagai kerajaan paling utama di china semasapemerintahan raja zheng yang kemudiannya memakai gelaran maharaja shi huangdikerajaan ini berpusat di xianyang dinasti ini wujud antara tahun 221 sm hingga tahun206 sm dan mempunyai wilayah yang luas meliputi bahagian utara sehingga ke gurungobi dan selatan china bersempadan dengan vietnammaharaja shi huangdi merupakan pemimpin dinasti qin yang bertanggungjawabmenyatukan china kestabilan dalam bidang politik yang wujud pada zamannyatelah membolehkan peningkatan berlaku dalam bidang ekonomi dan sosialuchinaxianyangchanganxiankulit46 100 145 168petunjukdinasti qin viii 48 102 s14h6i huangdi 180tembok besarpeta empayar dinasti qin ilustrasi maharaja shihuangdisumber farah dan karls world history human experience new yorkglenceo 1999 hlm 224146 65 108 1471313 ipim 77 128 16130 95 130 16530 you tube 98 142 167udinasti qin digantikan oleh dinastihan antara tahun 206 sm hingga tahun220 m dinasti ini diasaskan olehliu bang yang kemudiannya memakaigelaran maharaja gaozu dinasti ini chinaloyangmembentuk empayar yang luas meliputichanganutara china sempadan vietnam di selatandan bahagian utara korea di sebelah timurserta turkestan di bahagian barat dinastiini terbahagi kepada dua tahap iaitu hanawal antara tahun 206 sm hingga tahunpetunjuk8 m dan han akhir antara tahun 25 mdinasti hanhingga tahun 220 m ketika zaman tembok besarhan awal pusat pemerintahan terletakpeta empayar dinasti handi changan manakala pada zamansumber farah dan karls world history human experience new yorkhan akhir pusat pemerintahan terletak glenceo 1999 hlm 224di loyangdinasti han telah menunjukkan peningkatan dalam bidang perdagangan melaluipembukaan laluan sutera bidang pentadbiran dan bidang sosial ketika zamanpemerintahan maharaja han wu di yang memerintah antara tahun140 sm 87 sm laluan sutera merupakan laluan perdagangan daratanyang terpanjang di dunia melibatkan china hingga empayar romdinasti han juga terkenal kerana melaksanakan sistem pemilihanpegawai perkhidmatan awam sebagai sebahagian daripadaperkembangan dalam sistem pendidikantahukah andailustrasi maharajahan wu diempayar ukulit 46 100 145 168 romkonstantinople dunhuangkashgarmervchangandamsyik chinaparsiindiaviii 48 102 146 180 afrika arabpetunjuklaluan suterapeta laluan sutera65 108 1t4a7madun sumber farah dan karls world history human experience new york glenceo 1999 hlm 22313china14713 ipim 77 128 16130 95 130 16530 you tube 98 142 167perkembangan pendidikan dalam tamadun chinapendidikan di china telah bermula sejak zaman dinasti shang dan berkembang ketikazaman dinasti zhou pada masa itu terdapat ramai ahli falsafah seperti konfusius yangmenjadi perhatian masyarakat konfusius hidup dari tahun 551 sm hingga tahun 479 smkarya beliau yang paling terkenal ialah lun yu atau analects ajaran konfusianisme teruskekal sehingga hari inipendidikan dalam tamadun china konfusiussumber farah dan karls world history human experience sumber farah dan karls world history humannew york glenceo 1999 hlm 230 experience new york glenceo 1999 hlm 225pada zaman dinasti qin pendidikan menekankan aspekpemahaman perundangan yang diasaskan oleh han fei zi yangmengutamakan ketegasan undangundang bagi mengawal tingkahlaku manusia sistem pendidikan juga menjadi lebih tersusunapabila maharaja shi huangdi menyeragamkan sistem tulisanhan fei zipada zaman dinasti han sistem pendidikan diperkukuh melaluipenubuhan sekolah tinggi di changan penekanan diberikankepada pembelajaran ajaran konfusianisme yang diikuti denganpenubuhan sekolah yang sama pada peringkat daerah dan wilayahsistem pendidikan semakin bertambah baik dengan adanyateknologi pembuatan kertas daripada campuran kulit pokokserpihan rami kain dan jaring oleh cai lun kejayaan ini telahmeningkatkan pendidikan di sekolah apabila kertas tersebutdigunakan secara meluascai lun148perkembangan pendidikan dalam tamadun china matlamat sistem pendidikankepentingan pendidikan dalam tamadunchina menyebabkan perkembanganyang pesat dalam sistem pendidikanlulusnegara melalui pendidikan peperiksaannegara boleh ditadbir dengan perkhidmatanawamcekap dan berkesan darisegi kedudukan sosialseseorang yang terpelajarakan berada pada hierarki memupukmengekalkannilai moralteratas dalam masyarakat ajarandan etika matlamatdi china diikuti oleh konfusianismesistemgolongan petani artisanpendidikandan pedagangtamadunchinamembezakanmemilih golonganpegawai elit dengankerajaan golonganrakyattahap sistem pendidikansistem pendidikan dalam tamadun china mempunyai tiga peringkat iaitu pendidikanpada peringkat rendah menengah dan tinggi dalam ketigatiga peringkat pendidikan inikemahiran kendiri diukur berdasarkan kemampuan menghafal memahami menulis danmenterjemahpendidikan tinggimenterjemahkan danpendidikan mengintepretasikanmenengah buku suci sertapendidikan rendahpelajaran berkaitan etikatumpuan kepadatumpuan kepada upacara adat istiadataspek menulismenghafal tulisan dan tanggungjawabkarangan dan sajakserta buku suci tanpa rakyat kepada raja danperlu memahami negaramaknanyacerna mindanyatakan tiga tahap sistem pendidikan tamadun china149peperiksaanpeperiksaan perkhidmatan awam merupakan komponen paling penting dalam sistempendidikan dan kehidupan masyarakat china peperiksaan membolehkan seseorangmenerima penghormatan dan meningkatkan taraf sosial ke arah kehidupan yang lebih baiksistem peperiksaan yang awal mula diperkenalkan ketika pemerintahan maharaja wudalam dinasti han pada tahun 29 sm dan kekal hingga tahun 1905 apabila dimansuhkanoleh maharani dowager cixiaktivitibuat pembentanganberkumpulan denganmenjawab soalan di bawah1 apakah yang dapatanda nyatakan daripadagambar di sebelah2 pendidikan merupakanelemen penting untukmembangunkansesebuah negarabahaskan3 hubung kaitkan antarapendidikan denganpembentukan sahsiahdiriaktiviti tmkmaharani dowager cixi memerintah china dari tahun1861 hingga tahun 1908 beliau merupakan pemerintahyang sangat berpengaruh layari laman web ataugunakan sumbersumber yang bersesuaian buattugasan berkumpulan tentang biografi maharanidowager ciximaharani dowager cixi150ciriciri sistem peperiksaan perkhidmatan awampeperiksaan yang sangat kompetitifhanya lelaki dibenarkan menduduki peperiksaantanpa mengira latar belakang dan status sosialmengekalkan tradisi dan budaya china terutamanyaajaran konfusianismelarangan terhadap sebarang bentuk perubahanbagi mengekalkan keaslian tradisi chinalulus dalam peperiksaan merupakan matlamat utama pendidikan bagi seoranganak lelaki seseorang calon yang berpotensi akan menerima tajaan daripadapenduduk kampung dengan harapan calon yang dipilih itu akan berjaya dalampeperiksaan seterusnya menaikkan nama keluarga kaum dan kampung tersebutsistem peperiksaan ini dikawal dengan ketat sistem yang sama dilaksanakandi seluruh empayar dan mereka yang didapati meniru akan dikenakan hukumanbagi mengelakkan penipuan calon akan dikurung sebelum peperiksaan berlangsungdisebabkan sistem peperiksaan yang ketat dan kompleks hanya mereka yang lulus dengancemerlang akan diserapkan ke dalam sistem perkhidmatan kerajaan peperiksaan berkisarpada kandungan buku empat buku the four books dan lima kitab the five classicsyang dikenali sebagai sembilan buku sucitahukah andacerna mindasenarai lengkap sembilan buku sucinyatakan persiapan calon pada zamanthe four books tamadun china untuk menghadapipeperiksaan perkhidmatan awamthe five classicsadakah pencapaian dalam peperiksaanmenjadi kriteria terbaik untuk mengukurkebolehan seseorang151terdapat tiga tahap peperiksaan perkhidmatan awam iaitutahap tiga jinshitahap kedua juren dijalankan di ibu kotadijalankan di ibu kota kerajaandaerah diadakan tiga tahuntahap pertama xiucai hanya terbuka kepada sekalidijalankan pada calon yang telah lulus tempoh peperiksaanperingkat daerah tahap pertama selama 13 hariterbuka kepada semua diadakan tiga tahunorang sekalidiadakan dua kali setiap tempoh peperiksaan tigatiga tahun haritempoh peperiksaan ialah bilangan calon antarasehari 4800 10000 orangbilangan calon antara kadar kelulusan 1 120500 2000 orangkadar kelulusan 1 35mereka yang lulus dalam peperiksaan ini akan diserapkan ke dalam perkhidmatan awamkerajaan serta memperoleh pelbagai keistimewaan berdasarkan tahap kelulusan merekacalon yang lulus peperiksaan tahap pertama akan memperoleh butang keemasan yang akandilekatkan pada topi mereka diterima sebagai kakitangan kerajaan peringkat rendah danmenyertai majlis santapan dirajabagi calon yang lulus peperiksaan tahap kedua pula akan memperoleh butang keemasan danmendapat jawatan dalam kerajaan selain itu rumah mereka akan mempunyai tanda namayang diletakkan di pintu masuk dan mempunyai kakitangan pengiringbagi calon yang lulus peringkat ketiga akan mendapat kedudukan dan pangkat tinggi dalamkerajaan dan memperoleh pelbagai keistimewaan yang lain bukan sahaja untuk dirinya tetapikeluarga dan kampungnyasistem peperiksaan untuk memilih kakitangan kerajaan telah menjadi contoh kepada negaranegara di dunia dan diamalkan hingga hari ini sistem ini telah melahirkan banyak sarjanaseperti dong zhongshu 179104 sm yang merupakan sarjana konfusius terkemukadan sejarawan china pertama sima qian 14586 sm yang menulis karya bertajukshiji karya ini mengisahkan tentang sejarah china hingga tahun 90 sm perkembangandalam bidang sosial terutama pendidikan pada zaman chin dan zaman han sangat bergantungpada keamanan yang wujud dalam kerajaan tersebutkajian keskumpulkan bahan daripada internet atau perpustakaan hasilkan folio secaraberkumpulan tentang sejarawan pertama china si ma qian152proses membuat kertas1 2 3langkah 1 langkah 2 langkah 3mengumpulkan bahan kulit pokok direndam di dalam air persiapan untuk merebusserpihan rami kain dan jaring ikan4 5 6langkah 4 langkah 5 langkah 6proses merebus mengumpulkan rebusan dikacau hingga menjadi cecairdi dalam satu bekas yang pekat7 8 9langkah 7 langkah 8 langkah 9dihamparkan pada tikar dijemur pada panas matahari kertas yang sudah siap disusunsistem pendidikan merupakan asas penting yangmembolehkan tamadun china mencapai kecemerlangan dalampelbagai bidang melalui sistem pendidikan yang teratur serta penilaian yangkompleks membolehkan china melahirkan kalangan pelajar dan sarjana yangbertanggungjawab dan menjadi pentadbir dalam kerajaan sistem ini bertahandan berterusan di china sebelum dimansuhkan pada awal abad ke20 makajelaslah bahawa pendidikan yang berkesan mampu menjadi agenperubahan dalam pembangunan negara seperti yangdilaksanakan di malaysia153</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1532,20 +1736,24 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab  Zaman Air Batu </t>
+          <t xml:space="preserve">Bab  Peningkatan Tamadun India dan China </t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arif dan Peka Sejarah </t>
+          <t xml:space="preserve">Kesimpulan </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr"/>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>kesimpulankecemerlangan dalam tamadun india ditonjolkanmelalui aspek perluasan kuasa yang dijalankansama ada melalui kekuatan tentera atau keagamaankeduaduanya memainkan peranan yang besardalam melahirkan kegemilangan dan keagungantamadun india chandragupta maurya dikenalisebagai tokoh penting dalam perluasan kuasadengan menggunakan kekuatan tentera asokachandragupta mauryapula dikenali kerana meluaskan pengaruhtamadun india melalui kekuatan tentera dankeagamaan kepimpinan asoka yang menekankankepada sifat belas ihsan dan keadilan serta melayanrakyat dengan baik merupakan contoh pemimpinyang sangat penting sehingga beliau disayangi olehrakyatnya dan dikagumi oleh orang asing yangmelawat indiastupa di sanchi indiatamadun china telah menunjukkan pencapaian yang cemerlang dalam pelbagai bidangkehidupan sistem pendidikan telah melahirkan golongan pelajar dan pemimpin yangmembentuk kecemerlangan tamadun china kualiti pendidikan yang tinggi adalah pentinguntuk pembinaan sesebuah negara bangsapenyeragaman tulisan ketika zaman peperiksaan perkhidmatan awam di chinamaharaja shi huangdi dijalankan secara ketatbab ini telah menjelaskan peningkatan yang berlaku dalam tamadun india dan tamadunchina sehingga membolehkan keduadua tamadun dikenali sebagai tamadun yang teragungdi asia khasnya dan dunia amnya bab seterusnya akan membincangkan satu lagi tamadunyang terkenal dan berpengaruh di dunia iaitu tamadun islam154</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1553,20 +1761,24 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab  Zaman Prasejarah </t>
+          <t xml:space="preserve">Bab  Peningkatan Tamadun India dan China </t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Maksud Zaman Prasejarah </t>
+          <t xml:space="preserve">Pemahaman dan Pemikiran Kritis </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr"/>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>pemahaman dan pemikiran kritis1 antara faktor kejayaan perluasan kuasa dalam tamadun india termasuklahi dasar pembangunan negaraii ketahanan binaan tembokiii kekuatan tenteraiv dasar pemerintahana i dan iib ii dan iiic iii dan ivd i dan iv2 apakah peristiwa yang mengubah dasar pemerintahan asoka daripada perluasan secaraketenteraan kepada penyebaran agamaa perang kalingab pembinaan kubu pataliputrac penguasaan laluan utara dan selatan indiad peruntukan kewangan kepada maharaja nanda menyatukan china menyeragamkan unit timbang dan sukat menyeragamkan sistem tulisan3 senarai di atas merujuk kepada sumbangana cai lunb han fei zic konfusiusd maharaja shi huangdi4 masyarakat di china membenarkan berlakunya peningkatan taraf sosialbagaimanakah caranyaa lulus peperiksaanb menyertai peperanganc mengisytiharkan diri sebagai pembesard memperkenalkan ajaran baharu5 mengapakah penaklukan kalinga telah memberikan kesan kepada pemerintahan asoka6 sejauh manakah faktor keagamaan membantu perluasan kuasa dalam tamadun india155pemahaman dan pemikiran kritis7 berdasarkan gambar di atasi nyatakan matlamat pendidikan dalam tamadun chinaii pada pandangan anda mengapakah sistem peperiksaan perkhidmatan awamdi china dikawal dengan ketat8 buat pembahagian kumpulan setiap kumpulan dikehendaki menghasilkan brosurmaklumat tentang sistem pendidikan di negara kita anda boleh mengkaji mengikutperkara yang disenaraikan di bawahi latar belakangsejarahii sistem pendidikan kiniiii matlamativ cabaranv harapan anda terhadap sistem pendidikan negara ini156</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1574,20 +1786,24 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab  Zaman Prasejarah </t>
+          <t xml:space="preserve">Bab  Peningkatan Tamadun India dan China </t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Lokasi Zaman Prasejarah di Dunia </t>
+          <t xml:space="preserve">Arif dan Peka Sejarah </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr"/>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>arif dan peka sejarahnilai patriotisme dan iktibarkekuatan kepimpinan dalam tamadun india dan tamadun china bolehmenjadi panduan kepada pemerintah untuk membina negaraideaidea kenegaraan yang ditonjolkan oleh pemimpin tamadun india dantamadun china boleh menjadi inspirasi kepada pemimpin muda kinikerjasama dan pematuhan kepada undangundang seperti yang ditonjolkandalam tamadun india dan tamadun china boleh meningkatkan kemajuankehidupan masyarakatdiri dan keluarga negarapenglibatan dalam aktiviti kita perlu menanamkan rasa hormatkemasyarakatan dapat menyemai kepada pemimpin mereka merupakansemangat berani dan tabah pelbagai tonggak pemerintahan yang memacukegiatan yang dijalankan menguji kemajuan dan kemakmuran negarailmu dan kemahiran yang kita mereka juga akan memastikan negaramiliki kita akan bersaing secara dapat bersaing di pentas antarabangsasihat untuk mencapai kejayaanpenglibatan dalam aktivitikemasyarakatan seperti bantuankemanusiaan dapat memupuksikap semangat bekerjasama sambutan hari kebangsaan merupakan acara tahunan yang dapatmemupuk semangat cinta akan negarasumber jabatan peneranganmalaysia sumber jabatan penerangan malaysia157btamadunab8islam dansumbangannyasinopsiszaman sebelum kedatangan islam menampakkan corak hidupyang dibentuk tanpa kepimpinan nabi dan kitab suci sebagaipetunjuk zaman ini dikenali sebagai zaman jahiliah zamanjahiliah beransuransur berakhir dengan turunnya wahyu pertamakepada nabi muhammad saw dan bermulalah tamadun baharuyang gemilang tamadun islam telah berkembang seterusnyapada zaman khulafa alrasyidin dan kerajaankerajaan islamlainnya sehingga memberikan sumbangan besar dalam bidangpolitik ekonomi dan sosialapakah yang akan anda pelajari1 mengenal latar belakang masyarakat arab sebelum kedatanganislam2 memahami kemunculan tamadun islam dan perkembangannya3 memahami ketokohan nabi muhammad saw sebagai pemimpinyang unggul4 memahami sumbangan tamadun islam dalam bidang politikekonomi dan sosial5 memahami sumbangan tamadun islam dalam bidang seni binamasjidil haram makkahapakah elemen kewarganegaraan dannilai sivik yang anda dapati1 merumuskan kepentingan menghargai sumbangan tamadunislam2 menghuraikan nilai murni sejagat dalam islam bagi memantapkanjati diri3 membincangkan ciriciri kepimpinan islam yang boleh diteladanioleh masyarakat4 menerangkan kepentingan ciriciri unik dalam seni bina islam158kemahiran pemikiran sejarah yang anda dapati1 memahami kronologi urutan masa zaman jahiliah dan kemunculan tamadun islam2 meneroka bukti sumbangan tamadun islam dalam bidang politik ekonomi dan sosial3 membuat interpretasi sumbangan tamadun islam dalam bidang seni bina4 membuat imaginasi kesungguhan nabi muhammad saw menyampaikan dakwah islam5 membuat rasionalisasi perubahan amalan ekonomi masyarakat arab sebelum islam danketika islam berkembang159</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1595,20 +1811,24 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab  Zaman Prasejarah </t>
+          <t xml:space="preserve">Bab  Tamadun Islam dan Sumbangannya </t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ciriciri Kehidupan Manusia Zaman Prasejarah </t>
+          <t xml:space="preserve">Kedatangan Islam </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr"/>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>latar belakang masyarakat arab81sebelum kedatangan islampengenalanlaut usecara umumnya masyarakat arab kaspiasebelum kedatangan islam mempunyaisyria stigrispbeetrebmezpaa tadna rid asne gcia rpae mheidruinpt ayhaanngseuphratesbaghdadlautmediterranean am parsiekonomi dan sosial mereka tinggal syiraqbasradi kawasan semenanjung tanah arab s emyang dikelilingi oleh padang pasir mesir e n teluan ksyam di sebelah utara laut arab j u n aj d parmadinah ndlia uste mlatearnah tdei bluakra tp a trseir ddaip atti bmeubre rdapana snil hijaz g tana si masqatlau t maktkaaihf h arabwilayah seperti hijaz najd yaman m e omanrahadramaut dan oman di kawasan hytteignag aihb u aktaout a wpielnaytianhg hiaiijtauz mtearkdkapahat petunjuk a m a n h a d r a m a u t laut arabmadinah dan taif ketigatiga ibu padang pasirhabsyahkota ini terletak pada kedudukanyang strategik yang membolehkannya semenanjung tanah arab pada abad keenam masihiberkembang dari segi perdagangan dan sumber farah dan karls world history human experiencenew york glenceo 1999 hlm 280pertaniannamun begitu selepas keruntuhanempangan maarib sekitar tahun 300 mberlaku kemerosotan ekonomi dalammasyarakat arab kehidupan sosial yanglemah menyebabkan masyarakatketika itu tidak mewarisi ilmu dari zamansebelumnya oleh sebab itulah merekatidak mampu membina semula empanganmaarib pada masa itu masyarakat arabmengalami zaman kegelapan yang dikenalisebagai zaman jahiliahjahiliah berasal daripada perkataanarab jahala yang bermaksud jahilmereka tidak mempunyai nabi dan kitabsuci sebagai petunjuk semasa islamdiperkenalkan mereka juga menolakundangundang allah swt dan nilainilaiempangan maarib di yamanislam sebagai panduan hidupsumber sami bin abdullah almaghluts atlas rasulullahsaw selangor pts islamika sdn bhd 2014 hlm 18160sistem masyarakat jahiliaha politikmiaiatusy kaaruakma th aadrahba rsi edbaenlu kmau kme dbaatadnwgian islam hidup dalam kelompok kumpulan kabilahlaut ukaspiakaum hadhari tinggal di kota dengan menjalankan perniagaan dan memiliki binatangsyria stigris tkmeraenuramekk a abn amdewnigseuphratesbaghdad pamulaal hkiadnu spi ssteecmar ak anboimlaahd daenngg adni kmeetmuaeil ihoalerah bsienoatraanngg t esryneaikkahnlautmediterranean am parsiy seorangysiraq basra syeikh yang dilantik sebagai ketua mestilah disukai ahli kabilah matang beranisemesir m e t sanggup mempertahankan puaknya dan pandai berpidaton a n e luk speebnaygaatui asne mmaansgyaatr aaksasta bbieyrakhab imlaehr eakdaa lbahe rmbeergdaahsa rdkeanng aknet ukraubnialna hy manags idnigistmilaahsiknagnj u n aj d parmadina h nsnil l hijaz g tana si masqat mereka juga sering berperang untuk merebut kuasa pengaruh dan hartaau t maktkaaihf h arab pdeir dkaagwaansgaann m naakmkuanh teegridtuap mat akkakuamh aerrnaba hq duiraaniscya my amngu smuhen tcadobnitro hdnany am aembraajuhkaahnm omaner a b phya m a n h a d r a m a u t laut arab p bpieednmatnaegdr bidniertanangh ad h ni matubagskayksa atheh ydteianuntrugu ssikkenaupglnieit n rot lime dhe nbrgauhdnaannnc uadrt4kwa6auanh jkabaaabtaanh yang mentadbir b e berapar a a10 0 14 5 168habsyahviii 48 102 146 18065 108 147ilustrasi menunjukkan kehi1d3upan berpuakpuak berdasarkan kabilah masingmasingsumber ensiklopedia islam untuk pelajar jilid 1 kuala lumpur era visi publication sdn bhd danyayasan dakwah islamiah malaysia 2003 hlm 69kemunculanglosari tamadunislamkabilah suku bangsa kaum 13 ipim 77 128 161aktivitiithinkbincangkan kesan sekiranya semangat lakarkan peta pemikiran yangassabiyah diamalkan dalam masyarakat sesuai bagi menyatakan ciricirihari ini seorang syeikh30 95 130 16516130 you tube 98 142 167b ekonomimasyarakat pada masa ini juga melakukan kegiatan ekonomi yang berbeza khususnyad i beberapa buah negeri dan kawasan di tanah arab kegiatan utama adalah dalam bidangpertanian dan perdagangansemenanjung tanah arab mempunyai tanah yang kurang subur untuk pertaniandi yaman pula terdapat tanaman gandum dan kopi yang amat bergantung pada hujansekoi dan padi juga diusahakan di beberapa tempat di oman kemenyan pula merupakantanaman berharga yang dihasilkan di hadramaut dan mahradalam kalangan kaum badwi terdapat masyarakatnya yang menternak secaranomad antara binatang ternakan termasuklah unta kambing dan biribiri merekaberpindahrandah untuk mencari rumput dan air bagi binatang ternakanterdapat juga kaum badwi yang mengamalkan sistem tukar barang mereka menukarkanbinatang ternakan dan hasil ternakan dengan barang keperluan mereka seperti pakaiandan kurmadalam kalangan kaum hadhari pula terdapat sesetengah daripada mereka yang keluarberdagang secara kafilahpada peringkat awalnya masyarakat yaman memasarkan hasil dagangan dari hadramautdan india serta membawanya juga ke syam dan mesirsejak abad keenam masihi masyarakat hijaz pula menjadikan makkah sebagai pusatdagangan yang baharu penduduk hijaz pula membeli barang dari yaman dan habsyahlalu menjualkannya di syam dan mesirketika itu laluan perdagangan merentasi benua yang dikenali sebagai laluan suteratelah menghubungkan pedagang arab dengan china india dan asiaperniagaan masyarakat arab jahiliah hanya mementingkan keuntungan mengamalkanriba dan menipu timbanganglosarikafilah rombongan pengembaraatau pedagang yang membawabarang dagangan merentasipadang pasirilustrasi kegiatan perdagangan di semenanjung tanah arab cerna mindasumber mokhtar moktefi the rise of islam paris silver burdett press1985 hlm 12apakah kesan buruk jikahanya mengamalkanaktivitisikap mementingkansecara berkumpulan dapatkan maklumat tentang keuntungan sematamatarombongan perdagangan kafilah dalam perniagaan116622c sosialkehidupan masyarakat arab jahiliah di semenanjung tanah arab dapat dilihat dari duasudut iaitu agama dan kepercayaan serta adat dan kehidupan seharian merekaagama dan kepercayaanwathanimerekamenyembah berhala antaranya termasuklah allatta aluzza almanat danhubal terdapat 360 buah berhala di sekeliling kaabahmajusimerekamenyembah api agama ini berasal dari negeri parsi kebanyakan penganutagama ini tinggal di yaman oman dan bahrain kerana kawasan ini dipengaruhi olehparsiyahudiagamaini dianuti oleh bani israel yang tinggal di utara semenanjung tanah arabnasraniagama ini juga dianuti oleh bani israel agama ini dikembangkandi utara semenanjung tanah arab melalui penduduk ghassan dan hirahanimismeterdapat juga masyarakat yang mengamalkan kepercayaan animisme merekapercaya kepada roh dan kuasa ghaibhunafaketika ini juga masih terdapat penganut yang mengamalkan ajaran yang dibawa olehnabi ibrahim ascerna mindanyatakan agama dan kepercayaan yang terdapat dalammasyarakat arab jahiliahadat dan kehidupan seharianterdapat masyarakat yang menilik nasib untuk meramal masa depan mereka sebelummelakukan sesuatu perjalanan atau pekerjaan mereka akan memerhati keadaansekeliling bagi menentukan nasib yang akan menimpa sama ada baik atau burukmereka juga mempercayai ahli sihir dan kuasa azimatdalam kehidupan seharian pula mereka memandang rendah kepada kaumwanita dan memberikan penghormatan yang lebih kepada anak lelakimereka hidup dalam kemaksiatan seperti berjudi berzina meminum arak danbersifat angkuh163hamba juga dipandang hina dan mempunyai status terendah dalam kalanganmasyarakatnamun begitu terdapat sikap yang baik dalam kalangan masyarakat arab ketikaini seperti sering memuliakan tetamu menepati janji menghormati tuan rumah danmenjaga kehormatan dirimereka sanggup menghadapi kesukarandengan kegigihan malahan mereka sanggupmengorbankan kepentingan diri sendiriuntuk tetamu golongan miskin dan lemahcontohnya mereka akan memasang apidi tempat tinggi bagi membantu pengembarayang sesat apabila seseorang itumeminta bantuan sesuatu kaum makamenjadi tanggungjawab kaum tersebutmelindunginyasebilangan kecil masyarakat arab ketikaitu tahu bersyair bersajak dan berpidatokarya yang dianggap bermutu akan dibacadalam temasyatemasya tahunan di pasarukaz dan digantung di kaabahilustrasi masyarakat arab bersyair di pasar ukazsumber ensiklopedia islam untuk pelajar jilid 5kuala lumpur era visi publication sdn bhd danyayasan dakwah islamiah malaysia 2003 hlm 74sebelum kedatangan islam masyarakat arab mengamalkan pelbagai corak kehidupan darisudut politik masyarakat arab mempunyai sistem pemerintahan berasaskan sistem kabilahmanakala dari sudut ekonomi kegiatan utama mereka ialah pertanian dan perdagangandari aspek sosial pula mereka mengamalkan kepelbagaian amalan dan adat yang diwarisiturun temurun zaman jahiliah berakhir apabila tersebarnya agama islam yang telahmemberikan kesan bukan sahaja terhadap masyarakat setempat tetapi dunia seluruhnyaglosariwahyu firman kalam allah swt yang apakah kesan terhadap masyarakatdibacakan kepada nabi dan rasulnya yang kini sekiranya amalan negatif masyarakatdisampaikan oleh malaikat jibril jahiliah berterusanaktivitihasilkan peta minda untuk menggambarkan ciriciri kehidupan masyarakat arabsebelum kedatangan islam164</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1616,20 +1836,24 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab  Zaman Prasejarah </t>
+          <t xml:space="preserve">Bab  Tamadun Islam dan Sumbangannya </t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prasejarah kepada Kemajuan Kehidupan Manusia </t>
+          <t xml:space="preserve"> Kemunculan dan Perkembangan Tamadun Islam </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>kemunculan dan perkembangan82tamadun islamkelahiran nabi muhammad saw telah membawa rahmat kepada seluruh alam terutamadalam membawa perubahan kepada masyarakat arab dari sudut akhlak akidah dan syariahbaginda dilahirkan daripada keluarga ternama dalam masyarakat quraisy pada12 rabiulawal tahun gajah bersamaan 20 april 570 m ayahanda baginda bernamaabdullah bin abdul muttalib manakala ibunya bernama aminah binti wahab abdullahmerupakan peniaga yang sering berulang alik dari makkah ke syamabdullah meninggal dunia selepas dua tahun datuknya baginda juga menjalankanketika nabi muhammad mkeunliitnggal dunia ba46ginda per1n00iagaan mil14i5k siti 168saw masih di dalam dipelihara ol eh abu talib khadijah si fat amanahkandungan ibunya ketika bapa saudaranya baginda dan budi pekerti yang baikberusia enam tahun baginda juga pernah berniaga ketika berurus niaga telahkematian ibunya dan sehingga ke syam dan menimbulkan rasa hormatdipelihara oleh datuknya berniaga di sekitar kota khadijah kepada bagindaabdul muttalib makkah sehingga membawa kepadaviii 48 perk10a2hwinan m erek14a6 180nabi muhammad saw sebagai pemimpinagama islamdetik permulaan tamadun islam dalam sejara6h5 108 14713perkembangan tamadun manusia ialah p eristiwapenerimaan wahyu pertama oleh nabi muhammadsaw di gua hira pada hari isnin 17 ramadanbersamaan 6 ogos 610 m wahyu pertamadaripada surah alalaq ayat 1 hingga 5 bermulagua hira makkahdengan perkataan iqra bacalah13 ip immembaca da7n7 sumber sam1i 2b8in abdullah alma1g6h1luts atlasmenulis merupakan asas ilmu pengetahua n untuk rasu lullah saw selangor pt s islamika sdn bhd 2014 hlm 98melahirkan tamadun berbekalkan semangat iqrainilah tamadun islam berkembang dan maju nabiseterusnya wahyu kedua surah almudassir muhammadsawayat 1hingga 7 diturunkan kepada nabi muhammadsaw yang merupakan peng3i0sytiharan nab95i glo13s0ari 165muhammad saw sebagai pesuruh allah swt untukmenyampaikan ajaran islam kepada seluruh manusia akhlak budi pekertiakidah keimanan yang diyakinisyariah hukum islamaktiviti ithink 30 you tube 98 142 167hasilkan peta alir tentang susur galur riwayat hidup nabi muhammad sawbermula daripada kelahiran baginda sehinggalah baginda berhijrah ke madinah165dakwah nabi muhammad saw dilakukan dalam dua peringkat iaitu secara rahsia danterangterangansecara rahsia secara terangteranganberlaku selama tiga tahun individu nabi muhammad saw telah memulakanawal yang memeluk islam ialah dakwah secara terangterangan ini kepada kaumsiti khadijah ali bin abi talib keluarganya dengan mengadakan pertemuanzaid bin harithah dan abu bakar di bukit safa namun begitu baginda ditentangalsiddiq dakwah islam juga hebat oleh bapa saudara baginda iaitu abu lahabdisebarkan melalui sahabat baginda baginda begitu tabah menghadapi tentangandan melalui dakwah di rumah dan cabaran daripada masyarakat arab quraisyalarqam bin abi alarqam yang enggan menerima islam pada awalnyabagi tujuan penyebaran islam nabimuhammad saw kemudiannyaberhijrah ke madinah bagindaditerima dan diangkat sebagaipemimpin di sana baginda berjayamerangka piagam madinah iaituperlembagaan untuk membentuksebuah negara islam yang adil danmaju di madinah melalui sifatterpuji iaitu siddiq benar amanahtabligh menyampaikan ajaranislam dan fatanah bijaksanabaginda berjaya membuktikankepada dunia bahawa islam ialahcara hidup yang merangkumi setiapaspek kehidupandari segi dakwah islam telahberkembang dengan pesatnya ditanah arab dan di luar tanah arabislam telah disebarkan melaluiutusan ke rom parsi mesir danilustrasi penyebaran risalah islam kepada ketuaketuahabsyah nabi muhammad saw kerajaantidak memaksa mereka memeluk sumber ensiklopedia islam untuk pelajar jilid 4 kuala lumpurislam tetapi menggunakan cara era visi publication sdn bhd dan yayasan dakwah islamiahmalaysia 2003 hlm 71diplomasi dalam berdakwahilustrasi penyebaran islam kepada penduduk di luarislam juga disebarkan melalui paratanah arabpendakwah yang berdagang166kulit 46 100 145 168viii 48 102 146 18065 108 14713penyeba ran islam pada zaman khulafa alrasyidinpenyebaran islam ini diteruskan setelahpenyebaran islam pada zamankewafatan nabi muhammad sawkhulafa alrasyidinpemerintahan seterusnya dilakukan oleh13 ipim 77 128 p16a1ra sahabat nabi muhammad saw yang nidiysarla abu bakar alsiddiqdinamakan khulafa alrasyidin penyebaranislam semasa zaman khulafa alrasyidinbukan sahaja berkembang di makkah dan umar bin alkhattabmadinah malahan telah sampai ke utaraafaluhksemenanjung tanah arab meliputi iraq30 95 130 s16y5am dan mesir uthman bin affannamazali bin abi talibkhulafaalrasyidin30 you tube 98 142 1671abu bakar alsiddiqbaginda mengetuai peperangan alriddah yakni memerangi golongan murtad keluardaripada agama islam kerana enggan membayar zakat tentera islam telah menangdan semakin ramai yang memeluk islam2umar bin alkhattabsemasa pentadbiran baginda golongan peneroka telah dihantar untuk membukawilayah baharu di utara semenanjung tanah arab seperti iraq syam syria danmesir wilayah islam yang luas ketika itu telah dibahagikan kepada beberapabahagian bagi memudahkan pentadbiran3uthman bin affanbaginda mentadbir wilayah islam yang luas merangkumi kerajaan parsi dan beberapabahagian kerajaan byzantium di laut mediterranean baginda juga melantik gabenorbagi mengetuai pentadbiran di wilayah islam yang semakin meluas4ali bin abi talibpada masa ini agama islam semakin mantap dan wilayahwilayah islam bertambahluas dan makmur167penyebaran islam pada zaman kerajaankerajaan islamkerajaan bani kerajaan bani kerajaan turkiumaiyah abbasiyah uthmaniyahperkembangan islam semakin kerajaan ini berpusat kerajaan turkiketara terutama selepas di baghdad dan uthmaniyah berpusatpentadbiran diteruskan oleh memerintah selama lima di anatoliakerajaan bani umaiyah yang abad 750 m hingga perkembangan islamberpusat di damsyik 661 m 1258m seterusnya juga telahhingga 750 m dan bani umaiyah kerajaan bani abbasiyah meluas hingga ke rantauyang berpusat di cordoba meneruskan kegemilangan balkan eropah timursepanyol 756 m hingga 1031 m tamadun islam dengan sempadan rusia danislam bertapak di india dan perkembangan ilmu sekitar laut hitamasia tengah seperti bukhara pengetahuan yang pesat di samping mengekalkansamarqand dan khawarizimi sehingga berkembang kekuasaan di asia baratutusan persahabatan juga telah ke eropah pengaruh turkisampai ke china islam juga telah uthmaniyah juga telahislam juga telah sampai ke afrika berkembang ke samaniyah sampai ke alam melayuutara dan turut tersebar ke eropah di transoxania hinggaandalusia sepanyol menjadi ke barat indiapintu masuk ke benua eropah kerajaankerajaanislamlaut lauthitamksepanyol as transoxaniapiacordobalautmediterraneanlautparsilautmerahrabatul apetunjukzaman nabi muhammad saw zaman kerajaan umaiyah islam tersebar hinggake sepanyolzaman khalifah abu bakar alsiddiqzaman kerajaan abbasiyah islam tersebar hinggazaman khalifah umar alkhattab ke transoxaniazaman kerajaan turki uthmaniyah islam tersebarzaman khalifah uthman bin affanhingga ke eropahpeta perluasan dakwah islam pada zaman khulafa alrasyidin dan kerajaan islamsumber farah dan karls world history human experience new york glenceo 1999 hlm 280kerajaan168 kerajaanislamkulit 46 100 145 168viii 48 102 146 18065 108 1471313 ipim 77 128 16130 95 130 16530 you tube 98 142 167faktorfaktor penyebaran islamagama islam mudah disebarkan dan diterima oleh masyarakat disebabkan beberapafaktor antaranya termasuklahkesyumulan islamkeseimbangan rohani dan jasmani menjadikan tamadun islam berjaya membentukmasyarakat yang majuislam tidak menolak kemajuan di dunia dari segi pembandaran dan pembangunanekonomi di samping mendidik akhlak yang baikprinsip keterbukaanprinsip keterbukaan dan toleransi membolehkan tamadun islam diterima umumprinsip kesaksamaantamadun islam berdiri atas prinsip kesaksamaan dan keadilankewujudan pelbagai bangsa dan bahasa di dunia berjaya membentuk ummahyang bersaudaradakwahpendekatan berdakwah secara bijaksana dan berdiplomasi telah berjaya menarikmasyarakat lain untuk memeluk islamhubungan diplomatikhubungan diplomatik antara kerajaan islam dengan negaranegara lain sepertilaut di eropah telah menarik minat orang eropah untuk mengikuti perkembangan islamkaspiaperdagangankegiatan perdagangan dan hubungan yang baik antara pedagang arab denganpedagang negara luar di asia dan afrika menyebabkan islam mudah diterimadi n e g a ra t er s e b u t lautparsipem b u k a a n w i l a y a h baharusejak zaman khulafa alrasyidin berlaku pembukaan wilayah baharu yangmenyebabkan agama islam semakin tersebar contohnya iraq syam syria danmesirjelaslah bahawa peranan nabi muhammad saw dalam menyebarkan islamyang diteruskan oleh khulafa alrasyidin menyebabkan islam mulai menyinaridunia kerajaan bani umaiyah bani abbasiyah dan turki uthmaniyah pula telahmenyemarakkan lagi tamadun islam sehingga sampai ke benua eropah afrikadan asia169</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1637,20 +1861,24 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab  Zaman Prasejarah </t>
+          <t xml:space="preserve">Bab  Tamadun Islam dan Sumbangannya </t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Zaman Prasejarah di Malaysia </t>
+          <t xml:space="preserve"> Ketokohan Nabi Muhammad SAW sebagai Pemimpin </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr"/>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>ketokohan nabi muhammad saw83sebagai pemimpinnabi muhammad saw diiktiraf sebagai rasulullah dan pemimpin yang unggulkejayaan baginda memainkan peranan yang besar sebagai pemimpin negara pemimpinmasyarakat pembangun ekonomi dan pemimpin tentera seperti yang dinyatakan dalamalquran dan hadispemimpin negaratempatanketokohan nabi muhammad sawterserlah apabila baginda berjaya merangkaperlembagaan atau piagam madinah yangmenjadikan islam sebagai agama rasmidalam piagam ini orang bukan islamdiberikan kebebasan untuk mengamalkanagama dan adat masingmasing bagindajuga mempersaudarakan masyarakat islamdan menyatukan masyarakat islam denganbukan islamantarabangsaketokohanbaginda juga terbuktipada peringkat antarabangsa bagindaberjaya menghantar perwakilan ataumisi dakwahnya ke luar negaraseperti ke habsyah mesir byzantiumsurat rasulullah saw kepadadan parsipembesar oman jaifar danabd aljalandisumber sami bin abdullah almaghlutsatlas rasulullah saw selangor ptsislamika sdn bhd 2014 hlm 290glosarialquran kitab suci yang diturunkan oleh allah swtkepada nabi muhammad saw untuk panduan hidup cerna mindamanusiaapakah kesan kandunganhadis perkataan perbuatan dan pengakuan nabipiagam madinah terhadapmuhammad saw yang diriwayatkan oleh sahabatmasyarakat bukan islamsahabatnyadi madinahrasulullah utusan allah atau pesuruh allah170pemimpin masyarakatketika di makkah selepas berhijrah baginda menyatukan kaumsebelum berhijrah ke madinah nabi muhajirin dan ansar bagindake madinah nabi muhammad saw juga berusaha menjadikanmuhammad saw menekankan konsep islam sebagai satu cara hidupmenekankan aspek syura atau perundingan dengan menerapkan nilaiakhlak akidah dan keadilan persamaan toleransi hormat menghormatisyariah dan kebebasan melalui dan mengutamakan keadilanpiagam madinah dalam kalangan masyarakatpembangun ekonomiperdagangan dan hubungan luarnabi muhammad saw menggalakkan hubungan perdagangan antara negara islammadinah dengan kawasan lainkedudukan madinah yang terletak di laluan di antara yaman dan syam menjadikanaktiviti perdagangan bertambah majupedagang dari arah selatan menjadikan jalan ini sebagai jalan utama aktiviti perdaganganmenggalakkan hubungan luar dengan semua negarapertaniannabi muhammad saw menggalakkan masyarakat bekerja keras dan aktif dalamperniagaan dan pertanian berasaskan prinsip ekonomi islam seperti bekerja bersungguhsungguh mencari rezeki yang halal larangan penindasan dan ribapengurusan tanahnabi muhammad saw sendiri membangunkan ekonomi dengan menggalakkanpembangunan semula tanah terbiar serta menebus semula tanah yang tergadai kepadakaum yahudipembangunan pasar suq alansarnabi muhammad saw mencadangkan agar abdul rahman bin auf membangunkansebuah tempat berjual beli bagi membangunkan ekonomi umat islam pasar suq alansartelah didirikan dan berjaya membangunkan ekonomi umat islam tanpa menyisihkanpesaing mereka iaitu orang yahudiaktiviti tahukah andaadakan pertandingan pidatoabdul rahman bin auf merupakan sahabat nabi muhammadberdasarkan tajuk perpaduan saw yang terkaya beliau banyak menyumbangkanummah teras kejayaan islam kekayaannya untuk perkembangan agama islam171pemimpin tenteranabi muhammad saw pernah menjadi pemimpin tentera yang berjaya berdasarkankonsep jihad konsep jihad ini merupakan perjuangan menegakkan agama islam yang sucimempertahankan bangsa dan tanah air satu unsur yang sangat penting dalam jihad ialahkesungguhan dan berdedikasi melaksanakan sesuatu usaha oleh sebab itu setiap umatislam digesa supaya berusaha bersungguhsungguh untuk menuntut ilmu mempertahankanmaruah diri dan kesucian agama islamdalam islam peperangan tidak diizinkan melainkan setelah orang islam diancamdemi mempertahankan agama umat dan negara hal ini bagi menjaga kesucian agamadan kesejahteraan manusia sejagat nabi muhammad saw sendiri pernah mengetuaisiri peperangan menentang musuh islam seperti perang badar perang uhud dan perangkhandak ketika berperang baginda menunjukkan sifat kepimpinan dan akhlak yangmulia tentera islam dilarang membunuh sesuka hati dan memusnahkan tumbuhan atautanamtanaman nabi muhammad saw juga mendengar pandangan orang lain dalammengatur strategi peperanganbukit uhudbarisan 10000 tenteramusuh dari makkahb a n ia k t iv i ti b a n i b a n i b ah a n i f a za ra sulaimqu ra gh at s ya hbentuk k u m p u lan dan i sy afanbincangkan soalanparitdi bawahkhandak1 berdasarkan pelanbarisan 3000perang khandakbukit safa tentera islamini apakah strategiyang digunakanoleh nabimuhammad saw bani quraizahkebun2 bincangkan kawasan kurmapergunungankekuatan strategi alwabrahtersebutpelan perang khandaq yang menampakkan3 mengapakahkebijaksanaan pihak tentera islam dalamqubaperancangan mengatur strategi peperanganstrategi perang yang bukitasirberkesan diperlukandalam menghadapistrategi bertahan dengan menggali parit dalam perang khandakmusuhsumber ensiklopedia islam untuk pelajar jilid 3 kuala lumpur era visi publication sdn bhd danyayasan dakwah islamiah malaysia 2003 hlm 94172semasa nabi muhammad saw danumat islam berada di madinah dan ingin pembukaan kota makkah yang dipimpin olehmembuka semula kota makkah baginda pasukan nabi muhammad saw pasukankhalid al walid pasukan qais bin saad bintelah mengatur strategi yang berkesanubaidah pasukan zubair bin awwam dandengan membahagikan pasukannya kepada pasukan abu ubaidah bin jarrahbeberapa pemimpin tentera seperti lakarandi sebelahhasilnya kota makkah berjayajaranahdikuasai oleh umat islam makkah terus almuallaberkembang maju dan menjadi kota suciumat islam sehingga kini kudaaktivitigununghind makkahalhajam almukarramahjarwal jabal nurgunung umarlokasi benteng kunoberdasarkan gambar di atas secaraberkumpulan bincangkan cara umat pembukaan semula kota makkahislam boleh mewujudkan perpaduan sumber sami bin abdullah almaghluts atlas rasulullahsaw selangor pts islamika sdn bhd 2014 hlm 337dengan mengunjungi kaabahaktivitiithinkbagaimanakah kepimpinan yanglakarkan peta pemikiran yang sesuai bagiberwibawa mampu menggemilangkanmenggambarkan ciriciri kepimpinan nabisesebuah tamadunmuhammad sawkita telah pun mengetahui keagungan nabi muhammad saw sebagai pemimpinnegara dan masyarakat yang telah berjaya membawa negara islam madinah mencapaikesejahteraan piagam madinah berjaya mewujudkan kestabilan politik kemajuanekonomi dan kehidupan yang aman antara kaum baginda bukan sahaja menumpukanhal akidah tetapi hal ehwal kehidupan duniawi kita haruslah mencontohi akhlak muliabaginda dalam menjalani kehidupan seharian kepimpinan baginda boleh menjaditeladan bagi memantapkan jati diri173</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1658,20 +1886,24 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab  Zaman Prasejarah </t>
+          <t xml:space="preserve">Bab  Tamadun Islam dan Sumbangannya </t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kesimpulan </t>
+          <t xml:space="preserve"> Sumbangan Tamadun Islam kepada Dunia </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>sumbangan tamadun islam84kepada duniatamadun islam memberikan sumbangan yang besar terhadap perkembangan tamadundunia hal ini demikian kerana tamadun islam menekankan keseimbangan kemajuankebendaan dan kerohanian yang meninggalkan kesan pembangunan fizikal dan insaniahsehingga kini baik dari segi politik ekonomi mahupun sosialpolitikdalam bidang politik islam mementingkan corak hidup yang sejahtera dan makmurislam juga mementingkan kehidupan bernegara pemerintahan dan cara hidup berteraskankeadilan konsep ummah dan sistem syurakehidupan bernegarasemasa pemerintahan nabi muhammad saw baginda merupakan ketua negarayang bertanggungjawab menjaga madinah dan menyelesaikan masalah rakyatmelalui perlembagaanjawatan khalifah selepas kewafatan nabi muhammad saw juga berperananuntuk menegakkan agama dan mentadbir mengikut hukum syariahkerjasama antarabangsa dijalinkan bagi tujuan dakwah dan silaturahimpenerokaan wilayah baharu telah menaikkan lagi imej islampemerintahan dan cara hidup berteraskan keadilancara pemerintahanyang adil kepada semuapenduduk meskipunberbeza agama danketurunankeadilan dan toleransiantara kaum membawakedamaian kepadanegaraperpaduan membentuk kemajuan ummahsumber jabatan kemajuan islam malaysia174konsep ummahtamadun islam mewujudkan konsep masyarakat yang lebih dikenali sebagaiummahmelaluikonsep ummah ini masyarakat disatukan tanpa mengira agama danketurunansetiap anggota masyarakat mempunyai tanggungjawab yang sama iaitubekerjasama bagi memajukan negarasistem syurasyura ialah mesyuarat yang diadakan untuk mencapai keputusan mengikutsuara ahli yang terbanyakdiamalkan sejak zaman nabi muhammad saw dan diteruskan oleh kepimpinanislam selepasnyasyura juga diamalkan bagi mencapai keputusan secara muafakatkerjasama antarabangsa dalam melaksanakan tanggungjawab dakwah danpengurusan hal ehwal islam kepada umat islam seluruh duniasumber jabatan kemajuan islam malaysiaaktivitisecara berkumpulan jawab soalan di bawah1 apakah maksud sistem syura2 mengapakah pemimpin perlu mengamalkan bincangkan kebaikan konsepsistem syura syura kepada masyarakat175ekonomisumbangan tamadun islam juga dapat dilihat dari segi ekonomi contohnyamemperkenalkan amalan ekonomi islam pengenalan baitulmal menggalakkan perniagaandan perdagangan serta memperluas pembinaan empangan dan kemudahan asas lainamalan ekonomi islamislam menekankan beberapa amalan dalam sistem ekonomi bagi mendidik jiwamanusia agar berdisiplin amanah dan berjiwa bersihmengadakan sistem zakat dan sistem wakaf untuk pembangunan umat islammengadakan sistem mata wang dirham dan perak untuk menjalankan aktivitiekonomimengadakan kutipan sistem cukai iaitu bayaran dalam bentuk wang oleh sesebuahkerajaan atau negara bagi individu atau syarikat yang tujuan asalnya adalah untukmembiayai segala keperluan negara sistem cukai yang pernah dilaksanakan dinegara islam ialah cukai tanah alkharaj cukai perlindungan suh aljizyahcukai diri jizyah alruus dan cukai perdagangan alusyrmelarang amalan riba kerana boleh menghancurkan konsep keadilan dalammasyarakatmenegah penindasan dan penipuan semasa berniaga seperti mengurangkantimbangan boros kedekut membazir mengambil keuntungan berlipat kali gandadan tidak amanahmenggalakkan manusia menghasilkan produk yang bermutu dan melakukanpenyelidikan dalam membangunkan ekonomi contohnya dalam bidang pertaniantidak menyekat umatnya daripada menjalankan perdagangan selagi mengikuthukum syarak seperti mengeluarkan zakat dan menjaga kebajikan masyarakatmenyeru kita menghulurkan bantuan dan bersedekah di samping mengamalkansikap berjimat cermatglosarihalal dibenarkan menurut hukum islamriba faedah berganda yang membebankandan diharamkan oleh islamberzakat merupakan kewajipan dalam kalanganamalan bersedekah mampu membentukpenganut agama islammasyarakat yang sejahtera bincangkan176institusi baitulmal institusi kewanganfungsinya seperti perbendaharaan negara yang mengurus kewangan untuk pembangunannegarasistem ini telah diamalkan sejak zaman nabi muhammad saw dan diteruskan olehpemimpinpemimpin lain sehingga kinisumber baitulmalharta melalui zakat masyarakat harta hak milik umat pelaburan dan saham yangcontohnya islam yang tidak jelas dijual kepada umat islam zakat fitrah zakat harta penggunaannya contohnya melalui institusi yangternakan pertanian emas perak sedekah wakaf dan wasiat ditubuhkan oleh baitulmal barang perdagangan wang simpananharta negara contohnya harta daripada peperangan segala harta warisan yang cukai perdagangan contohnya tidak dapat dihabiskan sumber kekayaan alam jizyah ghanimah dan oleh waris atau tidak cukai harta kharaj berwaris harta tanpa warismemesatkan gedunggedung menyediakan kemudahan asasperniagaan dalam bidang pertanian pula orang islamkedatangan islam ke sepanyol telah telah memperluas pembinaan sistem saliranmenyebabkan terbinanya gedunggedung sistem pengairan telah diperbaik untukperniagaan yang beroperasi mengimport meningkatkan hasil pertanian contohnyabarangbarang dari seluruh pelosok dunia sistem pengairan naurah di syriakemudahan jambatan dan jalan raya yanglebih baik juga dibina seperti di sepanyolkepesatan dalam perniagaan membawakemakmuran ekonomisistem pengairansumber mokhtar moktefi the rise of islam paris sumber mokhtar moktefi the rise of islam parissilver burdett press 1985 hlm 36 silver burdett press 1985 hlm 28aktiviti simulasiseandainya anda berada pada zaman kemajuan lakonkan satu situasi di bazartamadun islam apakah inovasi yang ingin anda perniagaan dengan mengaplikasikanhasilkan bagi memajukan perdagangan sistem ekonomi islam177sosialsumbangan tamadun islam dalam bidang sosial adalah luas dan kekal hingga sekaranghal ini terbukti dalam pelbagai aspek seperti mengangkat kedudukan wanita memajukanpenyelidikan saintifik memesatkan kegiatan intelektual dan kemunculan ilmuan islamislam mengangkat kedudukan dan maruah wanitakedatangan islam telah mengangkat martabat dan memuliakan kedudukan wanita wanitamempunyai peluang untuk mendapat pendidikan dan menghadiri majlis ilmu siti aisyahbinti abu bakar assiddiq merupakan contoh wanita yang luas ilmunya sehingga menjadiperiwayat hadis serta tempat bertanya kaum wanita serta para sahabat tentang permasalahanhukum agama begitu juga dengan shafiah binti abdul muthalib yang keluar berperangbersamasama kaum wanita madinah untuk membantu memberikan minuman dan merawattentera yang tercedera dalam perang uhudteknik penyelidikansaintifikperkembangan penyelidikanbidang sains dan teknologidalam tamadun islam telahmembantu perkembanganindustri pengeluaran baranganseperti industri kertas yangkemudiannya diperkenalkandi itali perancis dan negaraeropah lain begitu jugadalam kaedah penyelidikanpertanian seperti sistempengairan pemilihan benihteknik cantuman untuk teknik membuat kertas dengandan baja yang bermutu telahmenghasilkan pelbagai bunga menggunakan campuran kainmembawa kemajuan dalamdan buah linen pisang tali hem dan kapastamadun islam penyelidikansumber mokhtar moktefi the rise of sumber mokhtar moktefi the rise ofsaintifik juga berlaku dalamislam paris silver burdett press 1985 islam paris silver burdett press 1985bidang astronomi fizik hlm 29 hlm 55perubatan dan kimiacerna mindapada pendapat anda mengapakah masyarakat islam ketika itu memberikan tumpuandalam penyelidikan bidang pertanian178kewujudan pusat kegiatan intelektualkewujudan pusat pendidikantamadun islam telah mengembangkan kegiatan keilmuan dengan pesatnya semasapemerintahan kerajaan bani umaiyah banyak masjid dijadikan institusi pendidikan sepertidi damsyik kufah dan basrah istana khalifah turut dijadikan pusat kegiatan pendidikaniaitu tempat belajar dan perpustakaanpusat intelektual di cordoba dantoledo sepanyolpara pengkaji atau pelajar daripelbagai pelosok eropah telah datangbelajar di universitiuniversiti islamdi sini terutama dalam bidang sainsdan falsafahpara sarjana islam ketika melakukanpenterjemahan telah meningkatkanlagi pengetahuan tentang falsafahdan sains dari zaman yunanisemasa tamadun islam pesatberkembang di sepanyol hubunganorang islam yahudi dan kristiantelah mewujudkan budaya ilmu yangmemberangsangkankegiatan keilmuan di sepanyolsumber mokhtar moktefi the rise of islam paris silver burdettpress 1985 hlm 54tahukah andaterdapat orang kristian di sepanyol yang terpengaruh dengancara hidup masyarakat arab seperti dalam berpakaian makanandan hubungan sosial mereka digelar mustarab yang menjadiarab atau mozarab melalui golongan inilah tamadun islamdan arab tersebar kepada masyarakat eropah terutama dari segihubungan sosial179kemunculan ilmuan islambidang tokoh sumbanganilmu sains dan jabir bin menghasilkan sebanyak 80 buah karyakimia hayyan berkaitan perubatan dan kimia himpunangeber hasil penulisannya dikenali sebagaikorpus jabir kebanyakan karyanyaditerjemahkan ke dalam bahasa latinibn sina avicenna merupakan tokoh perubatan dan ahliperubatanfalsafah yang masyhur dengan bukunyaalqanun fi altib ahli falsafah baratalbert the great telah dipengaruhi olehkarya ibn sinafalsafah alkindi menghasilkan lebih daripada 270 buahkarya mencakupi pelbagai bidangseperti logik muzik dan perubatantokoh ilmuan atau pengkaji eropahseperti roger bacon dan descartesterpengaruh dengan idea alkindiastronomi dan albattani albategnius beliau memperkenalkanfalak asas ilmu trigonometrimenulis buku astronomidan mencipta alat ukuranmasakulit 46 100 145 168sumber mokhtar moktefi the rise of islam paris silver burdett press 1985 hlm 9 56sumbangantamadunislamviii 48 102 146 18018065 108 1471313 ipim 77 128 16130 95 130 16530 you tube 98 142 167geografi albiruni kajian utama beliau dalam bidang kartografipeta dan geografi kebanyakan orangeropah telah belayar dengan menggunakanpeta yang dicipta oleh tokoh inirajah tentang gerhana bulan yangdihasilkan oleh albirunimatematik alkhawarizmi pengasas ilmu algebrapengasas kitab hisab aljabr wa almuqabalah yang telah diterjemahkanke dalam pelbagai bahasa terjemahanke dalam bahasa latin dilakukan olehgerald of cremona dan dijadikan teksasas di universitiuniversiti di baratpelayaran ibn battutapernah berlayar sampai ke india danalam melayubuku pelayaran beliau digunakan olehpelayar lain selepas itusecara keseluruhannya tamadun islam telah memberikan sumbangan yang besar dalamperadaban dunia tamadun islam telah membuka minda masyarakat untuk mengkaji corakhidup yang sejahtera di samping memajukan pelbagai bidang sama ada politik ekonomimahupun sosial masyarakat kini perlu menghargai sumbangan yang bermanfaat dalampelbagai bidang khususnya keilmuan kerana ilmu tersebut berterusan dikaji hingga kiniaktiviti inkuiribagaimanakah tokoh ilmuan ilmuan islam telah memberikan sumbangan dalamislam memberikan sumbangan bidang agama sains dan teknologi secara berkumpulandalam meningkatkan tamadun kaji tentang tokoh islam tersebut bentangkan hasildunia dapatan kajian dalam bentuk persembahan multimedia181</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1679,20 +1911,24 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab  Zaman Prasejarah </t>
+          <t xml:space="preserve">Bab  Tamadun Islam dan Sumbangannya </t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pemahaman dan Pemikiran Kritis </t>
+          <t xml:space="preserve"> Sumbangan Tamadun Islam dalam Bidang Seni Bina </t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr"/>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>sumbangan tamadun islam dalam85bidang seni binaseni bina bermaksud bidang seniuntuk mendirikan bangunan rekamempunyaibentuk dan reka letak yang dibina ruang cahayaoleh manusia seni bina bangunan untuk keselesaanislam boleh dilihat pada masjid beribadatdan beberapa bangunan bercorakislam dengan mempunyai ciriciri berunsurkan terdapat ruangtertentu luahan perasaan memisahkandari sudut sejarahnya seni hening dan lelaki danbina islam bermula dengan aman ciriciri wanitapembinaan masjid quba pada seni binazaman nabi muhammad saw islampada zaman baginda masjidberfungsi sebagai tempat beribadatdan menyampaikan segala reka bentukbinaan yangmaklumat masjid tertua ini ruang sesuaikukuh selamatmenjadi model pembinaan masjid dengan iklimdan tahan lamayang lain sehingga kini setempatmihrabpembinaan menara mihrab mimbardan mimbarseni bina islam telah memperluas senibina menara menara dibina dalambentuk tirus dan memuncak tinggihal ini bertujuan untuk memastikanlaungan azan didengari dari jarakyang jauhmihrab juga dibina berfungsi sebagaipenanda arah kiblat dan menjadisatu daripada elemen terpentingdi dalam sesebuah masjidterdapat juga mimbar yang digunakanoleh imam untuk membaca khutbahatau syarahanmihrab dan mimbar di masjid sultan hassanmadrasa kaherah182menggalakkan perhiasan yangindahtamadun islam juga menghasilkanbentuk bangunan yang indah kubahyang menarik arca yang mempesonakandan seni khat serta ukiran yangmenakjubkan ukiran menjadi lebih berseni apabiladihiasi kaca bertatah batu permatafungsinya untuk mewujudkan rasatenang sebagai pelengkap binaan dan hiasan dalaman masjid putra putrajaya malaysiamemperlihatkan keunikan seni binaislammenghasilkan keunikan reka bentuk reka bentuk pintu berbentuk melengkung yang melambangkan perasaan hormat dantunduk menjemput masuk ke dalam masjid atau institusi itu identiti unik yang ketara ialah aspek penggunaan air dan cahaya yang berfungsi untukmenimbulkan kesan dari segi penampilan ruangmasjid cordoba sepanyolsumber kedutaan sepanyol di malaysiaistana alhambra sepanyolsumber kedutaan sepanyol di malaysiaaktiviti lawatanbersamasama rakan kumpulan buat lawatan ke masjid berdekatan untuk melihat senibina masjid anda boleh melihat dari sudut pengaruh islam dan unsur tempatan padabinaan tersebut laporkan dapatan anda di dalam kelas183mempunyai elemen estetika menyesuaikan reka bentukseni bina islam turut menggalakkan dengan iklim setempatpenghayatan nilai estetika binaan seni bina islam juga menerima budayabangunan diperindah dengan ukiran setempat dan disesuaikan dengan faktorarabes motif kaligrafi geometri dan geografi terutamanya dalam aspek bentukcakerawala yang berfungsi untuk muka bumi cuaca keadaan angin danmemberikan keselesaan dan ketenangan suhu seni bina di nusantara mempunyaitingkap yang tersusun dengan jumlahyang banyak keadaan ini disebabkan olehiklim nusantara yang panas dan lembapberserta hujan yang kerap fungsi tingkapyang banyak adalah untuk penyejukan danpengudaraan contohnya pada masjidtengkera melakamotif geometri di siling masjid abu dhabimasjid tengkera melakaglosariarabes corak hiasan pada catan ukiran kayu danseumpamanya yang bermotifkan tumbuhtumbuhanhaiwan atau manusia yang disusun dengan garisan bersegibergeometri atau berlengkoklengkok awan larat nyatakan kepentingancakerawala bintangbintang di langit seperti bulan dan nilai estetika padamatahari seni bina bangunankaligrafi seni menulis dengan indah seni khat di negara kitaaktiviti tmk1 lakukan lawatan ke muzium kesenian islam atau layari laman web berikut hasilkan folio berkaitan artifak atau model masjid yang terdapat di dalam muziumtersebut184menyesuaikan seni bina dengan budaya setempatterdapat juga seni bina dan elemenestetika yang mengikut kesesuaian budayadan seni bina tempatan contohnyamasjid di china yang mengambilinspirasi rumah tradisional kuil danistana hal ini dapat dilihat pada masjidhuang sheng si di guangzhou masjidniu jie beijing dan masjid zhenjiao sidi hangzhou masjid huang sheng si guangzhou chinapenggunaan kubah sebagai struktur utama bumbungdapat ditemui di masjidmasjid pada zaman turkiuthmaniyah contohnya masjid sultan ahmetmasjid biru yang mempunyai ruang solat utama yangditutupi kubah setengah lingkaran dan mempunyaibanyak menara di sisi masjid fungsinya untukkeselamatan dengan memperkukuh sistem strukturmasjid sultan ahmet turki daripada rentangnya yang lebarmasjid di india juga mempunyai keunikannyadengan binaan pintu gerbang yang besarberfungsi sebagai pintu masuk utama cirimasjid di india juga dapat dikenali denganmudah kerana menggunakan bumbungberbentuk bawang dan lengkung yangmenirusmasjid moti indiasumbangan tamadun islam dalam bidangseni bina dapat dibuktikan melalui ciriciri seni binayang unik dengan fungsinya yang pelbagai sehinggakini seni bina menjadi simbol kegemilangantamadun islam untuk dihayati olehgenerasi seterusnya185</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1700,20 +1936,24 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab  Zaman Prasejarah </t>
+          <t xml:space="preserve">Bab  Tamadun Islam dan Sumbangannya </t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arif dan Peka Sejarah </t>
+          <t xml:space="preserve">K esimpul an </t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr"/>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>kesimpulanmasyarakat arab sebelum kedatangan islamdikenal sebagai masyarakat jahiliah merekamengamalkan pelbagai corak hidup sepertimengamalkan riba tilik nasib dan perjudianpenyebaran islam bermula dari zaman nabimuhammad saw dan seterusnya berkembangpada zaman khulafa alrasyidin bani umaiyahbani abbasiyah dan beberapa kerajaan islam laintermasuklah turki uthmaniyah agama islammenekankan keimanan kepada allah swt dankehidupan berharmonikepimpinan nabi muhammad saw dalam penyebaranagama islam pembinaan negara pemerintahan yangadil dan mewujudkan masyarakat yang harmoni patutlahdicontohi bagi membentuk masyarakat dan kehidupanyang sejahteratamadun islam telah menyinari duniadalam pelbagai aspek sama ada politikekonomi mahupun sosialislam memberikan sumbangan yangbesar dalam bidang seni bina yangmenjadi warisan dunia sehingga hari initamadun islam telah memberikan sumbangan yang besar dalam membentuk kehidupanmanusia yang lebih baik dan berkualiti186</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1721,20 +1961,24 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab  Mengenali Tamadun </t>
+          <t xml:space="preserve">Bab  Tamadun Islam dan Sumbangannya </t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Maksud Tamadun </t>
+          <t xml:space="preserve">Pemahaman dan Pemikiran Kritis </t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr"/>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>pemahaman dan pemikiran kritis1 apakah kesan semangat assabiyah dalam kalangan masyarakat arab sebelum islama keruntuhan akhlakb kemerosotan perdaganganc kerap berlaku peperangand kemunculan pelbagai kepercayaan2 apakah kepentingan wahyu pertama yang diturunkan pada tahun 610 ma penyebaran islam secara terbukab pembukaan semula kota makkahc berakhirnya sistem kabilahd bermulanya tamadun islam3 albiruni memberikan sumbangan yang besar dalam bidangi geografiii kartografiiii algebraiv perubatana i dan iib ii dan iiic iii dan ivd i dan iv4 jelaskan kegiatan ekonomi masyarakat arab sebelum kedatangan islam5 nyatakan pusatpusat pemerintahan bagi kerajaankerajaan islam di bawahkerajaan islam pusat pemerintahanbani umaiyah iiibani abbasiyahturki uthmaniyah187pemahaman dan pemikiran kritis6 terangkan ketokohan nabi muhammad saw dalam aspek yang berikutpemimpin masyarakatpembangun ekonomimempertahankan agama islam7 labelkan gambar di bawah8 berdasarkan gambar di bawah jelaskan pengaruh islam pada seni bina masjidwilayah persekutuan kuala lumpur188</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -1742,20 +1986,24 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab  Mengenali Tamadun </t>
+          <t xml:space="preserve">Bab  Tamadun Islam dan Sumbangannya </t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Konsep Tamadun </t>
+          <t xml:space="preserve">Arif dan Peka Sejarah </t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr"/>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>arif dan peka sejarahnilai patriotisme dan iktibarapabila mempelajari bab tamadun islam dan sumbangannya kita dapat meneladanibahawa berganding bahu membangunkan negara sehingga mampu membentukperadaban yang tinggi merupakan tanggungjawab semua warganegaratamadun islam mendorong sikap bertanggungjawab kepada bangsa dan negarasumbangan tamadun islam telah menjadikan kita bersyukur bersifat terbukaamanah dan berakhlak mulia dalam kalangan warganegaradiri dan keluarga negarakita akan lebih mengenali corak hidup kita akan lebih bersifat terbuka setelahmasyarakat yang bertamadun hal ini mengetahui dan memahami sumbanganmendorong kita membentuk keluarga tamaduntamadun di dunia hal inidan masyarakat yang lebih terarah dan membantu kita menjadi warganegaragemilang yang lebih menghargai berbangga danmencintai negaramenghasilkan anyamanbermotif geometritumbuhtumbuhan danawan larat ini amatbernilai dan memerlukankreativiti kitaya penghasilan anyamanbegini menjadikan kita lebihmenghargai seni dan berbanggamenjadi rakyat malaysia189</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -1763,83 +2011,24 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bab  Mengenali Tamadun </t>
+          <t xml:space="preserve">Bab  Tamadun Islam dan Sumbangannya </t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ciriciri Tamadun Awal Dunia </t>
+          <t xml:space="preserve">Bibliografi </t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bab  Mengenali Tamadun </t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t xml:space="preserve">K esimpul an </t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bab  Mengenali Tamadun </t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pemahaman dan Pemikiran Kritis </t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bab  Mengenali Tamadun </t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arif dan Peka Sejarah </t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr"/>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>bibliografibuku dan jurnalabdullah azmi abdul khalid loh wei leng dan thami munisah mohd yusoff 1993 atlas sejarah malaysia dandunia kuala lumpur fajar baktiabdul rahman haji abdullah 1994 pengantar ilmu sejarah kuala lumpur dewan bahasa dan pustakaabdul rahman haji ismail 2001 china pensejarahan dan pembinaan tamadun kuala lumpur dewan bahasadan pustakaabdul rahman haji abdullah 2002 sejarah dan tamadun islam selangor pustaka ilmiackermann marsha e m j schroeder jj terry jiuhwa lo upshur mark f whitters 2008 encyclopedia ofworld history the ancient world prehistoric eras to 600 ce voli facts on fileadi haji taha mohd kamaruzaman a rahman dan mohd supian sabtu peny 2013 kamus arkeologi dataarkeologi dan teknik arkeologi kuala lumpur dewan bahasa dan pustakaadler philip j dan randall l powells 2012 world civilizations sixth edition boston wadsworthahmad jelani halimi 2008 sejarah dan tamadun bangsa melayu kuala lumpur utusan publication sdn bhdahmad kamal abdullah 1990 kesenian islam kuala lumpur dewan bahasa dan pustakaahmat adam 2016 antara sejarah dan mitos petaling jaya strategic information and research developmentcentreali k 1980 a study of islamic history india idarahi adabiyatidelhiapidah othman 2011 batuan dan tulang terjemahan selangor orbit buku sdn bhdarbaiyah mohd noor 2002 ilmu sejarah dan pensejarahan kuala lumpur dewan bahasa dan pustakaatlas of world history second edition 2012 new york the nystromazam hamzah dan zulekha yusoff 1990 tamadun islam konsep dan pencapaiannya shah alam penerbitanhizbiazharudin mohamed dali 2015 tamadun india cetakan kedua kuala lumpur dewan bahasa dan pustakabangunan warisan malaysia al bukhary series vi 2013 kuala lumpur jabatan warisan negarabellwood peter 1997 prehistory of the indomalaysian archipelago honolulu university of hawai pressbraidwood robert j 1964 prehistoric men atlanta scott foresman and companydalal roshen 2010 the compact timeline history of the world cambridge worth pressdavison michael worth ed 2000 readers digest whenwhere why how it happened london readersdigest assoct ltdensiklopedia islam untuk pelajar jilid 13456 dan 9 2003 kuala lumpur era visi publication sdn bhd danyayasan dakwah islamiah malaysiafagan brian 1987 new treasures of the past london guild publicationfiero gloria k 2005 landmarks in humanities new york mcgraw hillgerald a danzer 2002 atlas of world history london laurence king pubhall robert dan christopher k morley 2004 sundaland basins new york american geophysical unionhanif yahya etal 2004 perjalanan hidup rasulullah yang agung terjemahan jakarta pustaka al sofwahasan hamzah etal 1997 siri ensiklopedia remaja apa dan mengapa shah alam piramid perdanahitti phillip k 1970 history of the arabs new york stmartins presshowell f clark 1966 early man netherland timelife internationalibn khaldun 1995 muqaddimah ibn khaldun terjemahan kuala lumpur dewan bahasa dan pustakaidris zakaria 2012 islam dan falsafahnya dalam kebudayaan melayu bangi universiti kebangsaan malaysiaismail noor 1999 prophet muhammads leadership kuala lumpur utusan publication distributors sdn bhdkamara peter 1996 ancient roman mythology london chartwell bookskamus dewan edisi keempat 2007 kuala lumpur dewan bahasa dan pustakakister mj 1980 studies in jahiliyya and early islam london variorum reprintslok chong hoe 1998 tamadun cina falsafah pandangan hidup dan aspekaspek kesenian kuala lumpurpusat pembangunan dan pendidikan komunitimacardle meredith 2008 the timeline history of china california thunder bay pressmahayudin hj yahaya 2001 tamadun islam selangor fajar bakti sdn bhdmahmood zuhdi hj ab majid 2000 tokohtokoh kesarjanaan sains islam kuala lumpur dewan bahasa dan pustakamatthews rupert 2007 ancient world essex miles kelly publication190michaelson carol ed 1996 ancient china london time life booksmohd alpian 2013 penjejak sejarah ahli arkeologi terjemahan kuala lumpur institut terjemahan dan bukumalaysiamohd radzi haji othman hussin che pa dan meor othman hamzah 1989 beberapa aspek tamadun islam kotabharu pustaka aman press dan universiti sains malaysiamokhtar moktefi 1985 the rise of islam paris silver burdett pressmuhd yusof ibrahim 1986 pengertian sejarah kuala lumpur dewan bahasa dan pustakamuhd yusof ibrahim 1997 ilmu sejarah falsafah pengertian dan kaedah kuala lumpur dewan bahasa dan pustakamustafa hj daud 1999 tamadun islam kuala lumpur utusan publication distributors sdn bhdnangkula utaberta dan mohamad tajudin mohamad rasdi 2013 pemikiran seni bina islam moden di dunia danmalaysia johor bahru universiti teknologi malaysianeil kagan ed 2013 concise history of the world washington national geographic societynik hassan shuhaimi nik abdul rahman ed 1998 the encyclopedia of malaysia early history singapuraarchipelago pressosman bakar azizan baharuddin dan zaid ahmad 2012 tamadun islam dan tamadun asia kuala lumpurpenerbit universiti malayaraes niels charles h cannon rj hijmans etal 2014 historical distribution of sundalands diptrecarprainforests at quaternary glacial maxima pnas nov 25 vol 111 no 47 1679016795sami bin abdullah al maghluts 2014 al atlas at tarikh li sirati arrasul saw terjemahan arab saudi obeikanpublishingsami bin abdullah almaghluts 2014 atlas rasulullah saw selangor pts islamika sdn bhdschmidt karl j 1995 an atlas and survey of south asian history armonk m e sharpebrandon s g f ed 1973 ancient empires new york readers digest associationsivachandralingam sundara raja 1996 tamadun eropah shah alam fajar baktisivachandralingam sundara raja dan ayadurai letchumanan 1999 tamadun dunia shah alam fajar baktisivachandralingam sundara raja dan ayadurai letchumanan 2008 tamadun greek shah alam karisma publicationsivachandralingam sundara raja dan ayadurai letchumanan 2008 tamadun rom shah alam karisma publicationsivachandralingam sundara raja dan ayadurai letchumanan 2009 tamadun mesir purba shah alam karismapublicationskinner brian j s c porter dan j park 2013 dynamic earth fifth edition london john willey sonsstanley steven m 2009 earth system history third edition new york wh freeman and companysuffian mansor 2003 tamadun china kuala lumpur dewan bahasa dan pustakasusan elizabeth ramirez peter stearns dan sam wineburg 2008 the world history human legacy northcarolina holt rinehart and winstonsyed muhammad naquib al attas 1972 islam dalam sejarah dan kebudayaan melayu bangi universitikebangsaan malaysiatoynbee arnold j 1972 a study of history london oxford university pressvoris harold k 2008 maps of pleistocene sea levels in southeast asia shorelines river systems and timedurations dlm journal of biogeography hlm 27 11531167wan abdul rahman etal 1996 sejarah perkembangan tamadun dunia kuala lumpur dewan bahasa dan pustakawan kamariah leman mazlah yaacob 1997 sejarah dan tamadun islam shah alam institut teknologi marawarisan arkeologi malaysia al bukhary series viii 2013 kuala lumpur jabatan warisan negarawatson william 1966 early civilization in china new york mcgraw hill bookwoollacott angela 2012 overview the ancient to the modern world c 650ce1750 londoncambridge university pressworld heritage malaysia al bukhary series ix 2013 kuala lumpur jabatan warisan negaraworld history the ancient world 40000500 bc 1997 london kingfisherwright esmond ed 1979 the ancient world london hamlynzulkanain abdul rahman 2002 tamadun eropah klasik kuala lumpur dewan bahasa dan pustakalaman webcivil service examinations dicapai pada 15 februari 2016ichisada miyazakithe chinese civil service exam system dicapai pada 3 mac 2016kenali manuskrip melayu utusan online wwwutusancommy dicapai pada 7 disember 2015mark cartwright colloseum dicapai pada 3 februari 2016191</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
